--- a/Business Plan Documents/YPS Profit and Loss Projection.xlsx
+++ b/Business Plan Documents/YPS Profit and Loss Projection.xlsx
@@ -5,18 +5,18 @@
   <workbookPr showInkAnnotation="0" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\tentrep-yps\Business Plan Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acer2\Documents\Not Mine - KIMMY\TENTREP REPO\tentrep-yps\Business Plan Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7935" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7935" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="PnL projection (Year 1)" sheetId="1" r:id="rId1"/>
     <sheet name="PnL projection (Year 2)" sheetId="2" r:id="rId2"/>
     <sheet name="PnL projection (Year 3)" sheetId="3" r:id="rId3"/>
     <sheet name="PnL projection (Year 4)" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet4" sheetId="5" r:id="rId5"/>
+    <sheet name="Basis of Estimates" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'PnL projection (Year 1)'!$6:$6</definedName>
@@ -472,6 +472,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>Totals and percentages are calculated automatically.</t>
         </r>
@@ -719,14 +720,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="6">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="165" formatCode="[$-409]mmm\-yy;@"/>
-    <numFmt numFmtId="166" formatCode="#,##0.000"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="[$-409]mmm\-yy;@"/>
+    <numFmt numFmtId="167" formatCode="#,##0.000"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -828,12 +829,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="8"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1021,7 +1016,7 @@
     <xf numFmtId="9" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" textRotation="60" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" textRotation="60" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1046,16 +1041,16 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="12" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1064,13 +1059,13 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1079,45 +1074,45 @@
     <xf numFmtId="3" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="12" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1149,7 +1144,7 @@
     <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1582,7 +1577,7 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -8922,8 +8917,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD71"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -12828,7 +12823,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
@@ -16607,8 +16602,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P26"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/Business Plan Documents/YPS Profit and Loss Projection.xlsx
+++ b/Business Plan Documents/YPS Profit and Loss Projection.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7935"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7935" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="PnL projection (Year 1)" sheetId="1" r:id="rId1"/>
@@ -2182,8 +2182,8 @@
   </sheetPr>
   <dimension ref="A1:AC66"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="7" topLeftCell="B17" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="7" topLeftCell="B23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
       <selection pane="bottomRight" activeCell="M27" sqref="M27"/>
@@ -2937,7 +2937,7 @@
         <v>206050</v>
       </c>
       <c r="D13" s="28">
-        <f t="shared" ref="C13:AB13" si="13">SUM(D8:D12)</f>
+        <f t="shared" ref="D13:AB13" si="13">SUM(D8:D12)</f>
         <v>100</v>
       </c>
       <c r="E13" s="27">
@@ -5084,7 +5084,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD68"/>
   <sheetViews>
-    <sheetView topLeftCell="J14" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="AA24" sqref="AA24"/>
     </sheetView>
   </sheetViews>
@@ -8933,8 +8933,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD68"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="AA33" sqref="AA33"/>
+    <sheetView topLeftCell="K16" workbookViewId="0">
+      <selection activeCell="AC36" sqref="AC36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -10709,97 +10709,73 @@
         <v>25</v>
       </c>
       <c r="B26" s="23"/>
-      <c r="C26" s="24">
-        <v>4800</v>
-      </c>
+      <c r="C26" s="24"/>
       <c r="D26" s="22">
         <f t="shared" si="14"/>
-        <v>0.39238767902687854</v>
-      </c>
-      <c r="E26" s="24">
-        <v>4800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E26" s="24"/>
       <c r="F26" s="22">
         <f t="shared" si="15"/>
-        <v>0.25605735684793396</v>
-      </c>
-      <c r="G26" s="24">
-        <v>4800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G26" s="24"/>
       <c r="H26" s="22">
         <f>IF(G$13=0,"-",(G26*100)/G$13)</f>
-        <v>0.21812827760458797</v>
-      </c>
-      <c r="I26" s="24">
-        <v>4800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I26" s="24"/>
       <c r="J26" s="22">
         <f t="shared" si="17"/>
-        <v>0.16379010298302726</v>
-      </c>
-      <c r="K26" s="24">
-        <v>4800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K26" s="24"/>
       <c r="L26" s="22">
         <f t="shared" si="18"/>
-        <v>0.26137099979852652</v>
-      </c>
-      <c r="M26" s="24">
-        <v>4800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="M26" s="24"/>
       <c r="N26" s="22">
         <f t="shared" si="19"/>
-        <v>0.1565797757647128</v>
-      </c>
-      <c r="O26" s="24">
-        <v>4800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O26" s="24"/>
       <c r="P26" s="22">
         <f t="shared" si="20"/>
-        <v>0.10870722200958888</v>
-      </c>
-      <c r="Q26" s="24">
-        <v>4800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="Q26" s="24"/>
       <c r="R26" s="22">
         <f t="shared" si="21"/>
-        <v>7.7755081213562435E-2</v>
-      </c>
-      <c r="S26" s="24">
-        <v>4800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="S26" s="24"/>
       <c r="T26" s="22">
         <f t="shared" si="22"/>
-        <v>0.16266885365903253</v>
-      </c>
-      <c r="U26" s="24">
-        <v>4800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="U26" s="24"/>
       <c r="V26" s="22">
         <f t="shared" si="23"/>
-        <v>9.7883673411123667E-2</v>
-      </c>
-      <c r="W26" s="24">
-        <v>4800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="W26" s="24"/>
       <c r="X26" s="22">
         <f t="shared" si="27"/>
-        <v>9.7883673411123667E-2</v>
-      </c>
-      <c r="Y26" s="24">
-        <v>4800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="Y26" s="24"/>
       <c r="Z26" s="22">
         <f t="shared" si="24"/>
-        <v>7.0026580923008688E-2</v>
+        <v>0</v>
       </c>
       <c r="AA26" s="24">
         <f>SUM(C26,E26,G26,I26,K26,M26,O26,Q26,S26,U26,W26,Y26)</f>
-        <v>57600</v>
+        <v>0</v>
       </c>
       <c r="AB26" s="22">
         <f t="shared" si="25"/>
-        <v>0.13292526507744051</v>
+        <v>0</v>
       </c>
       <c r="AC26" s="18"/>
       <c r="AD26" s="18"/>
@@ -11405,107 +11381,107 @@
       <c r="B33" s="26"/>
       <c r="C33" s="27">
         <f>SUM(C22:C32)</f>
-        <v>148688.68333333332</v>
+        <v>143888.68333333332</v>
       </c>
       <c r="D33" s="22">
         <f t="shared" si="14"/>
-        <v>12.154918198068579</v>
+        <v>11.7625305190417</v>
       </c>
       <c r="E33" s="27">
         <f>SUM(E22:E32)</f>
-        <v>148688.68333333332</v>
+        <v>143888.68333333332</v>
       </c>
       <c r="F33" s="22">
         <f t="shared" si="15"/>
-        <v>7.9318398432359949</v>
+        <v>7.6757824863880613</v>
       </c>
       <c r="G33" s="27">
         <f>SUM(G22:G32)</f>
-        <v>153688.68333333332</v>
+        <v>148888.68333333332</v>
       </c>
       <c r="H33" s="22">
         <f t="shared" si="16"/>
-        <v>6.9841349547535296</v>
+        <v>6.7660066771489413</v>
       </c>
       <c r="I33" s="27">
         <f>SUM(I22:I32)</f>
-        <v>148688.68333333332</v>
+        <v>143888.68333333332</v>
       </c>
       <c r="J33" s="22">
         <f t="shared" si="17"/>
-        <v>5.0736947407452897</v>
+        <v>4.9099046377622626</v>
       </c>
       <c r="K33" s="27">
         <f>SUM(K22:K32)</f>
-        <v>148688.68333333332</v>
+        <v>143888.68333333332</v>
       </c>
       <c r="L33" s="22">
         <f t="shared" si="18"/>
-        <v>8.0964395461582992</v>
+        <v>7.8350685463597731</v>
       </c>
       <c r="M33" s="27">
         <f>SUM(M22:M32)</f>
-        <v>181188.68333333332</v>
+        <v>176388.68333333332</v>
       </c>
       <c r="N33" s="22">
         <f t="shared" si="19"/>
-        <v>5.9105173765493513</v>
+        <v>5.7539376007846386</v>
       </c>
       <c r="O33" s="27">
         <f>SUM(O22:O32)</f>
-        <v>148688.68333333332</v>
+        <v>143888.68333333332</v>
       </c>
       <c r="P33" s="22">
         <f t="shared" si="20"/>
-        <v>3.3674028561312759</v>
+        <v>3.2586956341216871</v>
       </c>
       <c r="Q33" s="27">
         <f>SUM(Q22:Q32)</f>
-        <v>148688.68333333332</v>
+        <v>143888.68333333332</v>
       </c>
       <c r="R33" s="22">
         <f t="shared" si="21"/>
-        <v>2.4086043016918746</v>
+        <v>2.3308492204783122</v>
       </c>
       <c r="S33" s="27">
         <f>SUM(S22:S32)</f>
-        <v>153688.68333333332</v>
+        <v>148888.68333333332</v>
       </c>
       <c r="T33" s="22">
         <f t="shared" si="22"/>
-        <v>5.2084087371248726</v>
+        <v>5.0457398834658402</v>
       </c>
       <c r="U33" s="27">
         <f>SUM(U22:U32)</f>
-        <v>148688.68333333332</v>
+        <v>143888.68333333332</v>
       </c>
       <c r="V33" s="22">
         <f t="shared" si="23"/>
-        <v>3.0321238581937471</v>
+        <v>2.9342401847826234</v>
       </c>
       <c r="W33" s="27">
         <f>SUM(W22:W32)</f>
-        <v>148688.68333333332</v>
+        <v>143888.68333333332</v>
       </c>
       <c r="X33" s="22">
         <f t="shared" si="27"/>
-        <v>3.0321238581937471</v>
+        <v>2.9342401847826234</v>
       </c>
       <c r="Y33" s="27">
         <f>SUM(Y22:Y32)</f>
-        <v>153688.68333333332</v>
+        <v>148888.68333333332</v>
       </c>
       <c r="Z33" s="22">
         <f t="shared" si="24"/>
-        <v>2.2421443792484008</v>
+        <v>2.1721177983253921</v>
       </c>
       <c r="AA33" s="27">
         <f>SUM(AA22:AA32)</f>
-        <v>1831764.2</v>
+        <v>1774164.2</v>
       </c>
       <c r="AB33" s="22">
         <f t="shared" si="25"/>
-        <v>4.2272177403535718</v>
+        <v>4.0942924752761316</v>
       </c>
       <c r="AC33" s="18"/>
       <c r="AD33" s="18"/>
@@ -11549,107 +11525,107 @@
       <c r="B35" s="20"/>
       <c r="C35" s="21">
         <f>C19-C33</f>
-        <v>1074591.3166666667</v>
+        <v>1079391.3166666667</v>
       </c>
       <c r="D35" s="22">
         <f>IF(C13=0,"-",(C35*100)/C13)</f>
-        <v>87.845081801931428</v>
+        <v>88.237469480958296</v>
       </c>
       <c r="E35" s="21">
         <f>E19-E33</f>
-        <v>1725891.3166666667</v>
+        <v>1730691.3166666667</v>
       </c>
       <c r="F35" s="22">
         <f>IF(E13=0,"-",(E35*100)/E13)</f>
-        <v>92.068160156763994</v>
+        <v>92.324217513611927</v>
       </c>
       <c r="G35" s="21">
         <f>G19-G33</f>
-        <v>2046851.3166666667</v>
+        <v>2051651.3166666667</v>
       </c>
       <c r="H35" s="22">
         <f>IF(G13=0,"-",(G35*100)/G13)</f>
-        <v>93.015865045246471</v>
+        <v>93.233993322851049</v>
       </c>
       <c r="I35" s="21">
         <f>I19-I33</f>
-        <v>2781891.3166666669</v>
+        <v>2786691.3166666669</v>
       </c>
       <c r="J35" s="22">
         <f>IF(I13=0,"-",(I35*100)/I13)</f>
-        <v>94.926305259254718</v>
+        <v>95.090095362237747</v>
       </c>
       <c r="K35" s="21">
         <f>K19-K33</f>
-        <v>1687781.3166666667</v>
+        <v>1692581.3166666667</v>
       </c>
       <c r="L35" s="22">
         <f>IF(K13=0,"-",(K35*100)/K13)</f>
-        <v>91.903560453841692</v>
+        <v>92.164931453640222</v>
       </c>
       <c r="M35" s="21">
         <f>M19-M33</f>
-        <v>2884341.3166666669</v>
+        <v>2889141.3166666669</v>
       </c>
       <c r="N35" s="22">
         <f>IF(M13=0,"-",(M35*100)/M13)</f>
-        <v>94.08948262345065</v>
+        <v>94.246062399215361</v>
       </c>
       <c r="O35" s="21">
         <f>O19-O33</f>
-        <v>4266841.3166666664</v>
+        <v>4271641.3166666664</v>
       </c>
       <c r="P35" s="22">
         <f>IF(O13=0,"-",(O35*100)/O13)</f>
-        <v>96.632597143868722</v>
+        <v>96.741304365878307</v>
       </c>
       <c r="Q35" s="21">
         <f>Q19-Q33</f>
-        <v>6024541.3166666664</v>
+        <v>6029341.3166666664</v>
       </c>
       <c r="R35" s="22">
         <f>IF(Q13=0,"-",(Q35*100)/Q13)</f>
-        <v>97.591395698308119</v>
+        <v>97.669150779521686</v>
       </c>
       <c r="S35" s="21">
         <f>S19-S33</f>
-        <v>2797091.3166666669</v>
+        <v>2801891.3166666669</v>
       </c>
       <c r="T35" s="22">
         <f>IF(S13=0,"-",(S35*100)/S13)</f>
-        <v>94.79159126287513</v>
+        <v>94.954260116534172</v>
       </c>
       <c r="U35" s="21">
         <f>U19-U33</f>
-        <v>4755091.3166666664</v>
+        <v>4759891.3166666664</v>
       </c>
       <c r="V35" s="22">
         <f>IF(U13=0,"-",(U35*100)/U13)</f>
-        <v>96.967876141806244</v>
+        <v>97.065759815217362</v>
       </c>
       <c r="W35" s="21">
         <f>W19-W33</f>
-        <v>4755091.3166666664</v>
+        <v>4759891.3166666664</v>
       </c>
       <c r="X35" s="22">
         <f>IF(W13=0,"-",(W35*100)/W13)</f>
-        <v>96.967876141806244</v>
+        <v>97.065759815217362</v>
       </c>
       <c r="Y35" s="21">
         <f>Y19-Y33</f>
-        <v>6700851.3166666664</v>
+        <v>6705651.3166666664</v>
       </c>
       <c r="Z35" s="22">
         <f>IF(Y13=0,"-",(Y35*100)/Y13)</f>
-        <v>97.757855620751599</v>
+        <v>97.827882201674598</v>
       </c>
       <c r="AA35" s="21">
         <f>AA19-AA33</f>
-        <v>41500855.799999997</v>
+        <v>41558455.799999997</v>
       </c>
       <c r="AB35" s="22">
         <f>IF(AA13=0,"-",(AA35*100)/AA13)</f>
-        <v>95.772782259646419</v>
+        <v>95.905707524723852</v>
       </c>
       <c r="AC35" s="18"/>
       <c r="AD35" s="18"/>
@@ -12783,8 +12759,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD64"/>
   <sheetViews>
-    <sheetView topLeftCell="H7" workbookViewId="0">
-      <selection activeCell="Y34" sqref="Y34"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -14557,97 +14533,73 @@
         <v>25</v>
       </c>
       <c r="B26" s="23"/>
-      <c r="C26" s="24">
-        <v>4800</v>
-      </c>
+      <c r="C26" s="24"/>
       <c r="D26" s="22">
         <f t="shared" si="14"/>
-        <v>0.23571933684293234</v>
-      </c>
-      <c r="E26" s="24">
-        <v>4800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E26" s="24"/>
       <c r="F26" s="22">
         <f t="shared" si="15"/>
-        <v>0.15381755955623633</v>
-      </c>
-      <c r="G26" s="24">
-        <v>4800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G26" s="24"/>
       <c r="H26" s="22">
         <f>IF(G$13=0,"-",(G26*100)/G$13)</f>
-        <v>0.13103941556420659</v>
-      </c>
-      <c r="I26" s="24">
-        <v>4800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I26" s="24"/>
       <c r="J26" s="22">
         <f t="shared" si="17"/>
-        <v>0.1011501616295291</v>
-      </c>
-      <c r="K26" s="24">
-        <v>4800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K26" s="24"/>
       <c r="L26" s="22">
         <f t="shared" si="18"/>
-        <v>0.18838045788225044</v>
-      </c>
-      <c r="M26" s="24">
-        <v>4800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="M26" s="24"/>
       <c r="N26" s="22">
         <f t="shared" si="19"/>
-        <v>0.11289747850537851</v>
-      </c>
-      <c r="O26" s="24">
-        <v>4800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O26" s="24"/>
       <c r="P26" s="22">
         <f t="shared" si="20"/>
-        <v>7.8346305359621782E-2</v>
-      </c>
-      <c r="Q26" s="24">
-        <v>4800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="Q26" s="24"/>
       <c r="R26" s="22">
         <f t="shared" si="21"/>
-        <v>5.6023095521128587E-2</v>
-      </c>
-      <c r="S26" s="24">
-        <v>4800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="S26" s="24"/>
       <c r="T26" s="22">
         <f t="shared" si="22"/>
-        <v>0.12065318618671834</v>
-      </c>
-      <c r="U26" s="24">
-        <v>4800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="U26" s="24"/>
       <c r="V26" s="22">
         <f t="shared" si="23"/>
-        <v>7.2563510078391263E-2</v>
-      </c>
-      <c r="W26" s="24">
-        <v>4800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="W26" s="24"/>
       <c r="X26" s="22">
         <f t="shared" si="27"/>
-        <v>7.2563510078391263E-2</v>
-      </c>
-      <c r="Y26" s="24">
-        <v>4800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="Y26" s="24"/>
       <c r="Z26" s="22">
         <f t="shared" si="24"/>
-        <v>5.1896352172970554E-2</v>
+        <v>0</v>
       </c>
       <c r="AA26" s="24">
         <f>SUM(C26,E26,G26,I26,K26,M26,O26,Q26,S26,U26,W26,Y26)</f>
-        <v>57600</v>
+        <v>0</v>
       </c>
       <c r="AB26" s="22">
         <f t="shared" si="25"/>
-        <v>9.3632806594610582E-2</v>
+        <v>0</v>
       </c>
       <c r="AC26" s="18"/>
       <c r="AD26" s="18"/>
@@ -15253,107 +15205,107 @@
       <c r="B33" s="26"/>
       <c r="C33" s="27">
         <f>SUM(C22:C32)</f>
-        <v>148688.68333333332</v>
+        <v>143888.68333333332</v>
       </c>
       <c r="D33" s="22">
         <f t="shared" si="14"/>
-        <v>7.301832881537937</v>
+        <v>7.0661135446950052</v>
       </c>
       <c r="E33" s="27">
         <f>SUM(E22:E32)</f>
-        <v>148688.68333333332</v>
+        <v>143888.68333333332</v>
       </c>
       <c r="F33" s="22">
         <f t="shared" si="15"/>
-        <v>4.7647771674923671</v>
+        <v>4.610959607936131</v>
       </c>
       <c r="G33" s="27">
         <f>SUM(G22:G32)</f>
-        <v>153688.68333333332</v>
+        <v>148888.68333333332</v>
       </c>
       <c r="H33" s="22">
         <f t="shared" si="16"/>
-        <v>4.1956823422567533</v>
+        <v>4.0646429266925468</v>
       </c>
       <c r="I33" s="27">
         <f>SUM(I22:I32)</f>
-        <v>148688.68333333332</v>
+        <v>143888.68333333332</v>
       </c>
       <c r="J33" s="22">
         <f t="shared" si="17"/>
-        <v>3.1333092399267781</v>
+        <v>3.0321590782972492</v>
       </c>
       <c r="K33" s="27">
         <f>SUM(K22:K32)</f>
-        <v>148688.68333333332</v>
+        <v>143888.68333333332</v>
       </c>
       <c r="L33" s="22">
         <f t="shared" si="18"/>
-        <v>5.8354254683838063</v>
+        <v>5.6470450105015564</v>
       </c>
       <c r="M33" s="27">
         <f>SUM(M22:M32)</f>
-        <v>181188.68333333332</v>
+        <v>176388.68333333332</v>
       </c>
       <c r="N33" s="22">
         <f t="shared" si="19"/>
-        <v>4.2616136420922563</v>
+        <v>4.1487161635868777</v>
       </c>
       <c r="O33" s="27">
         <f>SUM(O22:O32)</f>
-        <v>148688.68333333332</v>
+        <v>143888.68333333332</v>
       </c>
       <c r="P33" s="22">
         <f t="shared" si="20"/>
-        <v>2.4269185391569663</v>
+        <v>2.3485722337973445</v>
       </c>
       <c r="Q33" s="27">
         <f>SUM(Q22:Q32)</f>
-        <v>148688.68333333332</v>
+        <v>143888.68333333332</v>
       </c>
       <c r="R33" s="22">
         <f t="shared" si="21"/>
-        <v>1.7354167311029527</v>
+        <v>1.679393635581824</v>
       </c>
       <c r="S33" s="27">
         <f>SUM(S22:S32)</f>
-        <v>153688.68333333332</v>
+        <v>148888.68333333332</v>
       </c>
       <c r="T33" s="22">
         <f t="shared" si="22"/>
-        <v>3.8631311093767211</v>
+        <v>3.7424779231900027</v>
       </c>
       <c r="U33" s="27">
         <f>SUM(U22:U32)</f>
-        <v>148688.68333333332</v>
+        <v>143888.68333333332</v>
       </c>
       <c r="V33" s="22">
         <f t="shared" si="23"/>
-        <v>2.2477859940835541</v>
+        <v>2.1752224840051628</v>
       </c>
       <c r="W33" s="27">
         <f>SUM(W22:W32)</f>
-        <v>148688.68333333332</v>
+        <v>143888.68333333332</v>
       </c>
       <c r="X33" s="22">
         <f t="shared" si="27"/>
-        <v>2.2477859940835541</v>
+        <v>2.1752224840051628</v>
       </c>
       <c r="Y33" s="27">
         <f>SUM(Y22:Y32)</f>
-        <v>153688.68333333332</v>
+        <v>148888.68333333332</v>
       </c>
       <c r="Z33" s="22">
         <f t="shared" si="24"/>
-        <v>1.6616420906805867</v>
+        <v>1.6097457385076162</v>
       </c>
       <c r="AA33" s="27">
         <f>SUM(AA22:AA32)</f>
-        <v>1831764.2</v>
+        <v>1774164.2</v>
       </c>
       <c r="AB33" s="22">
         <f t="shared" si="25"/>
-        <v>2.9776601226654789</v>
+        <v>2.8840273160708683</v>
       </c>
       <c r="AC33" s="18"/>
       <c r="AD33" s="18"/>
@@ -15397,107 +15349,107 @@
       <c r="B35" s="20"/>
       <c r="C35" s="21">
         <f>C19-C33</f>
-        <v>1887631.3166666667</v>
+        <v>1892431.3166666667</v>
       </c>
       <c r="D35" s="22">
         <f>IF(C13=0,"-",(C35*100)/C13)</f>
-        <v>92.698167118462052</v>
+        <v>92.933886455304986</v>
       </c>
       <c r="E35" s="21">
         <f>E19-E33</f>
-        <v>2971891.3166666669</v>
+        <v>2976691.3166666669</v>
       </c>
       <c r="F35" s="22">
         <f>IF(E13=0,"-",(E35*100)/E13)</f>
-        <v>95.235222832507645</v>
+        <v>95.389040392063876</v>
       </c>
       <c r="G35" s="21">
         <f>G19-G33</f>
-        <v>3509331.3166666669</v>
+        <v>3514131.3166666669</v>
       </c>
       <c r="H35" s="22">
         <f>IF(G13=0,"-",(G35*100)/G13)</f>
-        <v>95.804317657743255</v>
+        <v>95.935357073307458</v>
       </c>
       <c r="I35" s="21">
         <f>I19-I33</f>
-        <v>4596731.3166666664</v>
+        <v>4601531.3166666664</v>
       </c>
       <c r="J35" s="22">
         <f>IF(I13=0,"-",(I35*100)/I13)</f>
-        <v>96.866690760073212</v>
+        <v>96.967840921702745</v>
       </c>
       <c r="K35" s="21">
         <f>K19-K33</f>
-        <v>2399346.3166666669</v>
+        <v>2404146.3166666669</v>
       </c>
       <c r="L35" s="22">
         <f>IF(K13=0,"-",(K35*100)/K13)</f>
-        <v>94.164574531616196</v>
+        <v>94.352954989498457</v>
       </c>
       <c r="M35" s="21">
         <f>M19-M33</f>
-        <v>4070456.3166666669</v>
+        <v>4075256.3166666669</v>
       </c>
       <c r="N35" s="22">
         <f>IF(M13=0,"-",(M35*100)/M13)</f>
-        <v>95.738386357907743</v>
+        <v>95.851283836413131</v>
       </c>
       <c r="O35" s="21">
         <f>O19-O33</f>
-        <v>5977956.3166666664</v>
+        <v>5982756.3166666664</v>
       </c>
       <c r="P35" s="22">
         <f>IF(O13=0,"-",(O35*100)/O13)</f>
-        <v>97.573081460843028</v>
+        <v>97.651427766202644</v>
       </c>
       <c r="Q35" s="21">
         <f>Q19-Q33</f>
-        <v>8419206.3166666664</v>
+        <v>8424006.3166666664</v>
       </c>
       <c r="R35" s="22">
         <f>IF(Q13=0,"-",(Q35*100)/Q13)</f>
-        <v>98.264583268897042</v>
+        <v>98.320606364418168</v>
       </c>
       <c r="S35" s="21">
         <f>S19-S33</f>
-        <v>3824656.3166666669</v>
+        <v>3829456.3166666669</v>
       </c>
       <c r="T35" s="22">
         <f>IF(S13=0,"-",(S35*100)/S13)</f>
-        <v>96.13686889062329</v>
+        <v>96.257522076810005</v>
       </c>
       <c r="U35" s="21">
         <f>U19-U33</f>
-        <v>6466206.3166666664</v>
+        <v>6471006.3166666664</v>
       </c>
       <c r="V35" s="22">
         <f>IF(U13=0,"-",(U35*100)/U13)</f>
-        <v>97.752214005916443</v>
+        <v>97.824777515994825</v>
       </c>
       <c r="W35" s="21">
         <f>W19-W33</f>
-        <v>6466206.3166666664</v>
+        <v>6471006.3166666664</v>
       </c>
       <c r="X35" s="22">
         <f>IF(W13=0,"-",(W35*100)/W13)</f>
-        <v>97.752214005916443</v>
+        <v>97.824777515994825</v>
       </c>
       <c r="Y35" s="21">
         <f>Y19-Y33</f>
-        <v>9095516.3166666646</v>
+        <v>9100316.3166666646</v>
       </c>
       <c r="Z35" s="22">
         <f>IF(Y13=0,"-",(Y35*100)/Y13)</f>
-        <v>98.338357909319413</v>
+        <v>98.390254261492387</v>
       </c>
       <c r="AA35" s="21">
         <f>AA19-AA33</f>
-        <v>59685135.799999997</v>
+        <v>59742735.799999997</v>
       </c>
       <c r="AB35" s="22">
         <f>IF(AA13=0,"-",(AA35*100)/AA13)</f>
-        <v>97.022339877334517</v>
+        <v>97.11597268392913</v>
       </c>
       <c r="AC35" s="18"/>
       <c r="AD35" s="18"/>

--- a/Business Plan Documents/YPS Profit and Loss Projection.xlsx
+++ b/Business Plan Documents/YPS Profit and Loss Projection.xlsx
@@ -9,14 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7935" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7935" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="PnL projection (Year 1)" sheetId="1" r:id="rId1"/>
     <sheet name="PnL projection (Year 2)" sheetId="2" r:id="rId2"/>
     <sheet name="PnL projection (Year 3)" sheetId="3" r:id="rId3"/>
-    <sheet name="Basis of Estimates" sheetId="5" r:id="rId4"/>
-    <sheet name="PnL projection (Year 4)" sheetId="4" r:id="rId5"/>
+    <sheet name="PnL projection (Year 4)" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'PnL projection (Year 1)'!$6:$6</definedName>
@@ -352,96 +351,6 @@
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
-    <author>Mitali Pattnaik</author>
-    <author>student</author>
-  </authors>
-  <commentList>
-    <comment ref="B5" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Totals and percentages are calculated automatically.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A13" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>student:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="81"/>
-            <rFont val="Times New Roman"/>
-            <family val="1"/>
-          </rPr>
-          <t xml:space="preserve">F&amp;F Depreciation Expense
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="11"/>
-            <color indexed="81"/>
-            <rFont val="Times New Roman"/>
-            <family val="1"/>
-          </rPr>
-          <t>Typical ranges of useful life estimates are as follows:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="81"/>
-            <rFont val="Times New Roman"/>
-            <family val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-- Automotive equipment: 3-6 years
-- Furniture and fixtures: 5-12 years
-- Machinery and equipment: 3-20 years
-- Buildings and improvements: 10-50 years
-3-year property Tractor units and horses over two years old
-5-year property Cars, taxis, buses, trucks, computers, office machines (faxes, copiers, calculators, and so on), research equipment, and cattle
-7-year property Office furniture and fixtures
-10-year property Water transportation equipment, single-purpose agricultural or horticultural structures, and fruit- or nut-bearing vines and trees
-15-year property Land improvements, such as shrubbery, fences, roads, and bridges
-20-year property Farm buildings that are not agricultural or horticultural structures
-27.5-year property Residential rental property
-39-year property Nonresidential real estate, including a home office but not including the value of the land</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
     <author>student</author>
   </authors>
   <commentList>
@@ -548,7 +457,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="49">
   <si>
     <t>Twelve Month Profit and Loss Projection</t>
   </si>
@@ -688,27 +597,6 @@
     <t>Annual/12</t>
   </si>
   <si>
-    <t>Sales</t>
-  </si>
-  <si>
-    <t>Cost/ Goods Sold (COGS)</t>
-  </si>
-  <si>
-    <t>Net Profit Before Tax</t>
-  </si>
-  <si>
-    <t>Income Taxes</t>
-  </si>
-  <si>
-    <t>Net Profit After Tax</t>
-  </si>
-  <si>
-    <t>Owner Draw/ Dividends</t>
-  </si>
-  <si>
-    <t>Adj. to Retained Earnings</t>
-  </si>
-  <si>
     <t>Bridge Mobile Phils, Inc.</t>
   </si>
   <si>
@@ -722,15 +610,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="6">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+  <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="[$-409]mmm\-yy;@"/>
     <numFmt numFmtId="166" formatCode="#,##0.000"/>
   </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -829,12 +715,6 @@
     </font>
     <font>
       <b/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
       <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -862,7 +742,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -999,32 +879,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="210">
+  <cellXfs count="184">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1209,9 +1069,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="3" fontId="16" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
@@ -1389,184 +1246,151 @@
     <xf numFmtId="3" fontId="16" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="16" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="17" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="60" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="60" wrapText="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="60" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="60" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="60" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="60" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="60" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="17" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="60" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="60" wrapText="1"/>
-    </xf>
-    <xf numFmtId="17" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="60" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="60" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="60" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="60" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="60" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="3" fontId="19" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="19" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="19" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="19" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="19" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="19" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="19" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="19" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="19" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="18" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="19" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="3" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="3" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1583,318 +1407,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Text Box 2"/>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="4333875" y="4457700"/>
-          <a:ext cx="3476625" cy="3390900"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFF99"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="0" anchor="t" upright="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="800" b="1" i="0" u="sng" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Arial"/>
-              <a:cs typeface="Arial"/>
-            </a:rPr>
-            <a:t>Notes on Preparation</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="800" b="0" i="0" strike="noStrike">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:latin typeface="Arial"/>
-            <a:cs typeface="Arial"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:endParaRPr lang="en-US" sz="800" b="0" i="0" strike="noStrike">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:latin typeface="Arial"/>
-            <a:cs typeface="Arial"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="800" b="1" i="0" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Arial"/>
-              <a:cs typeface="Arial"/>
-            </a:rPr>
-            <a:t>Note: </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="800" b="0" i="0" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Arial"/>
-              <a:cs typeface="Arial"/>
-            </a:rPr>
-            <a:t>You may want to print this information to use as reference later. To delete these instructions, click the border of this text box and then press the DELETE key.</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="800" b="1" i="0" strike="noStrike">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:latin typeface="Arial"/>
-            <a:cs typeface="Arial"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:endParaRPr lang="en-US" sz="800" b="0" i="0" strike="noStrike">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:latin typeface="Arial"/>
-            <a:cs typeface="Arial"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="800" b="0" i="0" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Arial"/>
-              <a:cs typeface="Arial"/>
-            </a:rPr>
-            <a:t>A long term forecast is not a necessary part of a basic business plan. However, it is an excellent tool to help you open up your thinking about the company's future. Furthermore, venture capitalists will almost always want a long term forecast to get a feel for growth prospects.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="800" b="0" i="0" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Arial"/>
-              <a:cs typeface="Arial"/>
-            </a:rPr>
-            <a:t>The further out you forecast, the less accuracy you can maintain, so use round numbers, except where you know exact amounts; e.g.: rent expense if you have a long term lease.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="800"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="800" b="0" i="0" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Arial"/>
-              <a:cs typeface="Arial"/>
-            </a:rPr>
-            <a:t>The most important part of the long term forecast is not the numbers themselves, but the assumptions underlying the numbers. So make sure your assumptions are stated clearly and in detail in a narrative attachment. This will communicate your vision of the company's future and how you anticipate realizing that vision.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="800" b="0" i="0" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Arial"/>
-              <a:cs typeface="Arial"/>
-            </a:rPr>
-            <a:t>You will note that there are some lines on the bottom of this spreadsheet which may not be on a twelve-month P &amp; L. This is to help you do some planning about funding growth:</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="800"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="800" b="0" i="0" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Arial"/>
-              <a:cs typeface="Arial"/>
-            </a:rPr>
-            <a:t>- NET PROFIT BEFORE TAX is the same as Net Profit on a </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="800" b="0" i="1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Arial"/>
-              <a:cs typeface="Arial"/>
-            </a:rPr>
-            <a:t>12-month Profit and Loss</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="800" b="0" i="0" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Arial"/>
-              <a:cs typeface="Arial"/>
-            </a:rPr>
-            <a:t> spreadsheet.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="800"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="800" b="0" i="0" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Arial"/>
-              <a:cs typeface="Arial"/>
-            </a:rPr>
-            <a:t>- INCOME TAX allows you to estimate how much of your profit will have to go to the IRS.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="800" b="0" i="0" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Arial"/>
-              <a:cs typeface="Arial"/>
-            </a:rPr>
-            <a:t>- NET PROFIT AFTER TAX is what is left for you to use.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="800"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="800" b="0" i="0" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Arial"/>
-              <a:cs typeface="Arial"/>
-            </a:rPr>
-            <a:t>- OWNER DRAW/ DIVIDENDS is how much the owners plan to take out for themselves.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="800" b="0" i="0" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Arial"/>
-              <a:cs typeface="Arial"/>
-            </a:rPr>
-            <a:t>- ADJUSTMENT TO RETAINED EARNINGS is the amount of profit actually left in the business to increase Owners' Equity and fund growth.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="700"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:endParaRPr lang="en-US" sz="800" b="0" i="0" strike="noStrike">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:latin typeface="Arial"/>
-            <a:cs typeface="Arial"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2169,7 +1681,7 @@
       <pane xSplit="1" ySplit="7" topLeftCell="P29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="A25" sqref="A25:A35"/>
+      <selection pane="bottomRight" activeCell="W43" sqref="W43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2225,7 +1737,7 @@
     </row>
     <row r="2" spans="1:28" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D2" s="3"/>
       <c r="F2" s="3"/>
@@ -3673,7 +3185,7 @@
     </row>
     <row r="26" spans="1:29" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A26" s="43" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B26" s="23"/>
       <c r="C26" s="15">
@@ -3768,7 +3280,7 @@
     </row>
     <row r="27" spans="1:29" s="18" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="36" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B27" s="23"/>
       <c r="C27" s="24">
@@ -5067,7 +4579,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S10" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="AD25" sqref="AD25"/>
     </sheetView>
   </sheetViews>
@@ -5113,7 +4625,7 @@
     </row>
     <row r="2" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="62" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B2" s="60"/>
       <c r="C2" s="60"/>
@@ -6540,7 +6052,7 @@
     </row>
     <row r="23" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A23" s="43" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B23" s="23"/>
       <c r="C23" s="15">
@@ -8923,3632 +8435,3632 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.140625" style="158" customWidth="1"/>
-    <col min="2" max="2" width="9" style="158" customWidth="1"/>
-    <col min="3" max="4" width="9.28515625" style="158" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" style="158" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.28515625" style="158" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" style="158" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.28515625" style="158" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" style="158" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.28515625" style="158" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.7109375" style="158" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.28515625" style="158" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.140625" style="158" customWidth="1"/>
-    <col min="14" max="14" width="9.28515625" style="158" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.7109375" style="158" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.28515625" style="158" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.7109375" style="158" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.28515625" style="158" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.7109375" style="158" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.28515625" style="158" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.7109375" style="158" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.28515625" style="158" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="10.7109375" style="158" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="9.28515625" style="158" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="10.7109375" style="158" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="9.28515625" style="158" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="11.5703125" style="158" customWidth="1"/>
-    <col min="28" max="28" width="9.28515625" style="158" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="158"/>
+    <col min="1" max="1" width="25.140625" style="132" customWidth="1"/>
+    <col min="2" max="2" width="9" style="132" customWidth="1"/>
+    <col min="3" max="4" width="9.28515625" style="132" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" style="132" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.28515625" style="132" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="132" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.28515625" style="132" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" style="132" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.28515625" style="132" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.7109375" style="132" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.28515625" style="132" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.140625" style="132" customWidth="1"/>
+    <col min="14" max="14" width="9.28515625" style="132" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.7109375" style="132" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.28515625" style="132" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.7109375" style="132" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.28515625" style="132" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.7109375" style="132" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.28515625" style="132" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.7109375" style="132" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.28515625" style="132" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.7109375" style="132" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9.28515625" style="132" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.7109375" style="132" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.28515625" style="132" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="11.5703125" style="132" customWidth="1"/>
+    <col min="28" max="28" width="9.28515625" style="132" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="132"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A1" s="157" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="159"/>
-      <c r="F1" s="159"/>
-      <c r="H1" s="159"/>
-      <c r="J1" s="159"/>
-      <c r="L1" s="159"/>
-      <c r="N1" s="159"/>
-      <c r="P1" s="159"/>
-      <c r="R1" s="159"/>
-      <c r="T1" s="159"/>
-      <c r="V1" s="159"/>
-      <c r="X1" s="159"/>
-      <c r="Z1" s="159"/>
-      <c r="AB1" s="159"/>
+      <c r="A1" s="131" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="133"/>
+      <c r="F1" s="133"/>
+      <c r="H1" s="133"/>
+      <c r="J1" s="133"/>
+      <c r="L1" s="133"/>
+      <c r="N1" s="133"/>
+      <c r="P1" s="133"/>
+      <c r="R1" s="133"/>
+      <c r="T1" s="133"/>
+      <c r="V1" s="133"/>
+      <c r="X1" s="133"/>
+      <c r="Z1" s="133"/>
+      <c r="AB1" s="133"/>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A2" s="157" t="s">
-        <v>53</v>
-      </c>
-      <c r="D2" s="159"/>
-      <c r="F2" s="159"/>
-      <c r="H2" s="159"/>
-      <c r="J2" s="159"/>
-      <c r="L2" s="159"/>
-      <c r="N2" s="159"/>
-      <c r="P2" s="159"/>
-      <c r="R2" s="159"/>
-      <c r="T2" s="159"/>
-      <c r="V2" s="159"/>
-      <c r="X2" s="159"/>
-      <c r="Z2" s="159"/>
-      <c r="AB2" s="159"/>
+      <c r="A2" s="131" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="133"/>
+      <c r="F2" s="133"/>
+      <c r="H2" s="133"/>
+      <c r="J2" s="133"/>
+      <c r="L2" s="133"/>
+      <c r="N2" s="133"/>
+      <c r="P2" s="133"/>
+      <c r="R2" s="133"/>
+      <c r="T2" s="133"/>
+      <c r="V2" s="133"/>
+      <c r="X2" s="133"/>
+      <c r="Z2" s="133"/>
+      <c r="AB2" s="133"/>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="D3" s="159"/>
-      <c r="F3" s="159"/>
-      <c r="H3" s="159"/>
-      <c r="J3" s="159"/>
-      <c r="L3" s="159"/>
-      <c r="N3" s="159"/>
-      <c r="P3" s="159"/>
-      <c r="R3" s="159"/>
-      <c r="T3" s="159"/>
-      <c r="V3" s="159"/>
-      <c r="X3" s="159"/>
-      <c r="Z3" s="159"/>
-      <c r="AB3" s="159"/>
+      <c r="D3" s="133"/>
+      <c r="F3" s="133"/>
+      <c r="H3" s="133"/>
+      <c r="J3" s="133"/>
+      <c r="L3" s="133"/>
+      <c r="N3" s="133"/>
+      <c r="P3" s="133"/>
+      <c r="R3" s="133"/>
+      <c r="T3" s="133"/>
+      <c r="V3" s="133"/>
+      <c r="X3" s="133"/>
+      <c r="Z3" s="133"/>
+      <c r="AB3" s="133"/>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A4" s="157" t="s">
+      <c r="A4" s="131" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="159"/>
-      <c r="E4" s="160">
+      <c r="D4" s="133"/>
+      <c r="E4" s="134">
         <v>42887</v>
       </c>
-      <c r="F4" s="159"/>
-      <c r="H4" s="159"/>
-      <c r="J4" s="159"/>
-      <c r="L4" s="159"/>
-      <c r="N4" s="159"/>
-      <c r="P4" s="159"/>
-      <c r="R4" s="159"/>
-      <c r="T4" s="159"/>
-      <c r="V4" s="159"/>
-      <c r="X4" s="159"/>
-      <c r="Z4" s="159"/>
-      <c r="AB4" s="159"/>
+      <c r="F4" s="133"/>
+      <c r="H4" s="133"/>
+      <c r="J4" s="133"/>
+      <c r="L4" s="133"/>
+      <c r="N4" s="133"/>
+      <c r="P4" s="133"/>
+      <c r="R4" s="133"/>
+      <c r="T4" s="133"/>
+      <c r="V4" s="133"/>
+      <c r="X4" s="133"/>
+      <c r="Z4" s="133"/>
+      <c r="AB4" s="133"/>
     </row>
     <row r="5" spans="1:30" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D5" s="159"/>
-      <c r="F5" s="159"/>
-      <c r="H5" s="159"/>
-      <c r="J5" s="159"/>
-      <c r="L5" s="159"/>
-      <c r="N5" s="159"/>
-      <c r="P5" s="159"/>
-      <c r="R5" s="159"/>
-      <c r="T5" s="159"/>
-      <c r="V5" s="159"/>
-      <c r="X5" s="159"/>
-      <c r="Z5" s="159"/>
-      <c r="AB5" s="159"/>
+      <c r="D5" s="133"/>
+      <c r="F5" s="133"/>
+      <c r="H5" s="133"/>
+      <c r="J5" s="133"/>
+      <c r="L5" s="133"/>
+      <c r="N5" s="133"/>
+      <c r="P5" s="133"/>
+      <c r="R5" s="133"/>
+      <c r="T5" s="133"/>
+      <c r="V5" s="133"/>
+      <c r="X5" s="133"/>
+      <c r="Z5" s="133"/>
+      <c r="AB5" s="133"/>
     </row>
     <row r="6" spans="1:30" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="161"/>
-      <c r="B6" s="162" t="s">
+      <c r="A6" s="135"/>
+      <c r="B6" s="136" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="163">
+      <c r="C6" s="137">
         <f>E4</f>
         <v>42887</v>
       </c>
-      <c r="D6" s="164" t="s">
+      <c r="D6" s="138" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="165">
+      <c r="E6" s="139">
         <f>DATE(YEAR(E4),MONTH(E4)+1,1)</f>
         <v>42917</v>
       </c>
-      <c r="F6" s="162" t="s">
+      <c r="F6" s="136" t="s">
         <v>1</v>
       </c>
-      <c r="G6" s="165">
+      <c r="G6" s="139">
         <f>DATE(YEAR(E6),MONTH(E6)+1,1)</f>
         <v>42948</v>
       </c>
-      <c r="H6" s="162" t="s">
+      <c r="H6" s="136" t="s">
         <v>1</v>
       </c>
-      <c r="I6" s="165">
+      <c r="I6" s="139">
         <f>DATE(YEAR(G6),MONTH(G6)+1,1)</f>
         <v>42979</v>
       </c>
-      <c r="J6" s="162" t="s">
+      <c r="J6" s="136" t="s">
         <v>1</v>
       </c>
-      <c r="K6" s="165">
+      <c r="K6" s="139">
         <f>DATE(YEAR(I6),MONTH(I6)+1,1)</f>
         <v>43009</v>
       </c>
-      <c r="L6" s="162" t="s">
+      <c r="L6" s="136" t="s">
         <v>1</v>
       </c>
-      <c r="M6" s="165">
+      <c r="M6" s="139">
         <f>DATE(YEAR(K6),MONTH(K6)+1,1)</f>
         <v>43040</v>
       </c>
-      <c r="N6" s="162" t="s">
+      <c r="N6" s="136" t="s">
         <v>1</v>
       </c>
-      <c r="O6" s="165">
+      <c r="O6" s="139">
         <f>DATE(YEAR(M6),MONTH(M6)+1,1)</f>
         <v>43070</v>
       </c>
-      <c r="P6" s="162" t="s">
+      <c r="P6" s="136" t="s">
         <v>1</v>
       </c>
-      <c r="Q6" s="165">
+      <c r="Q6" s="139">
         <f>DATE(YEAR(O6),MONTH(O6)+1,1)</f>
         <v>43101</v>
       </c>
-      <c r="R6" s="162" t="s">
+      <c r="R6" s="136" t="s">
         <v>1</v>
       </c>
-      <c r="S6" s="165">
+      <c r="S6" s="139">
         <f>DATE(YEAR(Q6),MONTH(Q6)+1,1)</f>
         <v>43132</v>
       </c>
-      <c r="T6" s="162" t="s">
+      <c r="T6" s="136" t="s">
         <v>1</v>
       </c>
-      <c r="U6" s="165">
+      <c r="U6" s="139">
         <f>DATE(YEAR(S6),MONTH(S6)+1,1)</f>
         <v>43160</v>
       </c>
-      <c r="V6" s="162" t="s">
+      <c r="V6" s="136" t="s">
         <v>1</v>
       </c>
-      <c r="W6" s="165">
+      <c r="W6" s="139">
         <f>DATE(YEAR(U6),MONTH(U6)+1,1)</f>
         <v>43191</v>
       </c>
-      <c r="X6" s="162" t="s">
+      <c r="X6" s="136" t="s">
         <v>1</v>
       </c>
-      <c r="Y6" s="165">
+      <c r="Y6" s="139">
         <f>DATE(YEAR(W6),MONTH(W6)+1,1)</f>
         <v>43221</v>
       </c>
-      <c r="Z6" s="166" t="s">
+      <c r="Z6" s="140" t="s">
         <v>1</v>
       </c>
-      <c r="AA6" s="162" t="s">
+      <c r="AA6" s="136" t="s">
         <v>2</v>
       </c>
-      <c r="AB6" s="164" t="s">
+      <c r="AB6" s="138" t="s">
         <v>3</v>
       </c>
-      <c r="AC6" s="167"/>
-      <c r="AD6" s="167"/>
+      <c r="AC6" s="141"/>
+      <c r="AD6" s="141"/>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A7" s="168" t="s">
+      <c r="A7" s="142" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="169"/>
-      <c r="C7" s="169"/>
-      <c r="D7" s="170"/>
-      <c r="E7" s="169"/>
-      <c r="F7" s="170"/>
-      <c r="G7" s="169"/>
-      <c r="H7" s="170"/>
-      <c r="I7" s="169"/>
-      <c r="J7" s="170"/>
-      <c r="K7" s="169"/>
-      <c r="L7" s="170"/>
-      <c r="M7" s="169"/>
-      <c r="N7" s="170"/>
-      <c r="O7" s="169"/>
-      <c r="P7" s="170"/>
-      <c r="Q7" s="169"/>
-      <c r="R7" s="170"/>
-      <c r="S7" s="169"/>
-      <c r="T7" s="170"/>
-      <c r="U7" s="169"/>
-      <c r="V7" s="170"/>
-      <c r="W7" s="169"/>
-      <c r="X7" s="170"/>
-      <c r="Y7" s="169"/>
-      <c r="Z7" s="170"/>
-      <c r="AA7" s="169"/>
-      <c r="AB7" s="171"/>
-      <c r="AC7" s="172"/>
-      <c r="AD7" s="172"/>
+      <c r="B7" s="143"/>
+      <c r="C7" s="143"/>
+      <c r="D7" s="144"/>
+      <c r="E7" s="143"/>
+      <c r="F7" s="144"/>
+      <c r="G7" s="143"/>
+      <c r="H7" s="144"/>
+      <c r="I7" s="143"/>
+      <c r="J7" s="144"/>
+      <c r="K7" s="143"/>
+      <c r="L7" s="144"/>
+      <c r="M7" s="143"/>
+      <c r="N7" s="144"/>
+      <c r="O7" s="143"/>
+      <c r="P7" s="144"/>
+      <c r="Q7" s="143"/>
+      <c r="R7" s="144"/>
+      <c r="S7" s="143"/>
+      <c r="T7" s="144"/>
+      <c r="U7" s="143"/>
+      <c r="V7" s="144"/>
+      <c r="W7" s="143"/>
+      <c r="X7" s="144"/>
+      <c r="Y7" s="143"/>
+      <c r="Z7" s="144"/>
+      <c r="AA7" s="143"/>
+      <c r="AB7" s="145"/>
+      <c r="AC7" s="146"/>
+      <c r="AD7" s="146"/>
     </row>
     <row r="8" spans="1:30" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="173" t="s">
+      <c r="A8" s="147" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="174"/>
-      <c r="C8" s="175">
+      <c r="B8" s="148"/>
+      <c r="C8" s="149">
         <v>47700</v>
       </c>
-      <c r="D8" s="176">
+      <c r="D8" s="150">
         <f>IF($C$13=0,"-",(C8*100)/$C$13)</f>
         <v>5.0037764350453173</v>
       </c>
-      <c r="E8" s="175">
+      <c r="E8" s="149">
         <v>73140</v>
       </c>
-      <c r="F8" s="176">
+      <c r="F8" s="150">
         <f>IF(E$13=0,"-",(E8*100)/E$13)</f>
         <v>5.0075997206589165</v>
       </c>
-      <c r="G8" s="175">
+      <c r="G8" s="149">
         <v>85860</v>
       </c>
-      <c r="H8" s="177">
+      <c r="H8" s="151">
         <f t="shared" ref="H8:H11" si="0">IF(G$13=0,"-",(G8*100)/G$13)</f>
         <v>5.0077571826845686</v>
       </c>
-      <c r="I8" s="175">
+      <c r="I8" s="149">
         <v>111300</v>
       </c>
-      <c r="J8" s="177">
+      <c r="J8" s="151">
         <f t="shared" ref="J8:J11" si="1">IF(I$13=0,"-",(I8*100)/I$13)</f>
         <v>4.8379104399760058</v>
       </c>
-      <c r="K8" s="175">
+      <c r="K8" s="149">
         <v>71550</v>
       </c>
-      <c r="L8" s="177">
+      <c r="L8" s="151">
         <f t="shared" ref="L8:L11" si="2">IF(K$13=0,"-",(K8*100)/K$13)</f>
         <v>4.9983583309465098</v>
       </c>
-      <c r="M8" s="175">
+      <c r="M8" s="149">
         <v>119250</v>
       </c>
-      <c r="N8" s="177">
+      <c r="N8" s="151">
         <f t="shared" ref="N8:N11" si="3">IF(M$13=0,"-",(M8*100)/M$13)</f>
         <v>4.9884335272931111</v>
       </c>
-      <c r="O8" s="175">
+      <c r="O8" s="149">
         <v>119250</v>
       </c>
-      <c r="P8" s="177">
+      <c r="P8" s="151">
         <f>IF(O$13=0,"-",(O8*100)/O$13)</f>
         <v>3.5042300538049913</v>
       </c>
-      <c r="Q8" s="175">
+      <c r="Q8" s="149">
         <v>166950</v>
       </c>
-      <c r="R8" s="177">
+      <c r="R8" s="151">
         <f t="shared" ref="R8:R11" si="4">IF(Q$13=0,"-",(Q8*100)/Q$13)</f>
         <v>3.5105020680316166</v>
       </c>
-      <c r="S8" s="175">
+      <c r="S8" s="149">
         <v>79500</v>
       </c>
-      <c r="T8" s="177">
+      <c r="T8" s="151">
         <f t="shared" ref="T8:T11" si="5">IF(S$13=0,"-",(S8*100)/S$13)</f>
         <v>3.493307788977845</v>
       </c>
-      <c r="U8" s="175">
+      <c r="U8" s="149">
         <v>132500</v>
       </c>
-      <c r="V8" s="177">
+      <c r="V8" s="151">
         <f t="shared" ref="V8:V11" si="6">IF(U$13=0,"-",(U8*100)/U$13)</f>
         <v>3.5064227078580918</v>
       </c>
-      <c r="W8" s="175">
+      <c r="W8" s="149">
         <v>132500</v>
       </c>
-      <c r="X8" s="177">
+      <c r="X8" s="151">
         <f t="shared" ref="X8:X11" si="7">IF(W$13=0,"-",(W8*100)/W$13)</f>
         <v>3.5064227078580918</v>
       </c>
-      <c r="Y8" s="175">
+      <c r="Y8" s="149">
         <v>185500</v>
       </c>
-      <c r="Z8" s="177">
+      <c r="Z8" s="151">
         <f t="shared" ref="Z8:Z11" si="8">IF(Y$13=0,"-",(Y8*100)/Y$13)</f>
         <v>3.5135636816843894</v>
       </c>
-      <c r="AA8" s="176">
+      <c r="AA8" s="150">
         <f>SUM($C$8,E$8,G$8,I$8,K$8,M$8,O$8,Q$8,S$8,U$8,W$8,Y$8)</f>
         <v>1325000</v>
       </c>
-      <c r="AB8" s="177">
+      <c r="AB8" s="151">
         <f t="shared" ref="AB8:AB11" si="9">IF(AA$13=0,"-",(AA8*100)/AA$13)</f>
         <v>3.9525550210574232</v>
       </c>
-      <c r="AC8" s="172"/>
-      <c r="AD8" s="172"/>
+      <c r="AC8" s="146"/>
+      <c r="AD8" s="146"/>
     </row>
     <row r="9" spans="1:30" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="173" t="s">
+      <c r="A9" s="147" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="174"/>
-      <c r="C9" s="178">
+      <c r="B9" s="148"/>
+      <c r="C9" s="152">
         <v>630000</v>
       </c>
-      <c r="D9" s="176">
+      <c r="D9" s="150">
         <f>IF($C$13=0,"-",(C9*100)/$C$13)</f>
         <v>66.087613293051362</v>
       </c>
-      <c r="E9" s="178">
+      <c r="E9" s="152">
         <v>966000</v>
       </c>
-      <c r="F9" s="176">
+      <c r="F9" s="150">
         <f t="shared" ref="F9:F12" si="10">IF(E$13=0,"-",(E9*100)/E$13)</f>
         <v>66.138109518136631</v>
       </c>
-      <c r="G9" s="178">
+      <c r="G9" s="152">
         <v>1134000</v>
       </c>
-      <c r="H9" s="177">
+      <c r="H9" s="151">
         <f t="shared" si="0"/>
         <v>66.140189205267887</v>
       </c>
-      <c r="I9" s="178">
+      <c r="I9" s="152">
         <v>1470000</v>
       </c>
-      <c r="J9" s="177">
+      <c r="J9" s="151">
         <f t="shared" si="1"/>
         <v>63.89693033930574</v>
       </c>
-      <c r="K9" s="178">
+      <c r="K9" s="152">
         <v>945000</v>
       </c>
-      <c r="L9" s="177">
+      <c r="L9" s="151">
         <f t="shared" si="2"/>
         <v>66.016053427595409</v>
       </c>
-      <c r="M9" s="178">
+      <c r="M9" s="152">
         <v>1575000</v>
       </c>
-      <c r="N9" s="177">
+      <c r="N9" s="151">
         <f t="shared" si="3"/>
         <v>65.88497111519203</v>
       </c>
-      <c r="O9" s="178">
+      <c r="O9" s="152">
         <v>2362500</v>
       </c>
-      <c r="P9" s="177">
+      <c r="P9" s="151">
         <f t="shared" ref="P9:P11" si="11">IF(O$13=0,"-",(O9*100)/O$13)</f>
         <v>69.423425594249835</v>
       </c>
-      <c r="Q9" s="178">
+      <c r="Q9" s="152">
         <v>3307500</v>
       </c>
-      <c r="R9" s="177">
+      <c r="R9" s="151">
         <f t="shared" si="4"/>
         <v>69.547682479871654</v>
       </c>
-      <c r="S9" s="178">
+      <c r="S9" s="152">
         <v>1575000</v>
       </c>
-      <c r="T9" s="177">
+      <c r="T9" s="151">
         <f t="shared" si="5"/>
         <v>69.207041102391273</v>
       </c>
-      <c r="U9" s="178">
+      <c r="U9" s="152">
         <v>2625000</v>
       </c>
-      <c r="V9" s="177">
+      <c r="V9" s="151">
         <f t="shared" si="6"/>
         <v>69.466864966999935</v>
       </c>
-      <c r="W9" s="178">
+      <c r="W9" s="152">
         <v>2625000</v>
       </c>
-      <c r="X9" s="177">
+      <c r="X9" s="151">
         <f t="shared" si="7"/>
         <v>69.466864966999935</v>
       </c>
-      <c r="Y9" s="178">
+      <c r="Y9" s="152">
         <v>3675000</v>
       </c>
-      <c r="Z9" s="177">
+      <c r="Z9" s="151">
         <f t="shared" si="8"/>
         <v>69.608337089973745</v>
       </c>
-      <c r="AA9" s="176">
+      <c r="AA9" s="150">
         <f>SUM($C$9,E$9,G$9,I$9,K$9,M$9,O$9,Q$9,S$9,U$9,W$9,Y$9)</f>
         <v>22890000</v>
       </c>
-      <c r="AB9" s="177">
+      <c r="AB9" s="151">
         <f t="shared" si="9"/>
         <v>68.282252401512764</v>
       </c>
-      <c r="AC9" s="172"/>
-      <c r="AD9" s="172"/>
+      <c r="AC9" s="146"/>
+      <c r="AD9" s="146"/>
     </row>
     <row r="10" spans="1:30" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A10" s="173" t="s">
+      <c r="A10" s="147" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="179"/>
-      <c r="C10" s="178">
+      <c r="B10" s="153"/>
+      <c r="C10" s="152">
         <v>4500</v>
       </c>
-      <c r="D10" s="176">
+      <c r="D10" s="150">
         <f>IF($C$13=0,"-",(C10*100)/$C$13)</f>
         <v>0.47205438066465255</v>
       </c>
-      <c r="E10" s="178">
+      <c r="E10" s="152">
         <v>6000</v>
       </c>
-      <c r="F10" s="176">
+      <c r="F10" s="150">
         <f t="shared" si="10"/>
         <v>0.41079571129277409</v>
       </c>
-      <c r="G10" s="178">
+      <c r="G10" s="152">
         <v>7000</v>
       </c>
-      <c r="H10" s="177">
+      <c r="H10" s="151">
         <f t="shared" si="0"/>
         <v>0.40827277287202396</v>
       </c>
-      <c r="I10" s="178">
+      <c r="I10" s="152">
         <v>72000</v>
       </c>
-      <c r="J10" s="177">
+      <c r="J10" s="151">
         <f t="shared" si="1"/>
         <v>3.1296455676394648</v>
       </c>
-      <c r="K10" s="178">
+      <c r="K10" s="152">
         <v>8000</v>
       </c>
-      <c r="L10" s="177">
+      <c r="L10" s="151">
         <f t="shared" si="2"/>
         <v>0.5588660607627125</v>
       </c>
-      <c r="M10" s="178">
+      <c r="M10" s="152">
         <v>19000</v>
       </c>
-      <c r="N10" s="177">
+      <c r="N10" s="151">
         <f t="shared" si="3"/>
         <v>0.79480282615152287</v>
       </c>
-      <c r="O10" s="178">
+      <c r="O10" s="152">
         <v>19000</v>
       </c>
-      <c r="P10" s="177">
+      <c r="P10" s="151">
         <f t="shared" si="11"/>
         <v>0.55832596245110977</v>
       </c>
-      <c r="Q10" s="178">
+      <c r="Q10" s="152">
         <v>19000</v>
       </c>
-      <c r="R10" s="177">
+      <c r="R10" s="151">
         <f t="shared" si="4"/>
         <v>0.39951805506199889</v>
       </c>
-      <c r="S10" s="178">
+      <c r="S10" s="152">
         <v>19000</v>
       </c>
-      <c r="T10" s="177">
+      <c r="T10" s="151">
         <f t="shared" si="5"/>
         <v>0.83487859107646611</v>
       </c>
-      <c r="U10" s="178">
+      <c r="U10" s="152">
         <v>19000</v>
       </c>
-      <c r="V10" s="177">
+      <c r="V10" s="151">
         <f t="shared" si="6"/>
         <v>0.50280778452304709</v>
       </c>
-      <c r="W10" s="178">
+      <c r="W10" s="152">
         <v>19000</v>
       </c>
-      <c r="X10" s="177">
+      <c r="X10" s="151">
         <f t="shared" si="7"/>
         <v>0.50280778452304709</v>
       </c>
-      <c r="Y10" s="178">
+      <c r="Y10" s="152">
         <v>17000</v>
       </c>
-      <c r="Z10" s="177">
+      <c r="Z10" s="151">
         <f t="shared" si="8"/>
         <v>0.32199774980396018</v>
       </c>
-      <c r="AA10" s="176">
+      <c r="AA10" s="150">
         <f>SUM(C10,E10,G10,I10,K10,M10,O10,Q10,S10,U10,W10,Y10)</f>
         <v>228500</v>
       </c>
-      <c r="AB10" s="177">
+      <c r="AB10" s="151">
         <f t="shared" si="9"/>
         <v>0.68162929985782739</v>
       </c>
-      <c r="AC10" s="172"/>
-      <c r="AD10" s="172"/>
+      <c r="AC10" s="146"/>
+      <c r="AD10" s="146"/>
     </row>
     <row r="11" spans="1:30" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="173" t="s">
+      <c r="A11" s="147" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="174"/>
-      <c r="C11" s="178">
+      <c r="B11" s="148"/>
+      <c r="C11" s="152">
         <v>1080</v>
       </c>
-      <c r="D11" s="176">
+      <c r="D11" s="150">
         <f>IF($C$13=0,"-",(C11*100)/$C$13)</f>
         <v>0.11329305135951662</v>
       </c>
-      <c r="E11" s="178">
+      <c r="E11" s="152">
         <v>1440.0000000000002</v>
       </c>
-      <c r="F11" s="176">
+      <c r="F11" s="150">
         <f t="shared" si="10"/>
         <v>9.8590970710265804E-2</v>
       </c>
-      <c r="G11" s="178">
+      <c r="G11" s="152">
         <v>1680.0000000000002</v>
       </c>
-      <c r="H11" s="177">
+      <c r="H11" s="151">
         <f t="shared" si="0"/>
         <v>9.7985465489285772E-2</v>
       </c>
-      <c r="I11" s="178">
+      <c r="I11" s="152">
         <v>17280</v>
       </c>
-      <c r="J11" s="177">
+      <c r="J11" s="151">
         <f t="shared" si="1"/>
         <v>0.75111493623347159</v>
       </c>
-      <c r="K11" s="178">
+      <c r="K11" s="152">
         <v>1920</v>
       </c>
-      <c r="L11" s="177">
+      <c r="L11" s="151">
         <f t="shared" si="2"/>
         <v>0.13412785458305099</v>
       </c>
-      <c r="M11" s="178">
+      <c r="M11" s="152">
         <v>2280</v>
       </c>
-      <c r="N11" s="177">
+      <c r="N11" s="151">
         <f t="shared" si="3"/>
         <v>9.5376339138182747E-2</v>
       </c>
-      <c r="O11" s="178">
+      <c r="O11" s="152">
         <v>2280</v>
       </c>
-      <c r="P11" s="177">
+      <c r="P11" s="151">
         <f t="shared" si="11"/>
         <v>6.6999115494133163E-2</v>
       </c>
-      <c r="Q11" s="178">
+      <c r="Q11" s="152">
         <v>2280</v>
       </c>
-      <c r="R11" s="177">
+      <c r="R11" s="151">
         <f t="shared" si="4"/>
         <v>4.7942166607439871E-2</v>
       </c>
-      <c r="S11" s="178">
+      <c r="S11" s="152">
         <v>2280</v>
       </c>
-      <c r="T11" s="177">
+      <c r="T11" s="151">
         <f t="shared" si="5"/>
         <v>0.10018543092917594</v>
       </c>
-      <c r="U11" s="178">
+      <c r="U11" s="152">
         <v>2280</v>
       </c>
-      <c r="V11" s="177">
+      <c r="V11" s="151">
         <f t="shared" si="6"/>
         <v>6.0336934142765655E-2</v>
       </c>
-      <c r="W11" s="178">
+      <c r="W11" s="152">
         <v>2280</v>
       </c>
-      <c r="X11" s="177">
+      <c r="X11" s="151">
         <f t="shared" si="7"/>
         <v>6.0336934142765655E-2</v>
       </c>
-      <c r="Y11" s="178">
+      <c r="Y11" s="152">
         <v>2040.0000000000002</v>
       </c>
-      <c r="Z11" s="177">
+      <c r="Z11" s="151">
         <f t="shared" si="8"/>
         <v>3.8639729976475232E-2</v>
       </c>
-      <c r="AA11" s="176">
+      <c r="AA11" s="150">
         <f t="shared" ref="AA11:AA12" si="12">SUM(C11,E11,G11,I11,K11,M11,O11,Q11,S11,U11,W11,Y11)</f>
         <v>39120</v>
       </c>
-      <c r="AB11" s="177">
+      <c r="AB11" s="151">
         <f t="shared" si="9"/>
         <v>0.11669732258397464</v>
       </c>
-      <c r="AC11" s="172"/>
-      <c r="AD11" s="172"/>
+      <c r="AC11" s="146"/>
+      <c r="AD11" s="146"/>
     </row>
     <row r="12" spans="1:30" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A12" s="173" t="s">
+      <c r="A12" s="147" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="174"/>
-      <c r="C12" s="178">
+      <c r="B12" s="148"/>
+      <c r="C12" s="152">
         <v>270000</v>
       </c>
-      <c r="D12" s="176">
+      <c r="D12" s="150">
         <f>IF($C$13=0,"-",(C12*100)/$C$13)</f>
         <v>28.323262839879153</v>
       </c>
-      <c r="E12" s="178">
+      <c r="E12" s="152">
         <v>414000</v>
       </c>
-      <c r="F12" s="176">
+      <c r="F12" s="150">
         <f t="shared" si="10"/>
         <v>28.344904079201413</v>
       </c>
-      <c r="G12" s="178">
+      <c r="G12" s="152">
         <v>486000</v>
       </c>
-      <c r="H12" s="177">
+      <c r="H12" s="151">
         <f>IF(G$13=0,"-",(G12*100)/G$13)</f>
         <v>28.345795373686236</v>
       </c>
-      <c r="I12" s="178">
+      <c r="I12" s="152">
         <v>630000</v>
       </c>
-      <c r="J12" s="177">
+      <c r="J12" s="151">
         <f>IF(I$13=0,"-",(I12*100)/I$13)</f>
         <v>27.384398716845318</v>
       </c>
-      <c r="K12" s="178">
+      <c r="K12" s="152">
         <v>405000</v>
       </c>
-      <c r="L12" s="177">
+      <c r="L12" s="151">
         <f>IF(K$13=0,"-",(K12*100)/K$13)</f>
         <v>28.292594326112319</v>
       </c>
-      <c r="M12" s="178">
+      <c r="M12" s="152">
         <v>675000</v>
       </c>
-      <c r="N12" s="177">
+      <c r="N12" s="151">
         <f>IF(M$13=0,"-",(M12*100)/M$13)</f>
         <v>28.236416192225157</v>
       </c>
-      <c r="O12" s="178">
+      <c r="O12" s="152">
         <v>900000</v>
       </c>
-      <c r="P12" s="177">
+      <c r="P12" s="151">
         <f>IF(O$13=0,"-",(O12*100)/O$13)</f>
         <v>26.447019273999935</v>
       </c>
-      <c r="Q12" s="178">
+      <c r="Q12" s="152">
         <v>1260000</v>
       </c>
-      <c r="R12" s="177">
+      <c r="R12" s="151">
         <f>IF(Q$13=0,"-",(Q12*100)/Q$13)</f>
         <v>26.494355230427296</v>
       </c>
-      <c r="S12" s="178">
+      <c r="S12" s="152">
         <v>600000</v>
       </c>
-      <c r="T12" s="177">
+      <c r="T12" s="151">
         <f>IF(S$13=0,"-",(S12*100)/S$13)</f>
         <v>26.364587086625246</v>
       </c>
-      <c r="U12" s="178">
+      <c r="U12" s="152">
         <v>1000000</v>
       </c>
-      <c r="V12" s="177">
+      <c r="V12" s="151">
         <f>IF(U$13=0,"-",(U12*100)/U$13)</f>
         <v>26.463567606476165</v>
       </c>
-      <c r="W12" s="178">
+      <c r="W12" s="152">
         <v>1000000</v>
       </c>
-      <c r="X12" s="177">
+      <c r="X12" s="151">
         <f>IF(W$13=0,"-",(W12*100)/W$13)</f>
         <v>26.463567606476165</v>
       </c>
-      <c r="Y12" s="178">
+      <c r="Y12" s="152">
         <v>1400000</v>
       </c>
-      <c r="Z12" s="177">
+      <c r="Z12" s="151">
         <f>IF(Y$13=0,"-",(Y12*100)/Y$13)</f>
         <v>26.517461748561427</v>
       </c>
-      <c r="AA12" s="176">
+      <c r="AA12" s="150">
         <f t="shared" si="12"/>
         <v>9040000</v>
       </c>
-      <c r="AB12" s="177">
+      <c r="AB12" s="151">
         <f>IF(AA$13=0,"-",(AA12*100)/AA$13)</f>
         <v>26.966865954988005</v>
       </c>
-      <c r="AC12" s="172"/>
-      <c r="AD12" s="172"/>
+      <c r="AC12" s="146"/>
+      <c r="AD12" s="146"/>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A13" s="180" t="s">
+      <c r="A13" s="154" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="181"/>
-      <c r="C13" s="182">
+      <c r="B13" s="155"/>
+      <c r="C13" s="156">
         <f t="shared" ref="C13:AB13" si="13">SUM(C8:C12)</f>
         <v>953280</v>
       </c>
-      <c r="D13" s="183">
+      <c r="D13" s="157">
         <f t="shared" si="13"/>
         <v>100.00000000000001</v>
       </c>
-      <c r="E13" s="182">
+      <c r="E13" s="156">
         <f t="shared" si="13"/>
         <v>1460580</v>
       </c>
-      <c r="F13" s="183">
+      <c r="F13" s="157">
         <f t="shared" si="13"/>
         <v>100</v>
       </c>
-      <c r="G13" s="182">
+      <c r="G13" s="156">
         <f t="shared" si="13"/>
         <v>1714540</v>
       </c>
-      <c r="H13" s="183">
+      <c r="H13" s="157">
         <f t="shared" si="13"/>
         <v>100</v>
       </c>
-      <c r="I13" s="182">
+      <c r="I13" s="156">
         <f t="shared" si="13"/>
         <v>2300580</v>
       </c>
-      <c r="J13" s="183">
+      <c r="J13" s="157">
         <f t="shared" si="13"/>
         <v>100</v>
       </c>
-      <c r="K13" s="182">
+      <c r="K13" s="156">
         <f t="shared" si="13"/>
         <v>1431470</v>
       </c>
-      <c r="L13" s="183">
+      <c r="L13" s="157">
         <f t="shared" si="13"/>
         <v>100.00000000000001</v>
       </c>
-      <c r="M13" s="182">
+      <c r="M13" s="156">
         <f t="shared" si="13"/>
         <v>2390530</v>
       </c>
-      <c r="N13" s="183">
+      <c r="N13" s="157">
         <f t="shared" si="13"/>
         <v>100</v>
       </c>
-      <c r="O13" s="182">
+      <c r="O13" s="156">
         <f t="shared" si="13"/>
         <v>3403030</v>
       </c>
-      <c r="P13" s="183">
+      <c r="P13" s="157">
         <f t="shared" si="13"/>
         <v>100</v>
       </c>
-      <c r="Q13" s="182">
+      <c r="Q13" s="156">
         <f t="shared" si="13"/>
         <v>4755730</v>
       </c>
-      <c r="R13" s="183">
+      <c r="R13" s="157">
         <f t="shared" si="13"/>
         <v>100</v>
       </c>
-      <c r="S13" s="182">
+      <c r="S13" s="156">
         <f t="shared" si="13"/>
         <v>2275780</v>
       </c>
-      <c r="T13" s="183">
+      <c r="T13" s="157">
         <f t="shared" si="13"/>
         <v>100</v>
       </c>
-      <c r="U13" s="182">
+      <c r="U13" s="156">
         <f t="shared" si="13"/>
         <v>3778780</v>
       </c>
-      <c r="V13" s="183">
+      <c r="V13" s="157">
         <f t="shared" si="13"/>
         <v>100</v>
       </c>
-      <c r="W13" s="182">
+      <c r="W13" s="156">
         <f t="shared" si="13"/>
         <v>3778780</v>
       </c>
-      <c r="X13" s="183">
+      <c r="X13" s="157">
         <f t="shared" si="13"/>
         <v>100</v>
       </c>
-      <c r="Y13" s="182">
+      <c r="Y13" s="156">
         <f t="shared" si="13"/>
         <v>5279540</v>
       </c>
-      <c r="Z13" s="183">
+      <c r="Z13" s="157">
         <f t="shared" si="13"/>
         <v>100</v>
       </c>
-      <c r="AA13" s="182">
+      <c r="AA13" s="156">
         <f>SUM(AA8:AA12)</f>
         <v>33522620</v>
       </c>
-      <c r="AB13" s="183">
+      <c r="AB13" s="157">
         <f t="shared" si="13"/>
         <v>100</v>
       </c>
-      <c r="AC13" s="172"/>
-      <c r="AD13" s="172"/>
+      <c r="AC13" s="146"/>
+      <c r="AD13" s="146"/>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A14" s="184"/>
-      <c r="B14" s="185"/>
-      <c r="C14" s="185"/>
-      <c r="D14" s="186"/>
-      <c r="E14" s="185"/>
-      <c r="F14" s="186"/>
-      <c r="G14" s="185"/>
-      <c r="H14" s="186"/>
-      <c r="I14" s="185"/>
-      <c r="J14" s="186"/>
-      <c r="K14" s="185"/>
-      <c r="L14" s="186"/>
-      <c r="M14" s="185"/>
-      <c r="N14" s="186"/>
-      <c r="O14" s="185"/>
-      <c r="P14" s="186"/>
-      <c r="Q14" s="185"/>
-      <c r="R14" s="186"/>
-      <c r="S14" s="185"/>
-      <c r="T14" s="186"/>
-      <c r="U14" s="185"/>
-      <c r="V14" s="186"/>
-      <c r="W14" s="185"/>
-      <c r="X14" s="186"/>
-      <c r="Y14" s="185"/>
-      <c r="Z14" s="186"/>
-      <c r="AA14" s="185"/>
-      <c r="AB14" s="187"/>
-      <c r="AC14" s="172"/>
-      <c r="AD14" s="172"/>
+      <c r="A14" s="158"/>
+      <c r="B14" s="159"/>
+      <c r="C14" s="159"/>
+      <c r="D14" s="160"/>
+      <c r="E14" s="159"/>
+      <c r="F14" s="160"/>
+      <c r="G14" s="159"/>
+      <c r="H14" s="160"/>
+      <c r="I14" s="159"/>
+      <c r="J14" s="160"/>
+      <c r="K14" s="159"/>
+      <c r="L14" s="160"/>
+      <c r="M14" s="159"/>
+      <c r="N14" s="160"/>
+      <c r="O14" s="159"/>
+      <c r="P14" s="160"/>
+      <c r="Q14" s="159"/>
+      <c r="R14" s="160"/>
+      <c r="S14" s="159"/>
+      <c r="T14" s="160"/>
+      <c r="U14" s="159"/>
+      <c r="V14" s="160"/>
+      <c r="W14" s="159"/>
+      <c r="X14" s="160"/>
+      <c r="Y14" s="159"/>
+      <c r="Z14" s="160"/>
+      <c r="AA14" s="159"/>
+      <c r="AB14" s="161"/>
+      <c r="AC14" s="146"/>
+      <c r="AD14" s="146"/>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A15" s="188" t="s">
+      <c r="A15" s="162" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="189"/>
-      <c r="C15" s="169"/>
-      <c r="D15" s="190"/>
-      <c r="E15" s="169"/>
-      <c r="F15" s="190"/>
-      <c r="G15" s="169"/>
-      <c r="H15" s="190"/>
-      <c r="I15" s="169"/>
-      <c r="J15" s="190"/>
-      <c r="K15" s="169"/>
-      <c r="L15" s="190"/>
-      <c r="M15" s="169"/>
-      <c r="N15" s="190"/>
-      <c r="O15" s="169"/>
-      <c r="P15" s="190"/>
-      <c r="Q15" s="169"/>
-      <c r="R15" s="190"/>
-      <c r="S15" s="169"/>
-      <c r="T15" s="190"/>
-      <c r="U15" s="169"/>
-      <c r="V15" s="190"/>
-      <c r="W15" s="169"/>
-      <c r="X15" s="190"/>
-      <c r="Y15" s="169"/>
-      <c r="Z15" s="190"/>
-      <c r="AA15" s="169"/>
-      <c r="AB15" s="191"/>
-      <c r="AC15" s="172"/>
-      <c r="AD15" s="172"/>
+      <c r="B15" s="163"/>
+      <c r="C15" s="143"/>
+      <c r="D15" s="164"/>
+      <c r="E15" s="143"/>
+      <c r="F15" s="164"/>
+      <c r="G15" s="143"/>
+      <c r="H15" s="164"/>
+      <c r="I15" s="143"/>
+      <c r="J15" s="164"/>
+      <c r="K15" s="143"/>
+      <c r="L15" s="164"/>
+      <c r="M15" s="143"/>
+      <c r="N15" s="164"/>
+      <c r="O15" s="143"/>
+      <c r="P15" s="164"/>
+      <c r="Q15" s="143"/>
+      <c r="R15" s="164"/>
+      <c r="S15" s="143"/>
+      <c r="T15" s="164"/>
+      <c r="U15" s="143"/>
+      <c r="V15" s="164"/>
+      <c r="W15" s="143"/>
+      <c r="X15" s="164"/>
+      <c r="Y15" s="143"/>
+      <c r="Z15" s="164"/>
+      <c r="AA15" s="143"/>
+      <c r="AB15" s="165"/>
+      <c r="AC15" s="146"/>
+      <c r="AD15" s="146"/>
     </row>
     <row r="16" spans="1:30" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="192" t="s">
+      <c r="A16" s="166" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="192"/>
-      <c r="C16" s="193">
-        <v>0</v>
-      </c>
-      <c r="D16" s="192"/>
-      <c r="E16" s="192">
-        <v>0</v>
-      </c>
-      <c r="F16" s="192"/>
-      <c r="G16" s="192">
-        <v>0</v>
-      </c>
-      <c r="H16" s="192"/>
-      <c r="I16" s="192">
-        <v>0</v>
-      </c>
-      <c r="J16" s="192"/>
-      <c r="K16" s="192">
-        <v>0</v>
-      </c>
-      <c r="L16" s="192"/>
-      <c r="M16" s="192">
-        <v>0</v>
-      </c>
-      <c r="N16" s="192"/>
-      <c r="O16" s="192">
-        <v>0</v>
-      </c>
-      <c r="P16" s="192"/>
-      <c r="Q16" s="192">
-        <v>0</v>
-      </c>
-      <c r="R16" s="192"/>
-      <c r="S16" s="192">
-        <v>0</v>
-      </c>
-      <c r="T16" s="192"/>
-      <c r="U16" s="192">
-        <v>0</v>
-      </c>
-      <c r="V16" s="192"/>
-      <c r="W16" s="192">
-        <v>0</v>
-      </c>
-      <c r="X16" s="192"/>
-      <c r="Y16" s="192">
-        <v>0</v>
-      </c>
-      <c r="Z16" s="192"/>
-      <c r="AA16" s="193">
+      <c r="B16" s="166"/>
+      <c r="C16" s="167">
+        <v>0</v>
+      </c>
+      <c r="D16" s="166"/>
+      <c r="E16" s="166">
+        <v>0</v>
+      </c>
+      <c r="F16" s="166"/>
+      <c r="G16" s="166">
+        <v>0</v>
+      </c>
+      <c r="H16" s="166"/>
+      <c r="I16" s="166">
+        <v>0</v>
+      </c>
+      <c r="J16" s="166"/>
+      <c r="K16" s="166">
+        <v>0</v>
+      </c>
+      <c r="L16" s="166"/>
+      <c r="M16" s="166">
+        <v>0</v>
+      </c>
+      <c r="N16" s="166"/>
+      <c r="O16" s="166">
+        <v>0</v>
+      </c>
+      <c r="P16" s="166"/>
+      <c r="Q16" s="166">
+        <v>0</v>
+      </c>
+      <c r="R16" s="166"/>
+      <c r="S16" s="166">
+        <v>0</v>
+      </c>
+      <c r="T16" s="166"/>
+      <c r="U16" s="166">
+        <v>0</v>
+      </c>
+      <c r="V16" s="166"/>
+      <c r="W16" s="166">
+        <v>0</v>
+      </c>
+      <c r="X16" s="166"/>
+      <c r="Y16" s="166">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="166"/>
+      <c r="AA16" s="167">
         <f>SUM(C16,E16,G16,I16,K16,M16,O16,Q16,S16,U16,W16,Y16)</f>
         <v>0</v>
       </c>
-      <c r="AB16" s="192"/>
-      <c r="AC16" s="172"/>
-      <c r="AD16" s="172"/>
+      <c r="AB16" s="166"/>
+      <c r="AC16" s="146"/>
+      <c r="AD16" s="146"/>
     </row>
     <row r="17" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A17" s="180" t="s">
+      <c r="A17" s="154" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="181"/>
-      <c r="C17" s="182">
+      <c r="B17" s="155"/>
+      <c r="C17" s="156">
         <f>SUM(C16:C16)</f>
         <v>0</v>
       </c>
-      <c r="D17" s="177">
+      <c r="D17" s="151">
         <f>IF(C13=0,"-",(C17*100)/C13)</f>
         <v>0</v>
       </c>
-      <c r="E17" s="182">
+      <c r="E17" s="156">
         <f>SUM(E16:E16)</f>
         <v>0</v>
       </c>
-      <c r="F17" s="177">
+      <c r="F17" s="151">
         <f>IF(E13=0,"-",(E17*100)/E13)</f>
         <v>0</v>
       </c>
-      <c r="G17" s="182">
+      <c r="G17" s="156">
         <f>SUM(G16:G16)</f>
         <v>0</v>
       </c>
-      <c r="H17" s="177">
+      <c r="H17" s="151">
         <f>IF(G13=0,"-",(G17*100)/G13)</f>
         <v>0</v>
       </c>
-      <c r="I17" s="182">
+      <c r="I17" s="156">
         <f>SUM(I16:I16)</f>
         <v>0</v>
       </c>
-      <c r="J17" s="177">
+      <c r="J17" s="151">
         <f>IF(I13=0,"-",(I17*100)/I13)</f>
         <v>0</v>
       </c>
-      <c r="K17" s="182">
+      <c r="K17" s="156">
         <f>SUM(K16:K16)</f>
         <v>0</v>
       </c>
-      <c r="L17" s="177">
+      <c r="L17" s="151">
         <f>IF(K13=0,"-",(K17*100)/K13)</f>
         <v>0</v>
       </c>
-      <c r="M17" s="182">
+      <c r="M17" s="156">
         <f>SUM(M16:M16)</f>
         <v>0</v>
       </c>
-      <c r="N17" s="177">
+      <c r="N17" s="151">
         <f>IF(M13=0,"-",(M17*100)/M13)</f>
         <v>0</v>
       </c>
-      <c r="O17" s="182">
+      <c r="O17" s="156">
         <f>SUM(O16:O16)</f>
         <v>0</v>
       </c>
-      <c r="P17" s="177">
+      <c r="P17" s="151">
         <f>IF(O13=0,"-",(O17*100)/O13)</f>
         <v>0</v>
       </c>
-      <c r="Q17" s="182">
+      <c r="Q17" s="156">
         <f>SUM(Q16:Q16)</f>
         <v>0</v>
       </c>
-      <c r="R17" s="177">
+      <c r="R17" s="151">
         <f>IF(Q13=0,"-",(Q17*100)/Q13)</f>
         <v>0</v>
       </c>
-      <c r="S17" s="182">
+      <c r="S17" s="156">
         <f>SUM(S16:S16)</f>
         <v>0</v>
       </c>
-      <c r="T17" s="177">
+      <c r="T17" s="151">
         <f>IF(S13=0,"-",(S17*100)/S13)</f>
         <v>0</v>
       </c>
-      <c r="U17" s="182">
+      <c r="U17" s="156">
         <f>SUM(U16:U16)</f>
         <v>0</v>
       </c>
-      <c r="V17" s="177">
+      <c r="V17" s="151">
         <f>IF(U13=0,"-",(U17*100)/U13)</f>
         <v>0</v>
       </c>
-      <c r="W17" s="182">
+      <c r="W17" s="156">
         <f>SUM(W16:W16)</f>
         <v>0</v>
       </c>
-      <c r="X17" s="177">
+      <c r="X17" s="151">
         <f>IF(W13=0,"-",(W17*100)/W13)</f>
         <v>0</v>
       </c>
-      <c r="Y17" s="182">
+      <c r="Y17" s="156">
         <f>SUM(Y16:Y16)</f>
         <v>0</v>
       </c>
-      <c r="Z17" s="177">
+      <c r="Z17" s="151">
         <f>IF(Y13=0,"-",(Y17*100)/Y13)</f>
         <v>0</v>
       </c>
-      <c r="AA17" s="182">
+      <c r="AA17" s="156">
         <f>SUM(AA16:AA16)</f>
         <v>0</v>
       </c>
-      <c r="AB17" s="194">
+      <c r="AB17" s="168">
         <f>IF(AA13=0,"-",(AA17*100)/AA13)</f>
         <v>0</v>
       </c>
-      <c r="AC17" s="195"/>
-      <c r="AD17" s="172"/>
+      <c r="AC17" s="169"/>
+      <c r="AD17" s="146"/>
     </row>
     <row r="18" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A18" s="184"/>
-      <c r="B18" s="169"/>
-      <c r="C18" s="169"/>
-      <c r="D18" s="190"/>
-      <c r="E18" s="169"/>
-      <c r="F18" s="190"/>
-      <c r="G18" s="169"/>
-      <c r="H18" s="190"/>
-      <c r="I18" s="169"/>
-      <c r="J18" s="190"/>
-      <c r="K18" s="169"/>
-      <c r="L18" s="190"/>
-      <c r="M18" s="169"/>
-      <c r="N18" s="190"/>
-      <c r="O18" s="169"/>
-      <c r="P18" s="190"/>
-      <c r="Q18" s="169"/>
-      <c r="R18" s="190"/>
-      <c r="S18" s="169"/>
-      <c r="T18" s="190"/>
-      <c r="U18" s="169"/>
-      <c r="V18" s="190"/>
-      <c r="W18" s="169"/>
-      <c r="X18" s="190"/>
-      <c r="Y18" s="169"/>
-      <c r="Z18" s="190"/>
-      <c r="AA18" s="169"/>
-      <c r="AB18" s="191"/>
-      <c r="AC18" s="172"/>
-      <c r="AD18" s="172"/>
+      <c r="A18" s="158"/>
+      <c r="B18" s="143"/>
+      <c r="C18" s="143"/>
+      <c r="D18" s="164"/>
+      <c r="E18" s="143"/>
+      <c r="F18" s="164"/>
+      <c r="G18" s="143"/>
+      <c r="H18" s="164"/>
+      <c r="I18" s="143"/>
+      <c r="J18" s="164"/>
+      <c r="K18" s="143"/>
+      <c r="L18" s="164"/>
+      <c r="M18" s="143"/>
+      <c r="N18" s="164"/>
+      <c r="O18" s="143"/>
+      <c r="P18" s="164"/>
+      <c r="Q18" s="143"/>
+      <c r="R18" s="164"/>
+      <c r="S18" s="143"/>
+      <c r="T18" s="164"/>
+      <c r="U18" s="143"/>
+      <c r="V18" s="164"/>
+      <c r="W18" s="143"/>
+      <c r="X18" s="164"/>
+      <c r="Y18" s="143"/>
+      <c r="Z18" s="164"/>
+      <c r="AA18" s="143"/>
+      <c r="AB18" s="165"/>
+      <c r="AC18" s="146"/>
+      <c r="AD18" s="146"/>
     </row>
     <row r="19" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A19" s="196" t="s">
+      <c r="A19" s="170" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="197"/>
-      <c r="C19" s="198">
+      <c r="B19" s="171"/>
+      <c r="C19" s="172">
         <f>C13-C17</f>
         <v>953280</v>
       </c>
-      <c r="D19" s="199">
+      <c r="D19" s="173">
         <f>IF(C13=0,"-",(C19*100)/C13)</f>
         <v>100</v>
       </c>
-      <c r="E19" s="198">
+      <c r="E19" s="172">
         <f>E13-E17</f>
         <v>1460580</v>
       </c>
-      <c r="F19" s="199">
+      <c r="F19" s="173">
         <f>IF(E13=0,"-",(E19*100)/E13)</f>
         <v>100</v>
       </c>
-      <c r="G19" s="198">
+      <c r="G19" s="172">
         <f>G13-G17</f>
         <v>1714540</v>
       </c>
-      <c r="H19" s="199">
+      <c r="H19" s="173">
         <f>IF(G13=0,"-",(G19*100)/G13)</f>
         <v>100</v>
       </c>
-      <c r="I19" s="198">
+      <c r="I19" s="172">
         <f>I13-I17</f>
         <v>2300580</v>
       </c>
-      <c r="J19" s="199">
+      <c r="J19" s="173">
         <f>IF(I13=0,"-",(I19*100)/I13)</f>
         <v>100</v>
       </c>
-      <c r="K19" s="198">
+      <c r="K19" s="172">
         <f>K13-K17</f>
         <v>1431470</v>
       </c>
-      <c r="L19" s="199">
+      <c r="L19" s="173">
         <f>IF(K13=0,"-",(K19*100)/K13)</f>
         <v>100</v>
       </c>
-      <c r="M19" s="198">
+      <c r="M19" s="172">
         <f>M13-M17</f>
         <v>2390530</v>
       </c>
-      <c r="N19" s="199">
+      <c r="N19" s="173">
         <f>IF(M13=0,"-",(M19*100)/M13)</f>
         <v>100</v>
       </c>
-      <c r="O19" s="198">
+      <c r="O19" s="172">
         <f>O13-O17</f>
         <v>3403030</v>
       </c>
-      <c r="P19" s="199">
+      <c r="P19" s="173">
         <f>IF(O13=0,"-",(O19*100)/O13)</f>
         <v>100</v>
       </c>
-      <c r="Q19" s="198">
+      <c r="Q19" s="172">
         <f>Q13-Q17</f>
         <v>4755730</v>
       </c>
-      <c r="R19" s="199">
+      <c r="R19" s="173">
         <f>IF(Q13=0,"-",(Q19*100)/Q13)</f>
         <v>100</v>
       </c>
-      <c r="S19" s="198">
+      <c r="S19" s="172">
         <f>S13-S17</f>
         <v>2275780</v>
       </c>
-      <c r="T19" s="199">
+      <c r="T19" s="173">
         <f>IF(S13=0,"-",(S19*100)/S13)</f>
         <v>100</v>
       </c>
-      <c r="U19" s="198">
+      <c r="U19" s="172">
         <f>U13-U17</f>
         <v>3778780</v>
       </c>
-      <c r="V19" s="199">
+      <c r="V19" s="173">
         <f>IF(U13=0,"-",(U19*100)/U13)</f>
         <v>100</v>
       </c>
-      <c r="W19" s="198">
+      <c r="W19" s="172">
         <f>W13-W17</f>
         <v>3778780</v>
       </c>
-      <c r="X19" s="199">
+      <c r="X19" s="173">
         <f>IF(W13=0,"-",(W19*100)/W13)</f>
         <v>100</v>
       </c>
-      <c r="Y19" s="198">
+      <c r="Y19" s="172">
         <f>Y13-Y17</f>
         <v>5279540</v>
       </c>
-      <c r="Z19" s="199">
+      <c r="Z19" s="173">
         <f>IF(Y13=0,"-",(Y19*100)/Y13)</f>
         <v>100</v>
       </c>
-      <c r="AA19" s="198">
+      <c r="AA19" s="172">
         <f>AA13-AA17</f>
         <v>33522620</v>
       </c>
-      <c r="AB19" s="199">
+      <c r="AB19" s="173">
         <f>IF(AA13=0,"-",(AA19*100)/AA13)</f>
         <v>100</v>
       </c>
-      <c r="AC19" s="172"/>
-      <c r="AD19" s="172"/>
+      <c r="AC19" s="146"/>
+      <c r="AD19" s="146"/>
     </row>
     <row r="20" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A20" s="184"/>
-      <c r="B20" s="185"/>
-      <c r="C20" s="185"/>
-      <c r="D20" s="186"/>
-      <c r="E20" s="185"/>
-      <c r="F20" s="186"/>
-      <c r="G20" s="185"/>
-      <c r="H20" s="186"/>
-      <c r="I20" s="185"/>
-      <c r="J20" s="186"/>
-      <c r="K20" s="185"/>
-      <c r="L20" s="186"/>
-      <c r="M20" s="185"/>
-      <c r="N20" s="186"/>
-      <c r="O20" s="185"/>
-      <c r="P20" s="186"/>
-      <c r="Q20" s="185"/>
-      <c r="R20" s="186"/>
-      <c r="S20" s="185"/>
-      <c r="T20" s="186"/>
-      <c r="U20" s="185"/>
-      <c r="V20" s="186"/>
-      <c r="W20" s="185"/>
-      <c r="X20" s="186"/>
-      <c r="Y20" s="185"/>
-      <c r="Z20" s="186"/>
-      <c r="AA20" s="185"/>
-      <c r="AB20" s="187"/>
-      <c r="AC20" s="172"/>
-      <c r="AD20" s="172"/>
+      <c r="A20" s="158"/>
+      <c r="B20" s="159"/>
+      <c r="C20" s="159"/>
+      <c r="D20" s="160"/>
+      <c r="E20" s="159"/>
+      <c r="F20" s="160"/>
+      <c r="G20" s="159"/>
+      <c r="H20" s="160"/>
+      <c r="I20" s="159"/>
+      <c r="J20" s="160"/>
+      <c r="K20" s="159"/>
+      <c r="L20" s="160"/>
+      <c r="M20" s="159"/>
+      <c r="N20" s="160"/>
+      <c r="O20" s="159"/>
+      <c r="P20" s="160"/>
+      <c r="Q20" s="159"/>
+      <c r="R20" s="160"/>
+      <c r="S20" s="159"/>
+      <c r="T20" s="160"/>
+      <c r="U20" s="159"/>
+      <c r="V20" s="160"/>
+      <c r="W20" s="159"/>
+      <c r="X20" s="160"/>
+      <c r="Y20" s="159"/>
+      <c r="Z20" s="160"/>
+      <c r="AA20" s="159"/>
+      <c r="AB20" s="161"/>
+      <c r="AC20" s="146"/>
+      <c r="AD20" s="146"/>
     </row>
     <row r="21" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A21" s="188" t="s">
+      <c r="A21" s="162" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="169"/>
-      <c r="C21" s="169"/>
-      <c r="D21" s="190"/>
-      <c r="E21" s="169"/>
-      <c r="F21" s="190"/>
-      <c r="G21" s="169"/>
-      <c r="H21" s="190"/>
-      <c r="I21" s="169"/>
-      <c r="J21" s="190"/>
-      <c r="K21" s="169"/>
-      <c r="L21" s="190"/>
-      <c r="M21" s="169"/>
-      <c r="N21" s="190"/>
-      <c r="O21" s="169"/>
-      <c r="P21" s="190"/>
-      <c r="Q21" s="169"/>
-      <c r="R21" s="190"/>
-      <c r="S21" s="169"/>
-      <c r="T21" s="190"/>
-      <c r="U21" s="169"/>
-      <c r="V21" s="190"/>
-      <c r="W21" s="169"/>
-      <c r="X21" s="190"/>
-      <c r="Y21" s="169"/>
-      <c r="Z21" s="190"/>
-      <c r="AA21" s="169"/>
-      <c r="AB21" s="191"/>
-      <c r="AC21" s="172"/>
-      <c r="AD21" s="172"/>
+      <c r="B21" s="143"/>
+      <c r="C21" s="143"/>
+      <c r="D21" s="164"/>
+      <c r="E21" s="143"/>
+      <c r="F21" s="164"/>
+      <c r="G21" s="143"/>
+      <c r="H21" s="164"/>
+      <c r="I21" s="143"/>
+      <c r="J21" s="164"/>
+      <c r="K21" s="143"/>
+      <c r="L21" s="164"/>
+      <c r="M21" s="143"/>
+      <c r="N21" s="164"/>
+      <c r="O21" s="143"/>
+      <c r="P21" s="164"/>
+      <c r="Q21" s="143"/>
+      <c r="R21" s="164"/>
+      <c r="S21" s="143"/>
+      <c r="T21" s="164"/>
+      <c r="U21" s="143"/>
+      <c r="V21" s="164"/>
+      <c r="W21" s="143"/>
+      <c r="X21" s="164"/>
+      <c r="Y21" s="143"/>
+      <c r="Z21" s="164"/>
+      <c r="AA21" s="143"/>
+      <c r="AB21" s="165"/>
+      <c r="AC21" s="146"/>
+      <c r="AD21" s="146"/>
     </row>
     <row r="22" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A22" s="184" t="s">
+      <c r="A22" s="158" t="s">
         <v>30</v>
       </c>
-      <c r="B22" s="179"/>
-      <c r="C22" s="169">
+      <c r="B22" s="153"/>
+      <c r="C22" s="143">
         <v>120000</v>
       </c>
-      <c r="D22" s="177">
+      <c r="D22" s="151">
         <f t="shared" ref="D22:D33" si="14">IF($C$13=0,"-",(C22*100)/$C$13)</f>
         <v>12.588116817724069</v>
       </c>
-      <c r="E22" s="193">
+      <c r="E22" s="167">
         <v>120000</v>
       </c>
-      <c r="F22" s="177">
+      <c r="F22" s="151">
         <f t="shared" ref="F22:F33" si="15">IF(E$13=0,"-",(E22*100)/E$13)</f>
         <v>8.2159142258554816</v>
       </c>
-      <c r="G22" s="169">
+      <c r="G22" s="143">
         <v>120000</v>
       </c>
-      <c r="H22" s="177">
+      <c r="H22" s="151">
         <f t="shared" ref="H22:H33" si="16">IF(G$13=0,"-",(G22*100)/G$13)</f>
         <v>6.9989618206632684</v>
       </c>
-      <c r="I22" s="169">
+      <c r="I22" s="143">
         <v>120000</v>
       </c>
-      <c r="J22" s="177">
+      <c r="J22" s="151">
         <f t="shared" ref="J22:J33" si="17">IF(I$13=0,"-",(I22*100)/I$13)</f>
         <v>5.2160759460657751</v>
       </c>
-      <c r="K22" s="169">
+      <c r="K22" s="143">
         <v>120000</v>
       </c>
-      <c r="L22" s="177">
+      <c r="L22" s="151">
         <f t="shared" ref="L22:L33" si="18">IF(K$13=0,"-",(K22*100)/K$13)</f>
         <v>8.382990911440686</v>
       </c>
-      <c r="M22" s="169">
+      <c r="M22" s="143">
         <v>120000</v>
       </c>
-      <c r="N22" s="177">
+      <c r="N22" s="151">
         <f t="shared" ref="N22:N33" si="19">IF(M$13=0,"-",(M22*100)/M$13)</f>
         <v>5.01980732306225</v>
       </c>
-      <c r="O22" s="169">
+      <c r="O22" s="143">
         <v>120000</v>
       </c>
-      <c r="P22" s="177">
+      <c r="P22" s="151">
         <f t="shared" ref="P22:P33" si="20">IF(O$13=0,"-",(O22*100)/O$13)</f>
         <v>3.5262692365333246</v>
       </c>
-      <c r="Q22" s="169">
+      <c r="Q22" s="143">
         <v>120000</v>
       </c>
-      <c r="R22" s="177">
+      <c r="R22" s="151">
         <f t="shared" ref="R22:R33" si="21">IF(Q$13=0,"-",(Q22*100)/Q$13)</f>
         <v>2.5232719267073613</v>
       </c>
-      <c r="S22" s="169">
+      <c r="S22" s="143">
         <v>120000</v>
       </c>
-      <c r="T22" s="177">
+      <c r="T22" s="151">
         <f t="shared" ref="T22:T33" si="22">IF(S$13=0,"-",(S22*100)/S$13)</f>
         <v>5.2729174173250488</v>
       </c>
-      <c r="U22" s="169">
+      <c r="U22" s="143">
         <v>120000</v>
       </c>
-      <c r="V22" s="177">
+      <c r="V22" s="151">
         <f t="shared" ref="V22:V33" si="23">IF(U$13=0,"-",(U22*100)/U$13)</f>
         <v>3.1756281127771397</v>
       </c>
-      <c r="W22" s="169">
+      <c r="W22" s="143">
         <v>120000</v>
       </c>
-      <c r="X22" s="177">
+      <c r="X22" s="151">
         <f>IF(W$13=0,"-",(W22*100)/W$13)</f>
         <v>3.1756281127771397</v>
       </c>
-      <c r="Y22" s="169">
+      <c r="Y22" s="143">
         <v>120000</v>
       </c>
-      <c r="Z22" s="177">
+      <c r="Z22" s="151">
         <f t="shared" ref="Z22:Z33" si="24">IF(Y$13=0,"-",(Y22*100)/Y$13)</f>
         <v>2.2729252927338366</v>
       </c>
-      <c r="AA22" s="169">
+      <c r="AA22" s="143">
         <f>SUM(C22,E22,G22,I22,K22,M22,O22,Q22,S22,U22,W22,Y22)</f>
         <v>1440000</v>
       </c>
-      <c r="AB22" s="177">
+      <c r="AB22" s="151">
         <f t="shared" ref="AB22:AB33" si="25">IF(AA$13=0,"-",(AA22*100)/AA$13)</f>
         <v>4.2956069662812748</v>
       </c>
-      <c r="AC22" s="172"/>
-      <c r="AD22" s="172"/>
+      <c r="AC22" s="146"/>
+      <c r="AD22" s="146"/>
     </row>
     <row r="23" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A23" s="200" t="s">
-        <v>55</v>
-      </c>
-      <c r="B23" s="179"/>
-      <c r="C23" s="169">
+      <c r="A23" s="174" t="s">
+        <v>48</v>
+      </c>
+      <c r="B23" s="153"/>
+      <c r="C23" s="143">
         <v>2083.3333333333298</v>
       </c>
-      <c r="D23" s="177">
+      <c r="D23" s="151">
         <f t="shared" si="14"/>
         <v>0.2185436947521536</v>
       </c>
-      <c r="E23" s="169">
+      <c r="E23" s="143">
         <v>2083.3333333333298</v>
       </c>
-      <c r="F23" s="177">
+      <c r="F23" s="151">
         <f t="shared" si="15"/>
         <v>0.14263739975443521</v>
       </c>
-      <c r="G23" s="169">
+      <c r="G23" s="143">
         <v>2083.3333333333298</v>
       </c>
-      <c r="H23" s="177">
+      <c r="H23" s="151">
         <f t="shared" si="16"/>
         <v>0.12150975383095933</v>
       </c>
-      <c r="I23" s="169">
+      <c r="I23" s="143">
         <v>2083.3333333333298</v>
       </c>
-      <c r="J23" s="177">
+      <c r="J23" s="151">
         <f t="shared" si="17"/>
         <v>9.0556874063641768E-2</v>
       </c>
-      <c r="K23" s="169">
+      <c r="K23" s="143">
         <v>2083.3333333333298</v>
       </c>
-      <c r="L23" s="177">
+      <c r="L23" s="151">
         <f t="shared" si="18"/>
         <v>0.14553803665695614</v>
       </c>
-      <c r="M23" s="169">
+      <c r="M23" s="143">
         <v>2083.3333333333298</v>
       </c>
-      <c r="N23" s="177">
+      <c r="N23" s="151">
         <f t="shared" si="19"/>
         <v>8.7149432692052803E-2</v>
       </c>
-      <c r="O23" s="169">
+      <c r="O23" s="143">
         <v>2083.3333333333298</v>
       </c>
-      <c r="P23" s="177">
+      <c r="P23" s="151">
         <f t="shared" si="20"/>
         <v>6.1219952023147901E-2</v>
       </c>
-      <c r="Q23" s="169">
+      <c r="Q23" s="143">
         <v>2083.3333333333298</v>
       </c>
-      <c r="R23" s="177">
+      <c r="R23" s="151">
         <f t="shared" si="21"/>
         <v>4.3806804283113843E-2</v>
       </c>
-      <c r="S23" s="169">
+      <c r="S23" s="143">
         <v>2083.3333333333298</v>
       </c>
-      <c r="T23" s="177">
+      <c r="T23" s="151">
         <f t="shared" si="22"/>
         <v>9.1543705161893058E-2</v>
       </c>
-      <c r="U23" s="169">
+      <c r="U23" s="143">
         <v>2083.3333333333298</v>
       </c>
-      <c r="V23" s="177">
+      <c r="V23" s="151">
         <f t="shared" si="23"/>
         <v>5.5132432513491918E-2</v>
       </c>
-      <c r="W23" s="169">
+      <c r="W23" s="143">
         <v>2083.3333333333298</v>
       </c>
-      <c r="X23" s="177">
+      <c r="X23" s="151">
         <f t="shared" ref="X23" si="26">IF(W$13=0,"-",(W23*100)/W$13)</f>
         <v>5.5132432513491918E-2</v>
       </c>
-      <c r="Y23" s="169">
+      <c r="Y23" s="143">
         <v>2083.3333333333298</v>
       </c>
-      <c r="Z23" s="177">
+      <c r="Z23" s="151">
         <f t="shared" si="24"/>
         <v>3.9460508554406824E-2</v>
       </c>
-      <c r="AA23" s="169">
+      <c r="AA23" s="143">
         <f>SUM(Y23,W23,U23,S23,Q23,O23,M23,K23,I23,G23,E23,C23)</f>
         <v>24999.999999999953</v>
       </c>
-      <c r="AB23" s="177">
+      <c r="AB23" s="151">
         <f t="shared" si="25"/>
         <v>7.4576509831271995E-2</v>
       </c>
-      <c r="AC23" s="151"/>
-      <c r="AD23" s="172"/>
+      <c r="AC23" s="130"/>
+      <c r="AD23" s="146"/>
     </row>
     <row r="24" spans="1:30" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="192" t="s">
+      <c r="A24" s="166" t="s">
         <v>17</v>
       </c>
-      <c r="B24" s="179"/>
-      <c r="C24" s="193">
-        <v>0</v>
-      </c>
-      <c r="D24" s="177">
+      <c r="B24" s="153"/>
+      <c r="C24" s="167">
+        <v>0</v>
+      </c>
+      <c r="D24" s="151">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="E24" s="193">
-        <v>0</v>
-      </c>
-      <c r="F24" s="177">
+      <c r="E24" s="167">
+        <v>0</v>
+      </c>
+      <c r="F24" s="151">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="G24" s="193">
-        <v>0</v>
-      </c>
-      <c r="H24" s="177">
+      <c r="G24" s="167">
+        <v>0</v>
+      </c>
+      <c r="H24" s="151">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="I24" s="193">
-        <v>0</v>
-      </c>
-      <c r="J24" s="177">
+      <c r="I24" s="167">
+        <v>0</v>
+      </c>
+      <c r="J24" s="151">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="K24" s="193">
-        <v>0</v>
-      </c>
-      <c r="L24" s="177">
+      <c r="K24" s="167">
+        <v>0</v>
+      </c>
+      <c r="L24" s="151">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="M24" s="193">
+      <c r="M24" s="167">
         <v>27500</v>
       </c>
-      <c r="N24" s="177">
+      <c r="N24" s="151">
         <f t="shared" si="19"/>
         <v>1.1503725115350989</v>
       </c>
-      <c r="O24" s="193">
-        <v>0</v>
-      </c>
-      <c r="P24" s="177">
+      <c r="O24" s="167">
+        <v>0</v>
+      </c>
+      <c r="P24" s="151">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="Q24" s="193">
-        <v>0</v>
-      </c>
-      <c r="R24" s="177">
+      <c r="Q24" s="167">
+        <v>0</v>
+      </c>
+      <c r="R24" s="151">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="S24" s="193">
-        <v>0</v>
-      </c>
-      <c r="T24" s="177">
+      <c r="S24" s="167">
+        <v>0</v>
+      </c>
+      <c r="T24" s="151">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="U24" s="193">
-        <v>0</v>
-      </c>
-      <c r="V24" s="177">
+      <c r="U24" s="167">
+        <v>0</v>
+      </c>
+      <c r="V24" s="151">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="W24" s="193">
-        <v>0</v>
-      </c>
-      <c r="X24" s="177">
+      <c r="W24" s="167">
+        <v>0</v>
+      </c>
+      <c r="X24" s="151">
         <f>IF(W$13=0,"-",(W24*100)/W$13)</f>
         <v>0</v>
       </c>
-      <c r="Y24" s="193">
-        <v>0</v>
-      </c>
-      <c r="Z24" s="177">
+      <c r="Y24" s="167">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="151">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AA24" s="193">
+      <c r="AA24" s="167">
         <f>SUM(Y24,W24,U24,S24,Q24,O24,M24,K24,I24,C24,E24,G24)</f>
         <v>27500</v>
       </c>
-      <c r="AB24" s="177">
+      <c r="AB24" s="151">
         <f t="shared" si="25"/>
         <v>8.2034160814399348E-2</v>
       </c>
-      <c r="AC24" s="151"/>
-      <c r="AD24" s="172"/>
+      <c r="AC24" s="130"/>
+      <c r="AD24" s="146"/>
     </row>
     <row r="25" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A25" s="192" t="s">
+      <c r="A25" s="166" t="s">
         <v>5</v>
       </c>
-      <c r="B25" s="179"/>
-      <c r="C25" s="193">
+      <c r="B25" s="153"/>
+      <c r="C25" s="167">
         <v>7999</v>
       </c>
-      <c r="D25" s="177">
+      <c r="D25" s="151">
         <f t="shared" si="14"/>
         <v>0.83910288687479018</v>
       </c>
-      <c r="E25" s="193">
+      <c r="E25" s="167">
         <v>7999</v>
       </c>
-      <c r="F25" s="177">
+      <c r="F25" s="151">
         <f t="shared" si="15"/>
         <v>0.54765914910515001</v>
       </c>
-      <c r="G25" s="193">
+      <c r="G25" s="167">
         <v>7999</v>
       </c>
-      <c r="H25" s="177">
+      <c r="H25" s="151">
         <f t="shared" si="16"/>
         <v>0.46653913002904568</v>
       </c>
-      <c r="I25" s="193">
+      <c r="I25" s="167">
         <v>7999</v>
       </c>
-      <c r="J25" s="177">
+      <c r="J25" s="151">
         <f t="shared" si="17"/>
         <v>0.34769492910483446</v>
       </c>
-      <c r="K25" s="193">
+      <c r="K25" s="167">
         <v>7999</v>
       </c>
-      <c r="L25" s="177">
+      <c r="L25" s="151">
         <f t="shared" si="18"/>
         <v>0.55879620250511708</v>
       </c>
-      <c r="M25" s="193">
+      <c r="M25" s="167">
         <v>7999</v>
       </c>
-      <c r="N25" s="177">
+      <c r="N25" s="151">
         <f t="shared" si="19"/>
         <v>0.33461198980979112</v>
       </c>
-      <c r="O25" s="193">
+      <c r="O25" s="167">
         <v>7999</v>
       </c>
-      <c r="P25" s="177">
+      <c r="P25" s="151">
         <f t="shared" si="20"/>
         <v>0.23505523019191721</v>
       </c>
-      <c r="Q25" s="193">
+      <c r="Q25" s="167">
         <v>7999</v>
       </c>
-      <c r="R25" s="177">
+      <c r="R25" s="151">
         <f t="shared" si="21"/>
         <v>0.16819710118110154</v>
       </c>
-      <c r="S25" s="193">
+      <c r="S25" s="167">
         <v>7999</v>
       </c>
-      <c r="T25" s="177">
+      <c r="T25" s="151">
         <f t="shared" si="22"/>
         <v>0.35148388684319221</v>
       </c>
-      <c r="U25" s="193">
+      <c r="U25" s="167">
         <v>7999</v>
       </c>
-      <c r="V25" s="177">
+      <c r="V25" s="151">
         <f t="shared" si="23"/>
         <v>0.21168207728420282</v>
       </c>
-      <c r="W25" s="193">
+      <c r="W25" s="167">
         <v>7999</v>
       </c>
-      <c r="X25" s="177">
+      <c r="X25" s="151">
         <f t="shared" ref="X25:X33" si="27">IF(W$13=0,"-",(W25*100)/W$13)</f>
         <v>0.21168207728420282</v>
       </c>
-      <c r="Y25" s="193">
+      <c r="Y25" s="167">
         <v>7999</v>
       </c>
-      <c r="Z25" s="177">
+      <c r="Z25" s="151">
         <f t="shared" si="24"/>
         <v>0.15150941180481634</v>
       </c>
-      <c r="AA25" s="193">
+      <c r="AA25" s="167">
         <f>SUM(C25,E25,G25,I25,K25,M25,O25,Q25,S25,U25,W25,Y25)</f>
         <v>95988</v>
       </c>
-      <c r="AB25" s="177">
+      <c r="AB25" s="151">
         <f t="shared" si="25"/>
         <v>0.28633800102736601</v>
       </c>
-      <c r="AC25" s="151"/>
-      <c r="AD25" s="172"/>
+      <c r="AC25" s="130"/>
+      <c r="AD25" s="146"/>
     </row>
     <row r="26" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A26" s="192" t="s">
+      <c r="A26" s="166" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="179"/>
-      <c r="C26" s="193"/>
-      <c r="D26" s="177">
+      <c r="B26" s="153"/>
+      <c r="C26" s="167"/>
+      <c r="D26" s="151">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="E26" s="193"/>
-      <c r="F26" s="177">
+      <c r="E26" s="167"/>
+      <c r="F26" s="151">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="G26" s="193"/>
-      <c r="H26" s="177">
+      <c r="G26" s="167"/>
+      <c r="H26" s="151">
         <f>IF(G$13=0,"-",(G26*100)/G$13)</f>
         <v>0</v>
       </c>
-      <c r="I26" s="193"/>
-      <c r="J26" s="177">
+      <c r="I26" s="167"/>
+      <c r="J26" s="151">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="K26" s="193"/>
-      <c r="L26" s="177">
+      <c r="K26" s="167"/>
+      <c r="L26" s="151">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="M26" s="193"/>
-      <c r="N26" s="177">
+      <c r="M26" s="167"/>
+      <c r="N26" s="151">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="O26" s="193"/>
-      <c r="P26" s="177">
+      <c r="O26" s="167"/>
+      <c r="P26" s="151">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="Q26" s="193"/>
-      <c r="R26" s="177">
+      <c r="Q26" s="167"/>
+      <c r="R26" s="151">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="S26" s="193"/>
-      <c r="T26" s="177">
+      <c r="S26" s="167"/>
+      <c r="T26" s="151">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="U26" s="193"/>
-      <c r="V26" s="177">
+      <c r="U26" s="167"/>
+      <c r="V26" s="151">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="W26" s="193"/>
-      <c r="X26" s="177">
+      <c r="W26" s="167"/>
+      <c r="X26" s="151">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="Y26" s="193"/>
-      <c r="Z26" s="177">
+      <c r="Y26" s="167"/>
+      <c r="Z26" s="151">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AA26" s="193">
+      <c r="AA26" s="167">
         <f>SUM(C26,E26,G26,I26,K26,M26,O26,Q26,S26,U26,W26,Y26)</f>
         <v>0</v>
       </c>
-      <c r="AB26" s="177">
+      <c r="AB26" s="151">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="AC26" s="151"/>
-      <c r="AD26" s="172"/>
+      <c r="AC26" s="130"/>
+      <c r="AD26" s="146"/>
     </row>
     <row r="27" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A27" s="172" t="s">
+      <c r="A27" s="146" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="179"/>
-      <c r="C27" s="172">
+      <c r="B27" s="153"/>
+      <c r="C27" s="146">
         <v>6007.35</v>
       </c>
-      <c r="D27" s="177">
+      <c r="D27" s="151">
         <f t="shared" si="14"/>
         <v>0.63017686304128906</v>
       </c>
-      <c r="E27" s="172">
+      <c r="E27" s="146">
         <v>6007.35</v>
       </c>
-      <c r="F27" s="177">
+      <c r="F27" s="151">
         <f t="shared" si="15"/>
         <v>0.41129893603910778</v>
       </c>
-      <c r="G27" s="172">
+      <c r="G27" s="146">
         <v>6007.35</v>
       </c>
-      <c r="H27" s="177">
+      <c r="H27" s="151">
         <f t="shared" ref="H27:H31" si="28">IF(G$13=0,"-",(G27*100)/G$13)</f>
         <v>0.35037677744467904</v>
       </c>
-      <c r="I27" s="172">
+      <c r="I27" s="146">
         <v>6007.35</v>
       </c>
-      <c r="J27" s="177">
+      <c r="J27" s="151">
         <f t="shared" si="17"/>
         <v>0.26112328195498524</v>
       </c>
-      <c r="K27" s="172">
+      <c r="K27" s="146">
         <v>6007.35</v>
       </c>
-      <c r="L27" s="177">
+      <c r="L27" s="151">
         <f t="shared" si="18"/>
         <v>0.41966300376536009</v>
       </c>
-      <c r="M27" s="172">
+      <c r="M27" s="146">
         <v>6007.35</v>
       </c>
-      <c r="N27" s="177">
+      <c r="N27" s="151">
         <f t="shared" si="19"/>
         <v>0.25129782935165007</v>
       </c>
-      <c r="O27" s="172">
+      <c r="O27" s="146">
         <v>6007.35</v>
       </c>
-      <c r="P27" s="177">
+      <c r="P27" s="151">
         <f t="shared" si="20"/>
         <v>0.1765294458174039</v>
       </c>
-      <c r="Q27" s="172">
+      <c r="Q27" s="146">
         <v>6007.35</v>
       </c>
-      <c r="R27" s="177">
+      <c r="R27" s="151">
         <f t="shared" si="21"/>
         <v>0.12631814674087891</v>
       </c>
-      <c r="S27" s="172">
+      <c r="S27" s="146">
         <v>6007.35</v>
       </c>
-      <c r="T27" s="177">
+      <c r="T27" s="151">
         <f t="shared" si="22"/>
         <v>0.26396883705806362</v>
       </c>
-      <c r="U27" s="172">
+      <c r="U27" s="146">
         <v>6007.35</v>
       </c>
-      <c r="V27" s="177">
+      <c r="V27" s="151">
         <f t="shared" si="23"/>
         <v>0.1589759128607646</v>
       </c>
-      <c r="W27" s="172">
+      <c r="W27" s="146">
         <v>6007.35</v>
       </c>
-      <c r="X27" s="177">
+      <c r="X27" s="151">
         <f t="shared" si="27"/>
         <v>0.1589759128607646</v>
       </c>
-      <c r="Y27" s="172">
+      <c r="Y27" s="146">
         <v>6007.35</v>
       </c>
-      <c r="Z27" s="177">
+      <c r="Z27" s="151">
         <f t="shared" si="24"/>
         <v>0.11378548131087178</v>
       </c>
-      <c r="AA27" s="193">
+      <c r="AA27" s="167">
         <f>SUM(C27,E27,G27,I27,K27,M27,O27,Q27,S27,U27,W27,Y27)</f>
         <v>72088.2</v>
       </c>
-      <c r="AB27" s="177">
+      <c r="AB27" s="151">
         <f t="shared" si="25"/>
         <v>0.2150434542407485</v>
       </c>
-      <c r="AC27" s="151"/>
-      <c r="AD27" s="172"/>
+      <c r="AC27" s="130"/>
+      <c r="AD27" s="146"/>
     </row>
     <row r="28" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A28" s="192" t="s">
+      <c r="A28" s="166" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="179"/>
-      <c r="C28" s="193">
+      <c r="B28" s="153"/>
+      <c r="C28" s="167">
         <v>1000</v>
       </c>
-      <c r="D28" s="177">
+      <c r="D28" s="151">
         <f t="shared" si="14"/>
         <v>0.1049009734810339</v>
       </c>
-      <c r="E28" s="193">
+      <c r="E28" s="167">
         <v>1000</v>
       </c>
-      <c r="F28" s="177">
+      <c r="F28" s="151">
         <f t="shared" si="15"/>
         <v>6.846595188212902E-2</v>
       </c>
-      <c r="G28" s="193">
+      <c r="G28" s="167">
         <v>1000</v>
       </c>
-      <c r="H28" s="177">
+      <c r="H28" s="151">
         <f t="shared" si="28"/>
         <v>5.8324681838860568E-2</v>
       </c>
-      <c r="I28" s="193">
+      <c r="I28" s="167">
         <v>1000</v>
       </c>
-      <c r="J28" s="177">
+      <c r="J28" s="151">
         <f t="shared" si="17"/>
         <v>4.3467299550548122E-2</v>
       </c>
-      <c r="K28" s="193">
+      <c r="K28" s="167">
         <v>1000</v>
       </c>
-      <c r="L28" s="177">
+      <c r="L28" s="151">
         <f t="shared" si="18"/>
         <v>6.9858257595339063E-2</v>
       </c>
-      <c r="M28" s="193">
+      <c r="M28" s="167">
         <v>1000</v>
       </c>
-      <c r="N28" s="177">
+      <c r="N28" s="151">
         <f t="shared" si="19"/>
         <v>4.1831727692185412E-2</v>
       </c>
-      <c r="O28" s="193">
+      <c r="O28" s="167">
         <v>1000</v>
       </c>
-      <c r="P28" s="177">
+      <c r="P28" s="151">
         <f t="shared" si="20"/>
         <v>2.9385576971111039E-2</v>
       </c>
-      <c r="Q28" s="193">
+      <c r="Q28" s="167">
         <v>1000</v>
       </c>
-      <c r="R28" s="177">
+      <c r="R28" s="151">
         <f t="shared" si="21"/>
         <v>2.1027266055894677E-2</v>
       </c>
-      <c r="S28" s="193">
+      <c r="S28" s="167">
         <v>1000</v>
       </c>
-      <c r="T28" s="177">
+      <c r="T28" s="151">
         <f t="shared" si="22"/>
         <v>4.3940978477708739E-2</v>
       </c>
-      <c r="U28" s="193">
+      <c r="U28" s="167">
         <v>1000</v>
       </c>
-      <c r="V28" s="177">
+      <c r="V28" s="151">
         <f t="shared" si="23"/>
         <v>2.6463567606476165E-2</v>
       </c>
-      <c r="W28" s="193">
+      <c r="W28" s="167">
         <v>1000</v>
       </c>
-      <c r="X28" s="177">
+      <c r="X28" s="151">
         <f t="shared" si="27"/>
         <v>2.6463567606476165E-2</v>
       </c>
-      <c r="Y28" s="193">
+      <c r="Y28" s="167">
         <v>1000</v>
       </c>
-      <c r="Z28" s="177">
+      <c r="Z28" s="151">
         <f>IF(Y$13=0,"-",(Y28*100)/Y$13)</f>
         <v>1.8941044106115305E-2</v>
       </c>
-      <c r="AA28" s="193">
+      <c r="AA28" s="167">
         <f>SUM(C28,E28,G28,I28,K28,M28,O28,Q28,S28,U28,W28,Y28)</f>
         <v>12000</v>
       </c>
-      <c r="AB28" s="177">
+      <c r="AB28" s="151">
         <f t="shared" si="25"/>
         <v>3.5796724719010624E-2</v>
       </c>
-      <c r="AC28" s="151"/>
-      <c r="AD28" s="172"/>
+      <c r="AC28" s="130"/>
+      <c r="AD28" s="146"/>
     </row>
     <row r="29" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A29" s="192" t="s">
+      <c r="A29" s="166" t="s">
         <v>23</v>
       </c>
-      <c r="B29" s="179"/>
-      <c r="C29" s="193">
+      <c r="B29" s="153"/>
+      <c r="C29" s="167">
         <v>1299</v>
       </c>
-      <c r="D29" s="177">
+      <c r="D29" s="151">
         <f t="shared" si="14"/>
         <v>0.13626636455186303</v>
       </c>
-      <c r="E29" s="193">
+      <c r="E29" s="167">
         <v>1299</v>
       </c>
-      <c r="F29" s="177">
+      <c r="F29" s="151">
         <f t="shared" si="15"/>
         <v>8.8937271494885589E-2</v>
       </c>
-      <c r="G29" s="193">
+      <c r="G29" s="167">
         <v>1299</v>
       </c>
-      <c r="H29" s="177">
+      <c r="H29" s="151">
         <f t="shared" si="28"/>
         <v>7.5763761708679878E-2</v>
       </c>
-      <c r="I29" s="193">
+      <c r="I29" s="167">
         <v>1299</v>
       </c>
-      <c r="J29" s="177">
+      <c r="J29" s="151">
         <f t="shared" si="17"/>
         <v>5.6464022116162013E-2</v>
       </c>
-      <c r="K29" s="193">
+      <c r="K29" s="167">
         <v>1299</v>
       </c>
-      <c r="L29" s="177">
+      <c r="L29" s="151">
         <f t="shared" si="18"/>
         <v>9.0745876616345436E-2</v>
       </c>
-      <c r="M29" s="193">
+      <c r="M29" s="167">
         <v>1299</v>
       </c>
-      <c r="N29" s="177">
+      <c r="N29" s="151">
         <f t="shared" si="19"/>
         <v>5.4339414272148855E-2</v>
       </c>
-      <c r="O29" s="193">
+      <c r="O29" s="167">
         <v>1299</v>
       </c>
-      <c r="P29" s="177">
+      <c r="P29" s="151">
         <f t="shared" si="20"/>
         <v>3.8171864485473238E-2</v>
       </c>
-      <c r="Q29" s="193">
+      <c r="Q29" s="167">
         <v>1299</v>
       </c>
-      <c r="R29" s="177">
+      <c r="R29" s="151">
         <f t="shared" si="21"/>
         <v>2.7314418606607188E-2</v>
       </c>
-      <c r="S29" s="193">
+      <c r="S29" s="167">
         <v>1299</v>
       </c>
-      <c r="T29" s="177">
+      <c r="T29" s="151">
         <f t="shared" si="22"/>
         <v>5.7079331042543653E-2</v>
       </c>
-      <c r="U29" s="193">
+      <c r="U29" s="167">
         <v>1299</v>
       </c>
-      <c r="V29" s="177">
+      <c r="V29" s="151">
         <f t="shared" si="23"/>
         <v>3.4376174320812539E-2</v>
       </c>
-      <c r="W29" s="193">
+      <c r="W29" s="167">
         <v>1299</v>
       </c>
-      <c r="X29" s="177">
+      <c r="X29" s="151">
         <f t="shared" si="27"/>
         <v>3.4376174320812539E-2</v>
       </c>
-      <c r="Y29" s="193">
+      <c r="Y29" s="167">
         <v>1299</v>
       </c>
-      <c r="Z29" s="177">
+      <c r="Z29" s="151">
         <f t="shared" si="24"/>
         <v>2.4604416293843783E-2</v>
       </c>
-      <c r="AA29" s="193">
+      <c r="AA29" s="167">
         <f>SUM(C29,E29,G29,I29,K29,M29,O29,Q29,S29,U29,W29,Y29)</f>
         <v>15588</v>
       </c>
-      <c r="AB29" s="177">
+      <c r="AB29" s="151">
         <f t="shared" si="25"/>
         <v>4.6499945409994803E-2</v>
       </c>
-      <c r="AC29" s="151"/>
-      <c r="AD29" s="172"/>
+      <c r="AC29" s="130"/>
+      <c r="AD29" s="146"/>
     </row>
     <row r="30" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A30" s="192" t="s">
+      <c r="A30" s="166" t="s">
         <v>27</v>
       </c>
-      <c r="B30" s="179"/>
-      <c r="C30" s="193">
+      <c r="B30" s="153"/>
+      <c r="C30" s="167">
         <v>3500</v>
       </c>
-      <c r="D30" s="177">
+      <c r="D30" s="151">
         <f t="shared" si="14"/>
         <v>0.36715340718361866</v>
       </c>
-      <c r="E30" s="193">
+      <c r="E30" s="167">
         <v>3500</v>
       </c>
-      <c r="F30" s="177">
+      <c r="F30" s="151">
         <f t="shared" si="15"/>
         <v>0.23963083158745155</v>
       </c>
-      <c r="G30" s="193">
+      <c r="G30" s="167">
         <v>3500</v>
       </c>
-      <c r="H30" s="177">
+      <c r="H30" s="151">
         <f t="shared" si="28"/>
         <v>0.20413638643601198</v>
       </c>
-      <c r="I30" s="193">
+      <c r="I30" s="167">
         <v>3500</v>
       </c>
-      <c r="J30" s="177">
+      <c r="J30" s="151">
         <f t="shared" si="17"/>
         <v>0.15213554842691843</v>
       </c>
-      <c r="K30" s="193">
+      <c r="K30" s="167">
         <v>3500</v>
       </c>
-      <c r="L30" s="177">
+      <c r="L30" s="151">
         <f t="shared" si="18"/>
         <v>0.24450390158368671</v>
       </c>
-      <c r="M30" s="193">
+      <c r="M30" s="167">
         <v>3500</v>
       </c>
-      <c r="N30" s="177">
+      <c r="N30" s="151">
         <f t="shared" si="19"/>
         <v>0.14641104692264895</v>
       </c>
-      <c r="O30" s="193">
+      <c r="O30" s="167">
         <v>3500</v>
       </c>
-      <c r="P30" s="177">
+      <c r="P30" s="151">
         <f t="shared" si="20"/>
         <v>0.10284951939888863</v>
       </c>
-      <c r="Q30" s="193">
+      <c r="Q30" s="167">
         <v>3500</v>
       </c>
-      <c r="R30" s="177">
+      <c r="R30" s="151">
         <f t="shared" si="21"/>
         <v>7.3595431195631375E-2</v>
       </c>
-      <c r="S30" s="193">
+      <c r="S30" s="167">
         <v>3500</v>
       </c>
-      <c r="T30" s="177">
+      <c r="T30" s="151">
         <f t="shared" si="22"/>
         <v>0.15379342467198059</v>
       </c>
-      <c r="U30" s="193">
+      <c r="U30" s="167">
         <v>3500</v>
       </c>
-      <c r="V30" s="177">
+      <c r="V30" s="151">
         <f t="shared" si="23"/>
         <v>9.2622486622666575E-2</v>
       </c>
-      <c r="W30" s="193">
+      <c r="W30" s="167">
         <v>3500</v>
       </c>
-      <c r="X30" s="177">
+      <c r="X30" s="151">
         <f t="shared" si="27"/>
         <v>9.2622486622666575E-2</v>
       </c>
-      <c r="Y30" s="193">
+      <c r="Y30" s="167">
         <v>3500</v>
       </c>
-      <c r="Z30" s="177">
+      <c r="Z30" s="151">
         <f>IF(Y$13=0,"-",(Y30*100)/Y$13)</f>
         <v>6.6293654371403568E-2</v>
       </c>
-      <c r="AA30" s="193">
+      <c r="AA30" s="167">
         <f t="shared" ref="AA30:AA32" si="29">SUM(C30,E30,G30,I30,K30,M30,O30,Q30,S30,U30,W30,Y30)</f>
         <v>42000</v>
       </c>
-      <c r="AB30" s="177">
+      <c r="AB30" s="151">
         <f t="shared" si="25"/>
         <v>0.12528853651653718</v>
       </c>
-      <c r="AC30" s="151"/>
-      <c r="AD30" s="172"/>
+      <c r="AC30" s="130"/>
+      <c r="AD30" s="146"/>
     </row>
     <row r="31" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A31" s="192" t="s">
+      <c r="A31" s="166" t="s">
         <v>25</v>
       </c>
-      <c r="B31" s="179"/>
-      <c r="C31" s="193">
+      <c r="B31" s="153"/>
+      <c r="C31" s="167">
         <v>2000</v>
       </c>
-      <c r="D31" s="177">
+      <c r="D31" s="151">
         <f t="shared" si="14"/>
         <v>0.2098019469620678</v>
       </c>
-      <c r="E31" s="193">
+      <c r="E31" s="167">
         <v>2000</v>
       </c>
-      <c r="F31" s="177">
+      <c r="F31" s="151">
         <f t="shared" si="15"/>
         <v>0.13693190376425804</v>
       </c>
-      <c r="G31" s="193">
+      <c r="G31" s="167">
         <v>2000</v>
       </c>
-      <c r="H31" s="177">
+      <c r="H31" s="151">
         <f t="shared" si="28"/>
         <v>0.11664936367772114</v>
       </c>
-      <c r="I31" s="193">
+      <c r="I31" s="167">
         <v>2000</v>
       </c>
-      <c r="J31" s="177">
+      <c r="J31" s="151">
         <f t="shared" si="17"/>
         <v>8.6934599101096244E-2</v>
       </c>
-      <c r="K31" s="193">
+      <c r="K31" s="167">
         <v>2000</v>
       </c>
-      <c r="L31" s="177">
+      <c r="L31" s="151">
         <f t="shared" si="18"/>
         <v>0.13971651519067813</v>
       </c>
-      <c r="M31" s="193">
+      <c r="M31" s="167">
         <v>2000</v>
       </c>
-      <c r="N31" s="177">
+      <c r="N31" s="151">
         <f t="shared" si="19"/>
         <v>8.3663455384370825E-2</v>
       </c>
-      <c r="O31" s="193">
+      <c r="O31" s="167">
         <v>2000</v>
       </c>
-      <c r="P31" s="177">
+      <c r="P31" s="151">
         <f t="shared" si="20"/>
         <v>5.8771153942222078E-2</v>
       </c>
-      <c r="Q31" s="193">
+      <c r="Q31" s="167">
         <v>2000</v>
       </c>
-      <c r="R31" s="177">
+      <c r="R31" s="151">
         <f t="shared" si="21"/>
         <v>4.2054532111789354E-2</v>
       </c>
-      <c r="S31" s="193">
+      <c r="S31" s="167">
         <v>2000</v>
       </c>
-      <c r="T31" s="177">
+      <c r="T31" s="151">
         <f t="shared" si="22"/>
         <v>8.7881956955417478E-2</v>
       </c>
-      <c r="U31" s="193">
+      <c r="U31" s="167">
         <v>2000</v>
       </c>
-      <c r="V31" s="177"/>
-      <c r="W31" s="193">
+      <c r="V31" s="151"/>
+      <c r="W31" s="167">
         <v>2000</v>
       </c>
-      <c r="X31" s="177"/>
-      <c r="Y31" s="193">
+      <c r="X31" s="151"/>
+      <c r="Y31" s="167">
         <v>2000</v>
       </c>
-      <c r="Z31" s="177">
+      <c r="Z31" s="151">
         <f>IF(Y$13=0,"-",(Y31*100)/Y$13)</f>
         <v>3.7882088212230609E-2</v>
       </c>
-      <c r="AA31" s="193">
+      <c r="AA31" s="167">
         <f t="shared" si="29"/>
         <v>24000</v>
       </c>
-      <c r="AB31" s="177">
+      <c r="AB31" s="151">
         <f t="shared" si="25"/>
         <v>7.1593449438021248E-2</v>
       </c>
-      <c r="AC31" s="151"/>
-      <c r="AD31" s="172"/>
+      <c r="AC31" s="130"/>
+      <c r="AD31" s="146"/>
     </row>
     <row r="32" spans="1:30" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A32" s="192" t="s">
+      <c r="A32" s="166" t="s">
         <v>15</v>
       </c>
-      <c r="B32" s="179"/>
-      <c r="C32" s="193">
-        <v>0</v>
-      </c>
-      <c r="D32" s="177">
+      <c r="B32" s="153"/>
+      <c r="C32" s="167">
+        <v>0</v>
+      </c>
+      <c r="D32" s="151">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="E32" s="193">
-        <v>0</v>
-      </c>
-      <c r="F32" s="177">
+      <c r="E32" s="167">
+        <v>0</v>
+      </c>
+      <c r="F32" s="151">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="G32" s="193">
+      <c r="G32" s="167">
         <v>5000</v>
       </c>
-      <c r="H32" s="177">
+      <c r="H32" s="151">
         <f t="shared" si="16"/>
         <v>0.29162340919430285</v>
       </c>
-      <c r="I32" s="193">
-        <v>0</v>
-      </c>
-      <c r="J32" s="177">
+      <c r="I32" s="167">
+        <v>0</v>
+      </c>
+      <c r="J32" s="151">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="K32" s="193">
-        <v>0</v>
-      </c>
-      <c r="L32" s="177">
+      <c r="K32" s="167">
+        <v>0</v>
+      </c>
+      <c r="L32" s="151">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="M32" s="193">
+      <c r="M32" s="167">
         <v>5000</v>
       </c>
-      <c r="N32" s="177">
+      <c r="N32" s="151">
         <f t="shared" si="19"/>
         <v>0.20915863846092708</v>
       </c>
-      <c r="O32" s="193">
-        <v>0</v>
-      </c>
-      <c r="P32" s="177">
+      <c r="O32" s="167">
+        <v>0</v>
+      </c>
+      <c r="P32" s="151">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="Q32" s="193">
-        <v>0</v>
-      </c>
-      <c r="R32" s="177">
+      <c r="Q32" s="167">
+        <v>0</v>
+      </c>
+      <c r="R32" s="151">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="S32" s="193">
+      <c r="S32" s="167">
         <v>5000</v>
       </c>
-      <c r="T32" s="177">
+      <c r="T32" s="151">
         <f t="shared" si="22"/>
         <v>0.21970489238854371</v>
       </c>
-      <c r="U32" s="193">
-        <v>0</v>
-      </c>
-      <c r="V32" s="177">
+      <c r="U32" s="167">
+        <v>0</v>
+      </c>
+      <c r="V32" s="151">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="W32" s="193">
-        <v>0</v>
-      </c>
-      <c r="X32" s="177">
+      <c r="W32" s="167">
+        <v>0</v>
+      </c>
+      <c r="X32" s="151">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="Y32" s="193">
+      <c r="Y32" s="167">
         <v>5000</v>
       </c>
-      <c r="Z32" s="177">
+      <c r="Z32" s="151">
         <f t="shared" si="24"/>
         <v>9.4705220530576534E-2</v>
       </c>
-      <c r="AA32" s="193">
+      <c r="AA32" s="167">
         <f t="shared" si="29"/>
         <v>20000</v>
       </c>
-      <c r="AB32" s="177">
+      <c r="AB32" s="151">
         <f t="shared" si="25"/>
         <v>5.9661207865017711E-2</v>
       </c>
-      <c r="AC32" s="151"/>
-      <c r="AD32" s="172"/>
+      <c r="AC32" s="130"/>
+      <c r="AD32" s="146"/>
     </row>
     <row r="33" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A33" s="180" t="s">
+      <c r="A33" s="154" t="s">
         <v>7</v>
       </c>
-      <c r="B33" s="181"/>
-      <c r="C33" s="182">
+      <c r="B33" s="155"/>
+      <c r="C33" s="156">
         <f>SUM(C22:C32)</f>
         <v>143888.68333333332</v>
       </c>
-      <c r="D33" s="177">
+      <c r="D33" s="151">
         <f t="shared" si="14"/>
         <v>15.094062954570884</v>
       </c>
-      <c r="E33" s="182">
+      <c r="E33" s="156">
         <f>SUM(E22:E32)</f>
         <v>143888.68333333332</v>
       </c>
-      <c r="F33" s="177">
+      <c r="F33" s="151">
         <f t="shared" si="15"/>
         <v>9.8514756694828982</v>
       </c>
-      <c r="G33" s="182">
+      <c r="G33" s="156">
         <f>SUM(G22:G32)</f>
         <v>148888.68333333332</v>
       </c>
-      <c r="H33" s="177">
+      <c r="H33" s="151">
         <f t="shared" si="16"/>
         <v>8.6838850848235278</v>
       </c>
-      <c r="I33" s="182">
+      <c r="I33" s="156">
         <f>SUM(I22:I32)</f>
         <v>143888.68333333332</v>
       </c>
-      <c r="J33" s="177">
+      <c r="J33" s="151">
         <f t="shared" si="17"/>
         <v>6.2544525003839606</v>
       </c>
-      <c r="K33" s="182">
+      <c r="K33" s="156">
         <f>SUM(K22:K32)</f>
         <v>143888.68333333332</v>
       </c>
-      <c r="L33" s="177">
+      <c r="L33" s="151">
         <f t="shared" si="18"/>
         <v>10.05181270535417</v>
       </c>
-      <c r="M33" s="182">
+      <c r="M33" s="156">
         <f>SUM(M22:M32)</f>
         <v>176388.68333333332</v>
       </c>
-      <c r="N33" s="177">
+      <c r="N33" s="151">
         <f t="shared" si="19"/>
         <v>7.3786433691831235</v>
       </c>
-      <c r="O33" s="182">
+      <c r="O33" s="156">
         <f>SUM(O22:O32)</f>
         <v>143888.68333333332</v>
       </c>
-      <c r="P33" s="177">
+      <c r="P33" s="151">
         <f t="shared" si="20"/>
         <v>4.2282519793634883</v>
       </c>
-      <c r="Q33" s="182">
+      <c r="Q33" s="156">
         <f>SUM(Q22:Q32)</f>
         <v>143888.68333333332</v>
       </c>
-      <c r="R33" s="177">
+      <c r="R33" s="151">
         <f t="shared" si="21"/>
         <v>3.025585626882378</v>
       </c>
-      <c r="S33" s="182">
+      <c r="S33" s="156">
         <f>SUM(S22:S32)</f>
         <v>148888.68333333332</v>
       </c>
-      <c r="T33" s="177">
+      <c r="T33" s="151">
         <f t="shared" si="22"/>
         <v>6.5423144299243914</v>
       </c>
-      <c r="U33" s="182">
+      <c r="U33" s="156">
         <f>SUM(U22:U32)</f>
         <v>143888.68333333332</v>
       </c>
-      <c r="V33" s="177">
+      <c r="V33" s="151">
         <f t="shared" si="23"/>
         <v>3.8078078991985063</v>
       </c>
-      <c r="W33" s="182">
+      <c r="W33" s="156">
         <f>SUM(W22:W32)</f>
         <v>143888.68333333332</v>
       </c>
-      <c r="X33" s="177">
+      <c r="X33" s="151">
         <f t="shared" si="27"/>
         <v>3.8078078991985063</v>
       </c>
-      <c r="Y33" s="182">
+      <c r="Y33" s="156">
         <f>SUM(Y22:Y32)</f>
         <v>148888.68333333332</v>
       </c>
-      <c r="Z33" s="177">
+      <c r="Z33" s="151">
         <f t="shared" si="24"/>
         <v>2.8201071179181012</v>
       </c>
-      <c r="AA33" s="182">
+      <c r="AA33" s="156">
         <f>SUM(AA22:AA32)</f>
         <v>1774164.2</v>
       </c>
-      <c r="AB33" s="177">
+      <c r="AB33" s="151">
         <f t="shared" si="25"/>
         <v>5.2924389561436431</v>
       </c>
-      <c r="AC33" s="172"/>
-      <c r="AD33" s="172"/>
+      <c r="AC33" s="146"/>
+      <c r="AD33" s="146"/>
     </row>
     <row r="34" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A34" s="184"/>
-      <c r="B34" s="169"/>
-      <c r="C34" s="169"/>
-      <c r="D34" s="190"/>
-      <c r="E34" s="169"/>
-      <c r="F34" s="190"/>
-      <c r="G34" s="169"/>
-      <c r="H34" s="190"/>
-      <c r="I34" s="169"/>
-      <c r="J34" s="190"/>
-      <c r="K34" s="169"/>
-      <c r="L34" s="190"/>
-      <c r="M34" s="169"/>
-      <c r="N34" s="190"/>
-      <c r="O34" s="169"/>
-      <c r="P34" s="190"/>
-      <c r="Q34" s="169"/>
-      <c r="R34" s="190"/>
-      <c r="S34" s="169"/>
-      <c r="T34" s="190"/>
-      <c r="U34" s="169"/>
-      <c r="V34" s="190"/>
-      <c r="W34" s="169"/>
-      <c r="X34" s="190"/>
-      <c r="Y34" s="169"/>
-      <c r="Z34" s="190"/>
-      <c r="AA34" s="169"/>
-      <c r="AB34" s="191"/>
-      <c r="AC34" s="172"/>
-      <c r="AD34" s="172"/>
+      <c r="A34" s="158"/>
+      <c r="B34" s="143"/>
+      <c r="C34" s="143"/>
+      <c r="D34" s="164"/>
+      <c r="E34" s="143"/>
+      <c r="F34" s="164"/>
+      <c r="G34" s="143"/>
+      <c r="H34" s="164"/>
+      <c r="I34" s="143"/>
+      <c r="J34" s="164"/>
+      <c r="K34" s="143"/>
+      <c r="L34" s="164"/>
+      <c r="M34" s="143"/>
+      <c r="N34" s="164"/>
+      <c r="O34" s="143"/>
+      <c r="P34" s="164"/>
+      <c r="Q34" s="143"/>
+      <c r="R34" s="164"/>
+      <c r="S34" s="143"/>
+      <c r="T34" s="164"/>
+      <c r="U34" s="143"/>
+      <c r="V34" s="164"/>
+      <c r="W34" s="143"/>
+      <c r="X34" s="164"/>
+      <c r="Y34" s="143"/>
+      <c r="Z34" s="164"/>
+      <c r="AA34" s="143"/>
+      <c r="AB34" s="165"/>
+      <c r="AC34" s="146"/>
+      <c r="AD34" s="146"/>
     </row>
     <row r="35" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A35" s="201" t="s">
+      <c r="A35" s="175" t="s">
         <v>8</v>
       </c>
-      <c r="B35" s="174"/>
-      <c r="C35" s="176">
+      <c r="B35" s="148"/>
+      <c r="C35" s="150">
         <f>C19-C33</f>
         <v>809391.31666666665</v>
       </c>
-      <c r="D35" s="177">
+      <c r="D35" s="151">
         <f>IF(C13=0,"-",(C35*100)/C13)</f>
         <v>84.905937045429127</v>
       </c>
-      <c r="E35" s="176">
+      <c r="E35" s="150">
         <f>E19-E33</f>
         <v>1316691.3166666667</v>
       </c>
-      <c r="F35" s="177">
+      <c r="F35" s="151">
         <f>IF(E13=0,"-",(E35*100)/E13)</f>
         <v>90.148524330517105</v>
       </c>
-      <c r="G35" s="176">
+      <c r="G35" s="150">
         <f>G19-G33</f>
         <v>1565651.3166666667</v>
       </c>
-      <c r="H35" s="177">
+      <c r="H35" s="151">
         <f>IF(G13=0,"-",(G35*100)/G13)</f>
         <v>91.31611491517647</v>
       </c>
-      <c r="I35" s="176">
+      <c r="I35" s="150">
         <f>I19-I33</f>
         <v>2156691.3166666669</v>
       </c>
-      <c r="J35" s="177">
+      <c r="J35" s="151">
         <f>IF(I13=0,"-",(I35*100)/I13)</f>
         <v>93.745547499616052</v>
       </c>
-      <c r="K35" s="176">
+      <c r="K35" s="150">
         <f>K19-K33</f>
         <v>1287581.3166666667</v>
       </c>
-      <c r="L35" s="177">
+      <c r="L35" s="151">
         <f>IF(K13=0,"-",(K35*100)/K13)</f>
         <v>89.948187294645834</v>
       </c>
-      <c r="M35" s="176">
+      <c r="M35" s="150">
         <f>M19-M33</f>
         <v>2214141.3166666669</v>
       </c>
-      <c r="N35" s="177">
+      <c r="N35" s="151">
         <f>IF(M13=0,"-",(M35*100)/M13)</f>
         <v>92.621356630816891</v>
       </c>
-      <c r="O35" s="176">
+      <c r="O35" s="150">
         <f>O19-O33</f>
         <v>3259141.3166666669</v>
       </c>
-      <c r="P35" s="177">
+      <c r="P35" s="151">
         <f>IF(O13=0,"-",(O35*100)/O13)</f>
         <v>95.771748020636522</v>
       </c>
-      <c r="Q35" s="176">
+      <c r="Q35" s="150">
         <f>Q19-Q33</f>
         <v>4611841.3166666664</v>
       </c>
-      <c r="R35" s="177">
+      <c r="R35" s="151">
         <f>IF(Q13=0,"-",(Q35*100)/Q13)</f>
         <v>96.974414373117611</v>
       </c>
-      <c r="S35" s="176">
+      <c r="S35" s="150">
         <f>S19-S33</f>
         <v>2126891.3166666669</v>
       </c>
-      <c r="T35" s="177">
+      <c r="T35" s="151">
         <f>IF(S13=0,"-",(S35*100)/S13)</f>
         <v>93.457685570075611</v>
       </c>
-      <c r="U35" s="176">
+      <c r="U35" s="150">
         <f>U19-U33</f>
         <v>3634891.3166666669</v>
       </c>
-      <c r="V35" s="177">
+      <c r="V35" s="151">
         <f>IF(U13=0,"-",(U35*100)/U13)</f>
         <v>96.192192100801492</v>
       </c>
-      <c r="W35" s="176">
+      <c r="W35" s="150">
         <f>W19-W33</f>
         <v>3634891.3166666669</v>
       </c>
-      <c r="X35" s="177">
+      <c r="X35" s="151">
         <f>IF(W13=0,"-",(W35*100)/W13)</f>
         <v>96.192192100801492</v>
       </c>
-      <c r="Y35" s="176">
+      <c r="Y35" s="150">
         <f>Y19-Y33</f>
         <v>5130651.3166666664</v>
       </c>
-      <c r="Z35" s="177">
+      <c r="Z35" s="151">
         <f>IF(Y13=0,"-",(Y35*100)/Y13)</f>
         <v>97.179892882081887</v>
       </c>
-      <c r="AA35" s="176">
+      <c r="AA35" s="150">
         <f>AA19-AA33</f>
         <v>31748455.800000001</v>
       </c>
-      <c r="AB35" s="177">
+      <c r="AB35" s="151">
         <f>IF(AA13=0,"-",(AA35*100)/AA13)</f>
         <v>94.707561043856359</v>
       </c>
-      <c r="AC35" s="172"/>
-      <c r="AD35" s="172"/>
+      <c r="AC35" s="146"/>
+      <c r="AD35" s="146"/>
     </row>
     <row r="36" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A36" s="202"/>
-      <c r="B36" s="172"/>
-      <c r="C36" s="172"/>
-      <c r="D36" s="203"/>
-      <c r="E36" s="172"/>
-      <c r="F36" s="203"/>
-      <c r="G36" s="172"/>
-      <c r="H36" s="203"/>
-      <c r="I36" s="172"/>
-      <c r="J36" s="203"/>
-      <c r="K36" s="172"/>
-      <c r="L36" s="203"/>
-      <c r="M36" s="172"/>
-      <c r="N36" s="203"/>
-      <c r="O36" s="172"/>
-      <c r="P36" s="203"/>
-      <c r="Q36" s="172"/>
-      <c r="R36" s="203"/>
-      <c r="S36" s="172"/>
-      <c r="T36" s="203"/>
-      <c r="U36" s="172"/>
-      <c r="V36" s="203"/>
-      <c r="W36" s="172"/>
-      <c r="X36" s="203"/>
-      <c r="Y36" s="172"/>
-      <c r="Z36" s="203"/>
-      <c r="AA36" s="172"/>
-      <c r="AB36" s="203"/>
-      <c r="AC36" s="172"/>
-      <c r="AD36" s="172"/>
+      <c r="A36" s="176"/>
+      <c r="B36" s="146"/>
+      <c r="C36" s="146"/>
+      <c r="D36" s="177"/>
+      <c r="E36" s="146"/>
+      <c r="F36" s="177"/>
+      <c r="G36" s="146"/>
+      <c r="H36" s="177"/>
+      <c r="I36" s="146"/>
+      <c r="J36" s="177"/>
+      <c r="K36" s="146"/>
+      <c r="L36" s="177"/>
+      <c r="M36" s="146"/>
+      <c r="N36" s="177"/>
+      <c r="O36" s="146"/>
+      <c r="P36" s="177"/>
+      <c r="Q36" s="146"/>
+      <c r="R36" s="177"/>
+      <c r="S36" s="146"/>
+      <c r="T36" s="177"/>
+      <c r="U36" s="146"/>
+      <c r="V36" s="177"/>
+      <c r="W36" s="146"/>
+      <c r="X36" s="177"/>
+      <c r="Y36" s="146"/>
+      <c r="Z36" s="177"/>
+      <c r="AA36" s="146"/>
+      <c r="AB36" s="177"/>
+      <c r="AC36" s="146"/>
+      <c r="AD36" s="146"/>
     </row>
     <row r="37" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A37" s="204"/>
-      <c r="B37" s="205"/>
-      <c r="C37" s="205"/>
-      <c r="D37" s="206"/>
-      <c r="E37" s="205"/>
-      <c r="F37" s="206"/>
-      <c r="G37" s="205"/>
-      <c r="H37" s="206"/>
-      <c r="I37" s="205"/>
-      <c r="J37" s="206"/>
-      <c r="K37" s="205"/>
-      <c r="L37" s="206"/>
-      <c r="M37" s="205"/>
-      <c r="N37" s="206"/>
-      <c r="O37" s="205"/>
-      <c r="P37" s="206"/>
-      <c r="Q37" s="205"/>
-      <c r="R37" s="206"/>
-      <c r="S37" s="205"/>
-      <c r="T37" s="206"/>
-      <c r="U37" s="205"/>
-      <c r="V37" s="206"/>
-      <c r="W37" s="205"/>
-      <c r="X37" s="206"/>
-      <c r="Y37" s="205"/>
-      <c r="Z37" s="206"/>
-      <c r="AA37" s="205"/>
-      <c r="AB37" s="206"/>
-      <c r="AC37" s="205"/>
-      <c r="AD37" s="205"/>
+      <c r="A37" s="178"/>
+      <c r="B37" s="179"/>
+      <c r="C37" s="179"/>
+      <c r="D37" s="180"/>
+      <c r="E37" s="179"/>
+      <c r="F37" s="180"/>
+      <c r="G37" s="179"/>
+      <c r="H37" s="180"/>
+      <c r="I37" s="179"/>
+      <c r="J37" s="180"/>
+      <c r="K37" s="179"/>
+      <c r="L37" s="180"/>
+      <c r="M37" s="179"/>
+      <c r="N37" s="180"/>
+      <c r="O37" s="179"/>
+      <c r="P37" s="180"/>
+      <c r="Q37" s="179"/>
+      <c r="R37" s="180"/>
+      <c r="S37" s="179"/>
+      <c r="T37" s="180"/>
+      <c r="U37" s="179"/>
+      <c r="V37" s="180"/>
+      <c r="W37" s="179"/>
+      <c r="X37" s="180"/>
+      <c r="Y37" s="179"/>
+      <c r="Z37" s="180"/>
+      <c r="AA37" s="179"/>
+      <c r="AB37" s="180"/>
+      <c r="AC37" s="179"/>
+      <c r="AD37" s="179"/>
     </row>
     <row r="38" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A38" s="205"/>
-      <c r="B38" s="205"/>
-      <c r="C38" s="205"/>
-      <c r="D38" s="206"/>
-      <c r="E38" s="205"/>
-      <c r="F38" s="206"/>
-      <c r="G38" s="205"/>
-      <c r="H38" s="206"/>
-      <c r="I38" s="205"/>
-      <c r="J38" s="206"/>
-      <c r="K38" s="205"/>
-      <c r="L38" s="206"/>
-      <c r="M38" s="205"/>
-      <c r="N38" s="206"/>
-      <c r="O38" s="205"/>
-      <c r="P38" s="206"/>
-      <c r="Q38" s="205"/>
-      <c r="R38" s="206"/>
-      <c r="S38" s="205"/>
-      <c r="T38" s="206"/>
-      <c r="U38" s="205"/>
-      <c r="V38" s="206"/>
-      <c r="W38" s="205"/>
-      <c r="X38" s="206"/>
-      <c r="Y38" s="205"/>
-      <c r="Z38" s="206"/>
-      <c r="AA38" s="205"/>
-      <c r="AB38" s="206"/>
-      <c r="AC38" s="205"/>
-      <c r="AD38" s="205"/>
+      <c r="A38" s="179"/>
+      <c r="B38" s="179"/>
+      <c r="C38" s="179"/>
+      <c r="D38" s="180"/>
+      <c r="E38" s="179"/>
+      <c r="F38" s="180"/>
+      <c r="G38" s="179"/>
+      <c r="H38" s="180"/>
+      <c r="I38" s="179"/>
+      <c r="J38" s="180"/>
+      <c r="K38" s="179"/>
+      <c r="L38" s="180"/>
+      <c r="M38" s="179"/>
+      <c r="N38" s="180"/>
+      <c r="O38" s="179"/>
+      <c r="P38" s="180"/>
+      <c r="Q38" s="179"/>
+      <c r="R38" s="180"/>
+      <c r="S38" s="179"/>
+      <c r="T38" s="180"/>
+      <c r="U38" s="179"/>
+      <c r="V38" s="180"/>
+      <c r="W38" s="179"/>
+      <c r="X38" s="180"/>
+      <c r="Y38" s="179"/>
+      <c r="Z38" s="180"/>
+      <c r="AA38" s="179"/>
+      <c r="AB38" s="180"/>
+      <c r="AC38" s="179"/>
+      <c r="AD38" s="179"/>
     </row>
     <row r="39" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A39" s="204"/>
-      <c r="B39" s="205"/>
-      <c r="C39" s="205"/>
-      <c r="D39" s="206"/>
-      <c r="E39" s="205"/>
-      <c r="F39" s="206"/>
-      <c r="G39" s="205"/>
-      <c r="H39" s="206"/>
-      <c r="I39" s="205"/>
-      <c r="J39" s="206"/>
-      <c r="K39" s="205"/>
-      <c r="L39" s="206"/>
-      <c r="M39" s="205"/>
-      <c r="N39" s="206"/>
-      <c r="O39" s="205"/>
-      <c r="P39" s="206"/>
-      <c r="Q39" s="205"/>
-      <c r="R39" s="206"/>
-      <c r="S39" s="205"/>
-      <c r="T39" s="206"/>
-      <c r="U39" s="205"/>
-      <c r="V39" s="206"/>
-      <c r="W39" s="205"/>
-      <c r="X39" s="206"/>
-      <c r="Y39" s="205"/>
-      <c r="Z39" s="206"/>
-      <c r="AA39" s="205"/>
-      <c r="AB39" s="206"/>
-      <c r="AC39" s="205"/>
-      <c r="AD39" s="205"/>
+      <c r="A39" s="178"/>
+      <c r="B39" s="179"/>
+      <c r="C39" s="179"/>
+      <c r="D39" s="180"/>
+      <c r="E39" s="179"/>
+      <c r="F39" s="180"/>
+      <c r="G39" s="179"/>
+      <c r="H39" s="180"/>
+      <c r="I39" s="179"/>
+      <c r="J39" s="180"/>
+      <c r="K39" s="179"/>
+      <c r="L39" s="180"/>
+      <c r="M39" s="179"/>
+      <c r="N39" s="180"/>
+      <c r="O39" s="179"/>
+      <c r="P39" s="180"/>
+      <c r="Q39" s="179"/>
+      <c r="R39" s="180"/>
+      <c r="S39" s="179"/>
+      <c r="T39" s="180"/>
+      <c r="U39" s="179"/>
+      <c r="V39" s="180"/>
+      <c r="W39" s="179"/>
+      <c r="X39" s="180"/>
+      <c r="Y39" s="179"/>
+      <c r="Z39" s="180"/>
+      <c r="AA39" s="179"/>
+      <c r="AB39" s="180"/>
+      <c r="AC39" s="179"/>
+      <c r="AD39" s="179"/>
     </row>
     <row r="40" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A40" s="204"/>
-      <c r="B40" s="205"/>
-      <c r="C40" s="205"/>
-      <c r="D40" s="206"/>
-      <c r="E40" s="205"/>
-      <c r="F40" s="206"/>
-      <c r="G40" s="205"/>
-      <c r="H40" s="206"/>
-      <c r="I40" s="205"/>
-      <c r="J40" s="206"/>
-      <c r="K40" s="205"/>
-      <c r="L40" s="206"/>
-      <c r="M40" s="205"/>
-      <c r="N40" s="206"/>
-      <c r="O40" s="205"/>
-      <c r="P40" s="206"/>
-      <c r="Q40" s="205"/>
-      <c r="R40" s="206"/>
-      <c r="S40" s="205"/>
-      <c r="T40" s="206"/>
-      <c r="U40" s="205"/>
-      <c r="V40" s="206"/>
-      <c r="W40" s="205"/>
-      <c r="X40" s="206"/>
-      <c r="Y40" s="205"/>
-      <c r="Z40" s="206"/>
-      <c r="AA40" s="205"/>
-      <c r="AB40" s="206"/>
-      <c r="AC40" s="205"/>
-      <c r="AD40" s="205"/>
+      <c r="A40" s="178"/>
+      <c r="B40" s="179"/>
+      <c r="C40" s="179"/>
+      <c r="D40" s="180"/>
+      <c r="E40" s="179"/>
+      <c r="F40" s="180"/>
+      <c r="G40" s="179"/>
+      <c r="H40" s="180"/>
+      <c r="I40" s="179"/>
+      <c r="J40" s="180"/>
+      <c r="K40" s="179"/>
+      <c r="L40" s="180"/>
+      <c r="M40" s="179"/>
+      <c r="N40" s="180"/>
+      <c r="O40" s="179"/>
+      <c r="P40" s="180"/>
+      <c r="Q40" s="179"/>
+      <c r="R40" s="180"/>
+      <c r="S40" s="179"/>
+      <c r="T40" s="180"/>
+      <c r="U40" s="179"/>
+      <c r="V40" s="180"/>
+      <c r="W40" s="179"/>
+      <c r="X40" s="180"/>
+      <c r="Y40" s="179"/>
+      <c r="Z40" s="180"/>
+      <c r="AA40" s="179"/>
+      <c r="AB40" s="180"/>
+      <c r="AC40" s="179"/>
+      <c r="AD40" s="179"/>
     </row>
     <row r="41" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A41" s="204"/>
-      <c r="B41" s="205"/>
-      <c r="C41" s="205"/>
-      <c r="D41" s="206"/>
-      <c r="E41" s="205"/>
-      <c r="F41" s="206"/>
-      <c r="G41" s="205"/>
-      <c r="H41" s="206"/>
-      <c r="I41" s="205"/>
-      <c r="J41" s="206"/>
-      <c r="K41" s="205"/>
-      <c r="L41" s="206"/>
-      <c r="M41" s="205"/>
-      <c r="N41" s="206"/>
-      <c r="O41" s="205"/>
-      <c r="P41" s="206"/>
-      <c r="Q41" s="205"/>
-      <c r="R41" s="206"/>
-      <c r="S41" s="205"/>
-      <c r="T41" s="206"/>
-      <c r="U41" s="205"/>
-      <c r="V41" s="206"/>
-      <c r="W41" s="205"/>
-      <c r="X41" s="206"/>
-      <c r="Y41" s="205"/>
-      <c r="Z41" s="206"/>
-      <c r="AA41" s="205"/>
-      <c r="AB41" s="206"/>
-      <c r="AC41" s="205"/>
-      <c r="AD41" s="205"/>
+      <c r="A41" s="178"/>
+      <c r="B41" s="179"/>
+      <c r="C41" s="179"/>
+      <c r="D41" s="180"/>
+      <c r="E41" s="179"/>
+      <c r="F41" s="180"/>
+      <c r="G41" s="179"/>
+      <c r="H41" s="180"/>
+      <c r="I41" s="179"/>
+      <c r="J41" s="180"/>
+      <c r="K41" s="179"/>
+      <c r="L41" s="180"/>
+      <c r="M41" s="179"/>
+      <c r="N41" s="180"/>
+      <c r="O41" s="179"/>
+      <c r="P41" s="180"/>
+      <c r="Q41" s="179"/>
+      <c r="R41" s="180"/>
+      <c r="S41" s="179"/>
+      <c r="T41" s="180"/>
+      <c r="U41" s="179"/>
+      <c r="V41" s="180"/>
+      <c r="W41" s="179"/>
+      <c r="X41" s="180"/>
+      <c r="Y41" s="179"/>
+      <c r="Z41" s="180"/>
+      <c r="AA41" s="179"/>
+      <c r="AB41" s="180"/>
+      <c r="AC41" s="179"/>
+      <c r="AD41" s="179"/>
     </row>
     <row r="42" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A42" s="204"/>
-      <c r="B42" s="205"/>
-      <c r="C42" s="205"/>
-      <c r="D42" s="206"/>
-      <c r="E42" s="205"/>
-      <c r="F42" s="206"/>
-      <c r="G42" s="205"/>
-      <c r="H42" s="206"/>
-      <c r="I42" s="205"/>
-      <c r="J42" s="206"/>
-      <c r="K42" s="205"/>
-      <c r="L42" s="206"/>
-      <c r="M42" s="205"/>
-      <c r="N42" s="206"/>
-      <c r="O42" s="205"/>
-      <c r="P42" s="206"/>
-      <c r="Q42" s="205"/>
-      <c r="R42" s="206"/>
-      <c r="S42" s="205"/>
-      <c r="T42" s="206"/>
-      <c r="U42" s="205"/>
-      <c r="V42" s="206"/>
-      <c r="W42" s="205"/>
-      <c r="X42" s="206"/>
-      <c r="Y42" s="205"/>
-      <c r="Z42" s="206"/>
-      <c r="AA42" s="205"/>
-      <c r="AB42" s="206"/>
-      <c r="AC42" s="205"/>
-      <c r="AD42" s="205"/>
+      <c r="A42" s="178"/>
+      <c r="B42" s="179"/>
+      <c r="C42" s="179"/>
+      <c r="D42" s="180"/>
+      <c r="E42" s="179"/>
+      <c r="F42" s="180"/>
+      <c r="G42" s="179"/>
+      <c r="H42" s="180"/>
+      <c r="I42" s="179"/>
+      <c r="J42" s="180"/>
+      <c r="K42" s="179"/>
+      <c r="L42" s="180"/>
+      <c r="M42" s="179"/>
+      <c r="N42" s="180"/>
+      <c r="O42" s="179"/>
+      <c r="P42" s="180"/>
+      <c r="Q42" s="179"/>
+      <c r="R42" s="180"/>
+      <c r="S42" s="179"/>
+      <c r="T42" s="180"/>
+      <c r="U42" s="179"/>
+      <c r="V42" s="180"/>
+      <c r="W42" s="179"/>
+      <c r="X42" s="180"/>
+      <c r="Y42" s="179"/>
+      <c r="Z42" s="180"/>
+      <c r="AA42" s="179"/>
+      <c r="AB42" s="180"/>
+      <c r="AC42" s="179"/>
+      <c r="AD42" s="179"/>
     </row>
     <row r="43" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A43" s="204"/>
-      <c r="B43" s="205"/>
-      <c r="C43" s="205"/>
-      <c r="D43" s="206"/>
-      <c r="E43" s="205"/>
-      <c r="F43" s="206"/>
-      <c r="G43" s="205"/>
-      <c r="H43" s="206"/>
-      <c r="I43" s="205"/>
-      <c r="J43" s="206"/>
-      <c r="K43" s="205"/>
-      <c r="L43" s="206"/>
-      <c r="M43" s="205"/>
-      <c r="N43" s="206"/>
-      <c r="O43" s="205"/>
-      <c r="P43" s="206"/>
-      <c r="Q43" s="205"/>
-      <c r="R43" s="206"/>
-      <c r="S43" s="205"/>
-      <c r="T43" s="206"/>
-      <c r="U43" s="205"/>
-      <c r="V43" s="206"/>
-      <c r="W43" s="205"/>
-      <c r="X43" s="206"/>
-      <c r="Y43" s="205"/>
-      <c r="Z43" s="206"/>
-      <c r="AA43" s="205"/>
-      <c r="AB43" s="206"/>
-      <c r="AC43" s="205"/>
-      <c r="AD43" s="205"/>
+      <c r="A43" s="178"/>
+      <c r="B43" s="179"/>
+      <c r="C43" s="179"/>
+      <c r="D43" s="180"/>
+      <c r="E43" s="179"/>
+      <c r="F43" s="180"/>
+      <c r="G43" s="179"/>
+      <c r="H43" s="180"/>
+      <c r="I43" s="179"/>
+      <c r="J43" s="180"/>
+      <c r="K43" s="179"/>
+      <c r="L43" s="180"/>
+      <c r="M43" s="179"/>
+      <c r="N43" s="180"/>
+      <c r="O43" s="179"/>
+      <c r="P43" s="180"/>
+      <c r="Q43" s="179"/>
+      <c r="R43" s="180"/>
+      <c r="S43" s="179"/>
+      <c r="T43" s="180"/>
+      <c r="U43" s="179"/>
+      <c r="V43" s="180"/>
+      <c r="W43" s="179"/>
+      <c r="X43" s="180"/>
+      <c r="Y43" s="179"/>
+      <c r="Z43" s="180"/>
+      <c r="AA43" s="179"/>
+      <c r="AB43" s="180"/>
+      <c r="AC43" s="179"/>
+      <c r="AD43" s="179"/>
     </row>
     <row r="44" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A44" s="204"/>
-      <c r="B44" s="205"/>
-      <c r="C44" s="205"/>
-      <c r="D44" s="206"/>
-      <c r="E44" s="205"/>
-      <c r="F44" s="206"/>
-      <c r="G44" s="205"/>
-      <c r="H44" s="206"/>
-      <c r="I44" s="205"/>
-      <c r="J44" s="206"/>
-      <c r="K44" s="205"/>
-      <c r="L44" s="206"/>
-      <c r="M44" s="205"/>
-      <c r="N44" s="206"/>
-      <c r="O44" s="205"/>
-      <c r="P44" s="206"/>
-      <c r="Q44" s="205"/>
-      <c r="R44" s="206"/>
-      <c r="S44" s="205"/>
-      <c r="T44" s="206"/>
-      <c r="U44" s="205"/>
-      <c r="V44" s="206"/>
-      <c r="W44" s="205"/>
-      <c r="X44" s="206"/>
-      <c r="Y44" s="205"/>
-      <c r="Z44" s="206"/>
-      <c r="AA44" s="205"/>
-      <c r="AB44" s="206"/>
-      <c r="AC44" s="205"/>
-      <c r="AD44" s="205"/>
+      <c r="A44" s="178"/>
+      <c r="B44" s="179"/>
+      <c r="C44" s="179"/>
+      <c r="D44" s="180"/>
+      <c r="E44" s="179"/>
+      <c r="F44" s="180"/>
+      <c r="G44" s="179"/>
+      <c r="H44" s="180"/>
+      <c r="I44" s="179"/>
+      <c r="J44" s="180"/>
+      <c r="K44" s="179"/>
+      <c r="L44" s="180"/>
+      <c r="M44" s="179"/>
+      <c r="N44" s="180"/>
+      <c r="O44" s="179"/>
+      <c r="P44" s="180"/>
+      <c r="Q44" s="179"/>
+      <c r="R44" s="180"/>
+      <c r="S44" s="179"/>
+      <c r="T44" s="180"/>
+      <c r="U44" s="179"/>
+      <c r="V44" s="180"/>
+      <c r="W44" s="179"/>
+      <c r="X44" s="180"/>
+      <c r="Y44" s="179"/>
+      <c r="Z44" s="180"/>
+      <c r="AA44" s="179"/>
+      <c r="AB44" s="180"/>
+      <c r="AC44" s="179"/>
+      <c r="AD44" s="179"/>
     </row>
     <row r="45" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A45" s="204"/>
-      <c r="B45" s="205"/>
-      <c r="C45" s="205"/>
-      <c r="D45" s="206"/>
-      <c r="E45" s="205"/>
-      <c r="F45" s="206"/>
-      <c r="G45" s="205"/>
-      <c r="H45" s="206"/>
-      <c r="I45" s="205"/>
-      <c r="J45" s="206"/>
-      <c r="K45" s="205"/>
-      <c r="L45" s="206"/>
-      <c r="M45" s="205"/>
-      <c r="N45" s="206"/>
-      <c r="O45" s="205"/>
-      <c r="P45" s="206"/>
-      <c r="Q45" s="205"/>
-      <c r="R45" s="206"/>
-      <c r="S45" s="205"/>
-      <c r="T45" s="206"/>
-      <c r="U45" s="205"/>
-      <c r="V45" s="206"/>
-      <c r="W45" s="205"/>
-      <c r="X45" s="206"/>
-      <c r="Y45" s="205"/>
-      <c r="Z45" s="206"/>
-      <c r="AA45" s="205"/>
-      <c r="AB45" s="206"/>
-      <c r="AC45" s="205"/>
-      <c r="AD45" s="205"/>
+      <c r="A45" s="178"/>
+      <c r="B45" s="179"/>
+      <c r="C45" s="179"/>
+      <c r="D45" s="180"/>
+      <c r="E45" s="179"/>
+      <c r="F45" s="180"/>
+      <c r="G45" s="179"/>
+      <c r="H45" s="180"/>
+      <c r="I45" s="179"/>
+      <c r="J45" s="180"/>
+      <c r="K45" s="179"/>
+      <c r="L45" s="180"/>
+      <c r="M45" s="179"/>
+      <c r="N45" s="180"/>
+      <c r="O45" s="179"/>
+      <c r="P45" s="180"/>
+      <c r="Q45" s="179"/>
+      <c r="R45" s="180"/>
+      <c r="S45" s="179"/>
+      <c r="T45" s="180"/>
+      <c r="U45" s="179"/>
+      <c r="V45" s="180"/>
+      <c r="W45" s="179"/>
+      <c r="X45" s="180"/>
+      <c r="Y45" s="179"/>
+      <c r="Z45" s="180"/>
+      <c r="AA45" s="179"/>
+      <c r="AB45" s="180"/>
+      <c r="AC45" s="179"/>
+      <c r="AD45" s="179"/>
     </row>
     <row r="46" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A46" s="204"/>
-      <c r="B46" s="205"/>
-      <c r="C46" s="205"/>
-      <c r="D46" s="206"/>
-      <c r="E46" s="205"/>
-      <c r="F46" s="206"/>
-      <c r="G46" s="205"/>
-      <c r="H46" s="206"/>
-      <c r="I46" s="205"/>
-      <c r="J46" s="206"/>
-      <c r="K46" s="205"/>
-      <c r="L46" s="206"/>
-      <c r="M46" s="205"/>
-      <c r="N46" s="206"/>
-      <c r="O46" s="205"/>
-      <c r="P46" s="206"/>
-      <c r="Q46" s="205"/>
-      <c r="R46" s="206"/>
-      <c r="S46" s="205"/>
-      <c r="T46" s="206"/>
-      <c r="U46" s="205"/>
-      <c r="V46" s="206"/>
-      <c r="W46" s="205"/>
-      <c r="X46" s="206"/>
-      <c r="Y46" s="205"/>
-      <c r="Z46" s="206"/>
-      <c r="AA46" s="205"/>
-      <c r="AB46" s="206"/>
-      <c r="AC46" s="205"/>
-      <c r="AD46" s="205"/>
+      <c r="A46" s="178"/>
+      <c r="B46" s="179"/>
+      <c r="C46" s="179"/>
+      <c r="D46" s="180"/>
+      <c r="E46" s="179"/>
+      <c r="F46" s="180"/>
+      <c r="G46" s="179"/>
+      <c r="H46" s="180"/>
+      <c r="I46" s="179"/>
+      <c r="J46" s="180"/>
+      <c r="K46" s="179"/>
+      <c r="L46" s="180"/>
+      <c r="M46" s="179"/>
+      <c r="N46" s="180"/>
+      <c r="O46" s="179"/>
+      <c r="P46" s="180"/>
+      <c r="Q46" s="179"/>
+      <c r="R46" s="180"/>
+      <c r="S46" s="179"/>
+      <c r="T46" s="180"/>
+      <c r="U46" s="179"/>
+      <c r="V46" s="180"/>
+      <c r="W46" s="179"/>
+      <c r="X46" s="180"/>
+      <c r="Y46" s="179"/>
+      <c r="Z46" s="180"/>
+      <c r="AA46" s="179"/>
+      <c r="AB46" s="180"/>
+      <c r="AC46" s="179"/>
+      <c r="AD46" s="179"/>
     </row>
     <row r="47" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A47" s="204"/>
-      <c r="B47" s="205"/>
-      <c r="C47" s="205"/>
-      <c r="D47" s="206"/>
-      <c r="E47" s="205"/>
-      <c r="F47" s="206"/>
-      <c r="G47" s="205"/>
-      <c r="H47" s="206"/>
-      <c r="I47" s="205"/>
-      <c r="J47" s="206"/>
-      <c r="K47" s="205"/>
-      <c r="L47" s="206"/>
-      <c r="M47" s="205"/>
-      <c r="N47" s="206"/>
-      <c r="O47" s="205"/>
-      <c r="P47" s="206"/>
-      <c r="Q47" s="205"/>
-      <c r="R47" s="206"/>
-      <c r="S47" s="205"/>
-      <c r="T47" s="206"/>
-      <c r="U47" s="205"/>
-      <c r="V47" s="206"/>
-      <c r="W47" s="205"/>
-      <c r="X47" s="206"/>
-      <c r="Y47" s="205"/>
-      <c r="Z47" s="206"/>
-      <c r="AA47" s="205"/>
-      <c r="AB47" s="206"/>
-      <c r="AC47" s="205"/>
-      <c r="AD47" s="205"/>
+      <c r="A47" s="178"/>
+      <c r="B47" s="179"/>
+      <c r="C47" s="179"/>
+      <c r="D47" s="180"/>
+      <c r="E47" s="179"/>
+      <c r="F47" s="180"/>
+      <c r="G47" s="179"/>
+      <c r="H47" s="180"/>
+      <c r="I47" s="179"/>
+      <c r="J47" s="180"/>
+      <c r="K47" s="179"/>
+      <c r="L47" s="180"/>
+      <c r="M47" s="179"/>
+      <c r="N47" s="180"/>
+      <c r="O47" s="179"/>
+      <c r="P47" s="180"/>
+      <c r="Q47" s="179"/>
+      <c r="R47" s="180"/>
+      <c r="S47" s="179"/>
+      <c r="T47" s="180"/>
+      <c r="U47" s="179"/>
+      <c r="V47" s="180"/>
+      <c r="W47" s="179"/>
+      <c r="X47" s="180"/>
+      <c r="Y47" s="179"/>
+      <c r="Z47" s="180"/>
+      <c r="AA47" s="179"/>
+      <c r="AB47" s="180"/>
+      <c r="AC47" s="179"/>
+      <c r="AD47" s="179"/>
     </row>
     <row r="48" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A48" s="204"/>
-      <c r="B48" s="205"/>
-      <c r="C48" s="205"/>
-      <c r="D48" s="206"/>
-      <c r="E48" s="205"/>
-      <c r="F48" s="206"/>
-      <c r="G48" s="205"/>
-      <c r="H48" s="206"/>
-      <c r="I48" s="205"/>
-      <c r="J48" s="206"/>
-      <c r="K48" s="205"/>
-      <c r="L48" s="206"/>
-      <c r="M48" s="205"/>
-      <c r="N48" s="206"/>
-      <c r="O48" s="205"/>
-      <c r="P48" s="206"/>
-      <c r="Q48" s="205"/>
-      <c r="R48" s="206"/>
-      <c r="S48" s="205"/>
-      <c r="T48" s="206"/>
-      <c r="U48" s="205"/>
-      <c r="V48" s="206"/>
-      <c r="W48" s="205"/>
-      <c r="X48" s="206"/>
-      <c r="Y48" s="205"/>
-      <c r="Z48" s="206"/>
-      <c r="AA48" s="205"/>
-      <c r="AB48" s="206"/>
-      <c r="AC48" s="205"/>
-      <c r="AD48" s="205"/>
+      <c r="A48" s="178"/>
+      <c r="B48" s="179"/>
+      <c r="C48" s="179"/>
+      <c r="D48" s="180"/>
+      <c r="E48" s="179"/>
+      <c r="F48" s="180"/>
+      <c r="G48" s="179"/>
+      <c r="H48" s="180"/>
+      <c r="I48" s="179"/>
+      <c r="J48" s="180"/>
+      <c r="K48" s="179"/>
+      <c r="L48" s="180"/>
+      <c r="M48" s="179"/>
+      <c r="N48" s="180"/>
+      <c r="O48" s="179"/>
+      <c r="P48" s="180"/>
+      <c r="Q48" s="179"/>
+      <c r="R48" s="180"/>
+      <c r="S48" s="179"/>
+      <c r="T48" s="180"/>
+      <c r="U48" s="179"/>
+      <c r="V48" s="180"/>
+      <c r="W48" s="179"/>
+      <c r="X48" s="180"/>
+      <c r="Y48" s="179"/>
+      <c r="Z48" s="180"/>
+      <c r="AA48" s="179"/>
+      <c r="AB48" s="180"/>
+      <c r="AC48" s="179"/>
+      <c r="AD48" s="179"/>
     </row>
     <row r="49" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A49" s="204"/>
-      <c r="B49" s="205"/>
-      <c r="C49" s="205"/>
-      <c r="D49" s="206"/>
-      <c r="E49" s="205"/>
-      <c r="F49" s="206"/>
-      <c r="G49" s="205"/>
-      <c r="H49" s="206"/>
-      <c r="I49" s="205"/>
-      <c r="J49" s="206"/>
-      <c r="K49" s="205"/>
-      <c r="L49" s="206"/>
-      <c r="M49" s="205"/>
-      <c r="N49" s="206"/>
-      <c r="O49" s="205"/>
-      <c r="P49" s="206"/>
-      <c r="Q49" s="205"/>
-      <c r="R49" s="206"/>
-      <c r="S49" s="205"/>
-      <c r="T49" s="206"/>
-      <c r="U49" s="205"/>
-      <c r="V49" s="206"/>
-      <c r="W49" s="205"/>
-      <c r="X49" s="206"/>
-      <c r="Y49" s="205"/>
-      <c r="Z49" s="206"/>
-      <c r="AA49" s="205"/>
-      <c r="AB49" s="206"/>
-      <c r="AC49" s="205"/>
-      <c r="AD49" s="205"/>
+      <c r="A49" s="178"/>
+      <c r="B49" s="179"/>
+      <c r="C49" s="179"/>
+      <c r="D49" s="180"/>
+      <c r="E49" s="179"/>
+      <c r="F49" s="180"/>
+      <c r="G49" s="179"/>
+      <c r="H49" s="180"/>
+      <c r="I49" s="179"/>
+      <c r="J49" s="180"/>
+      <c r="K49" s="179"/>
+      <c r="L49" s="180"/>
+      <c r="M49" s="179"/>
+      <c r="N49" s="180"/>
+      <c r="O49" s="179"/>
+      <c r="P49" s="180"/>
+      <c r="Q49" s="179"/>
+      <c r="R49" s="180"/>
+      <c r="S49" s="179"/>
+      <c r="T49" s="180"/>
+      <c r="U49" s="179"/>
+      <c r="V49" s="180"/>
+      <c r="W49" s="179"/>
+      <c r="X49" s="180"/>
+      <c r="Y49" s="179"/>
+      <c r="Z49" s="180"/>
+      <c r="AA49" s="179"/>
+      <c r="AB49" s="180"/>
+      <c r="AC49" s="179"/>
+      <c r="AD49" s="179"/>
     </row>
     <row r="50" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A50" s="204"/>
-      <c r="B50" s="205"/>
-      <c r="C50" s="205"/>
-      <c r="D50" s="206"/>
-      <c r="E50" s="205"/>
-      <c r="F50" s="206"/>
-      <c r="G50" s="205"/>
-      <c r="H50" s="206"/>
-      <c r="I50" s="205"/>
-      <c r="J50" s="206"/>
-      <c r="K50" s="205"/>
-      <c r="L50" s="206"/>
-      <c r="M50" s="205"/>
-      <c r="N50" s="206"/>
-      <c r="O50" s="205"/>
-      <c r="P50" s="206"/>
-      <c r="Q50" s="205"/>
-      <c r="R50" s="206"/>
-      <c r="S50" s="205"/>
-      <c r="T50" s="206"/>
-      <c r="U50" s="205"/>
-      <c r="V50" s="206"/>
-      <c r="W50" s="205"/>
-      <c r="X50" s="206"/>
-      <c r="Y50" s="205"/>
-      <c r="Z50" s="206"/>
-      <c r="AA50" s="205"/>
-      <c r="AB50" s="206"/>
-      <c r="AC50" s="205"/>
-      <c r="AD50" s="205"/>
+      <c r="A50" s="178"/>
+      <c r="B50" s="179"/>
+      <c r="C50" s="179"/>
+      <c r="D50" s="180"/>
+      <c r="E50" s="179"/>
+      <c r="F50" s="180"/>
+      <c r="G50" s="179"/>
+      <c r="H50" s="180"/>
+      <c r="I50" s="179"/>
+      <c r="J50" s="180"/>
+      <c r="K50" s="179"/>
+      <c r="L50" s="180"/>
+      <c r="M50" s="179"/>
+      <c r="N50" s="180"/>
+      <c r="O50" s="179"/>
+      <c r="P50" s="180"/>
+      <c r="Q50" s="179"/>
+      <c r="R50" s="180"/>
+      <c r="S50" s="179"/>
+      <c r="T50" s="180"/>
+      <c r="U50" s="179"/>
+      <c r="V50" s="180"/>
+      <c r="W50" s="179"/>
+      <c r="X50" s="180"/>
+      <c r="Y50" s="179"/>
+      <c r="Z50" s="180"/>
+      <c r="AA50" s="179"/>
+      <c r="AB50" s="180"/>
+      <c r="AC50" s="179"/>
+      <c r="AD50" s="179"/>
     </row>
     <row r="51" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A51" s="204"/>
-      <c r="B51" s="205"/>
-      <c r="C51" s="205"/>
-      <c r="D51" s="206"/>
-      <c r="E51" s="205" t="s">
+      <c r="A51" s="178"/>
+      <c r="B51" s="179"/>
+      <c r="C51" s="179"/>
+      <c r="D51" s="180"/>
+      <c r="E51" s="179" t="s">
         <v>33</v>
       </c>
-      <c r="F51" s="206" t="s">
+      <c r="F51" s="180" t="s">
         <v>34</v>
       </c>
-      <c r="G51" s="205" t="s">
+      <c r="G51" s="179" t="s">
         <v>35</v>
       </c>
-      <c r="H51" s="206"/>
-      <c r="I51" s="205" t="s">
+      <c r="H51" s="180"/>
+      <c r="I51" s="179" t="s">
         <v>38</v>
       </c>
-      <c r="J51" s="206"/>
-      <c r="K51" s="205"/>
-      <c r="L51" s="206"/>
-      <c r="M51" s="205" t="s">
+      <c r="J51" s="180"/>
+      <c r="K51" s="179"/>
+      <c r="L51" s="180"/>
+      <c r="M51" s="179" t="s">
         <v>39</v>
       </c>
-      <c r="N51" s="206"/>
-      <c r="O51" s="205"/>
-      <c r="P51" s="206"/>
-      <c r="Q51" s="206" t="s">
+      <c r="N51" s="180"/>
+      <c r="O51" s="179"/>
+      <c r="P51" s="180"/>
+      <c r="Q51" s="180" t="s">
         <v>45</v>
       </c>
-      <c r="R51" s="206"/>
-      <c r="S51" s="205"/>
-      <c r="T51" s="206"/>
-      <c r="U51" s="205"/>
-      <c r="V51" s="206"/>
-      <c r="W51" s="205"/>
-      <c r="X51" s="206"/>
-      <c r="Y51" s="205"/>
-      <c r="Z51" s="206"/>
-      <c r="AA51" s="205"/>
-      <c r="AB51" s="206"/>
-      <c r="AC51" s="205"/>
-      <c r="AD51" s="205"/>
+      <c r="R51" s="180"/>
+      <c r="S51" s="179"/>
+      <c r="T51" s="180"/>
+      <c r="U51" s="179"/>
+      <c r="V51" s="180"/>
+      <c r="W51" s="179"/>
+      <c r="X51" s="180"/>
+      <c r="Y51" s="179"/>
+      <c r="Z51" s="180"/>
+      <c r="AA51" s="179"/>
+      <c r="AB51" s="180"/>
+      <c r="AC51" s="179"/>
+      <c r="AD51" s="179"/>
     </row>
     <row r="52" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A52" s="204"/>
-      <c r="B52" s="205"/>
-      <c r="C52" s="205" t="s">
+      <c r="A52" s="178"/>
+      <c r="B52" s="179"/>
+      <c r="C52" s="179" t="s">
         <v>32</v>
       </c>
-      <c r="D52" s="206"/>
-      <c r="E52" s="205">
+      <c r="D52" s="180"/>
+      <c r="E52" s="179">
         <v>100000</v>
       </c>
-      <c r="F52" s="206">
-        <v>0</v>
-      </c>
-      <c r="G52" s="205">
+      <c r="F52" s="180">
+        <v>0</v>
+      </c>
+      <c r="G52" s="179">
         <v>8</v>
       </c>
-      <c r="H52" s="206"/>
-      <c r="I52" s="207">
+      <c r="H52" s="180"/>
+      <c r="I52" s="181">
         <v>12500</v>
       </c>
-      <c r="J52" s="206"/>
-      <c r="K52" s="205"/>
-      <c r="L52" s="206"/>
-      <c r="M52" s="208">
+      <c r="J52" s="180"/>
+      <c r="K52" s="179"/>
+      <c r="L52" s="180"/>
+      <c r="M52" s="182">
         <v>1041.67</v>
       </c>
-      <c r="N52" s="206"/>
-      <c r="O52" s="205"/>
-      <c r="P52" s="206"/>
-      <c r="Q52" s="205"/>
-      <c r="R52" s="206"/>
-      <c r="S52" s="205"/>
-      <c r="T52" s="206"/>
-      <c r="U52" s="205"/>
-      <c r="V52" s="206"/>
-      <c r="W52" s="205"/>
-      <c r="X52" s="206"/>
-      <c r="Y52" s="205"/>
-      <c r="Z52" s="206"/>
-      <c r="AA52" s="205"/>
-      <c r="AB52" s="206"/>
-      <c r="AC52" s="205"/>
-      <c r="AD52" s="205"/>
+      <c r="N52" s="180"/>
+      <c r="O52" s="179"/>
+      <c r="P52" s="180"/>
+      <c r="Q52" s="179"/>
+      <c r="R52" s="180"/>
+      <c r="S52" s="179"/>
+      <c r="T52" s="180"/>
+      <c r="U52" s="179"/>
+      <c r="V52" s="180"/>
+      <c r="W52" s="179"/>
+      <c r="X52" s="180"/>
+      <c r="Y52" s="179"/>
+      <c r="Z52" s="180"/>
+      <c r="AA52" s="179"/>
+      <c r="AB52" s="180"/>
+      <c r="AC52" s="179"/>
+      <c r="AD52" s="179"/>
     </row>
     <row r="53" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A53" s="204"/>
-      <c r="B53" s="205"/>
-      <c r="C53" s="205" t="s">
+      <c r="A53" s="178"/>
+      <c r="B53" s="179"/>
+      <c r="C53" s="179" t="s">
         <v>31</v>
       </c>
-      <c r="D53" s="205"/>
-      <c r="E53" s="205">
+      <c r="D53" s="179"/>
+      <c r="E53" s="179">
         <v>50000</v>
       </c>
-      <c r="F53" s="205">
-        <v>0</v>
-      </c>
-      <c r="G53" s="205">
+      <c r="F53" s="179">
+        <v>0</v>
+      </c>
+      <c r="G53" s="179">
         <v>8</v>
       </c>
-      <c r="H53" s="205"/>
-      <c r="I53" s="207">
+      <c r="H53" s="179"/>
+      <c r="I53" s="181">
         <v>6250</v>
       </c>
-      <c r="J53" s="206"/>
-      <c r="K53" s="205"/>
-      <c r="L53" s="205"/>
-      <c r="M53" s="208">
+      <c r="J53" s="180"/>
+      <c r="K53" s="179"/>
+      <c r="L53" s="179"/>
+      <c r="M53" s="182">
         <v>520.83000000000004</v>
       </c>
-      <c r="N53" s="206"/>
-      <c r="O53" s="205"/>
-      <c r="P53" s="206"/>
-      <c r="Q53" s="205"/>
-      <c r="R53" s="206"/>
-      <c r="S53" s="205"/>
-      <c r="T53" s="206"/>
-      <c r="U53" s="205"/>
-      <c r="V53" s="206"/>
-      <c r="W53" s="205"/>
-      <c r="X53" s="206"/>
-      <c r="Y53" s="205"/>
-      <c r="Z53" s="206"/>
-      <c r="AA53" s="205"/>
-      <c r="AB53" s="206"/>
-      <c r="AC53" s="205"/>
-      <c r="AD53" s="205"/>
+      <c r="N53" s="180"/>
+      <c r="O53" s="179"/>
+      <c r="P53" s="180"/>
+      <c r="Q53" s="179"/>
+      <c r="R53" s="180"/>
+      <c r="S53" s="179"/>
+      <c r="T53" s="180"/>
+      <c r="U53" s="179"/>
+      <c r="V53" s="180"/>
+      <c r="W53" s="179"/>
+      <c r="X53" s="180"/>
+      <c r="Y53" s="179"/>
+      <c r="Z53" s="180"/>
+      <c r="AA53" s="179"/>
+      <c r="AB53" s="180"/>
+      <c r="AC53" s="179"/>
+      <c r="AD53" s="179"/>
     </row>
     <row r="54" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A54" s="204"/>
-      <c r="B54" s="205"/>
-      <c r="C54" s="205" t="s">
+      <c r="A54" s="178"/>
+      <c r="B54" s="179"/>
+      <c r="C54" s="179" t="s">
         <v>36</v>
       </c>
-      <c r="D54" s="205"/>
-      <c r="E54" s="205">
+      <c r="D54" s="179"/>
+      <c r="E54" s="179">
         <v>160000</v>
       </c>
-      <c r="F54" s="205">
-        <v>0</v>
-      </c>
-      <c r="G54" s="205">
+      <c r="F54" s="179">
+        <v>0</v>
+      </c>
+      <c r="G54" s="179">
         <v>3</v>
       </c>
-      <c r="H54" s="206"/>
-      <c r="I54" s="205">
+      <c r="H54" s="180"/>
+      <c r="I54" s="179">
         <v>10667</v>
       </c>
-      <c r="J54" s="206"/>
-      <c r="K54" s="205"/>
-      <c r="L54" s="206"/>
-      <c r="M54" s="208">
+      <c r="J54" s="180"/>
+      <c r="K54" s="179"/>
+      <c r="L54" s="180"/>
+      <c r="M54" s="182">
         <v>4444.8500000000004</v>
       </c>
-      <c r="N54" s="206"/>
-      <c r="O54" s="205"/>
-      <c r="P54" s="206"/>
-      <c r="Q54" s="205"/>
-      <c r="R54" s="206"/>
-      <c r="S54" s="205"/>
-      <c r="T54" s="206"/>
-      <c r="U54" s="205"/>
-      <c r="V54" s="206"/>
-      <c r="W54" s="205"/>
-      <c r="X54" s="206"/>
-      <c r="Y54" s="205"/>
-      <c r="Z54" s="206"/>
-      <c r="AA54" s="205"/>
-      <c r="AB54" s="206"/>
-      <c r="AC54" s="205"/>
-      <c r="AD54" s="205"/>
+      <c r="N54" s="180"/>
+      <c r="O54" s="179"/>
+      <c r="P54" s="180"/>
+      <c r="Q54" s="179"/>
+      <c r="R54" s="180"/>
+      <c r="S54" s="179"/>
+      <c r="T54" s="180"/>
+      <c r="U54" s="179"/>
+      <c r="V54" s="180"/>
+      <c r="W54" s="179"/>
+      <c r="X54" s="180"/>
+      <c r="Y54" s="179"/>
+      <c r="Z54" s="180"/>
+      <c r="AA54" s="179"/>
+      <c r="AB54" s="180"/>
+      <c r="AC54" s="179"/>
+      <c r="AD54" s="179"/>
     </row>
     <row r="55" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A55" s="204"/>
-      <c r="B55" s="205"/>
-      <c r="C55" s="205"/>
-      <c r="D55" s="205"/>
-      <c r="E55" s="205"/>
-      <c r="F55" s="205"/>
-      <c r="G55" s="205"/>
-      <c r="H55" s="206"/>
-      <c r="I55" s="205"/>
-      <c r="J55" s="206"/>
-      <c r="K55" s="205"/>
-      <c r="L55" s="206"/>
-      <c r="M55" s="209">
+      <c r="A55" s="178"/>
+      <c r="B55" s="179"/>
+      <c r="C55" s="179"/>
+      <c r="D55" s="179"/>
+      <c r="E55" s="179"/>
+      <c r="F55" s="179"/>
+      <c r="G55" s="179"/>
+      <c r="H55" s="180"/>
+      <c r="I55" s="179"/>
+      <c r="J55" s="180"/>
+      <c r="K55" s="179"/>
+      <c r="L55" s="180"/>
+      <c r="M55" s="183">
         <f>SUM(M52:M54)</f>
         <v>6007.35</v>
       </c>
-      <c r="N55" s="206"/>
-      <c r="O55" s="205"/>
-      <c r="P55" s="206"/>
-      <c r="Q55" s="205"/>
-      <c r="R55" s="206"/>
-      <c r="S55" s="205"/>
-      <c r="T55" s="206"/>
-      <c r="U55" s="205"/>
-      <c r="V55" s="206"/>
-      <c r="W55" s="205"/>
-      <c r="X55" s="206"/>
-      <c r="Y55" s="205"/>
-      <c r="Z55" s="206"/>
-      <c r="AA55" s="205"/>
-      <c r="AB55" s="206"/>
-      <c r="AC55" s="205"/>
-      <c r="AD55" s="205"/>
+      <c r="N55" s="180"/>
+      <c r="O55" s="179"/>
+      <c r="P55" s="180"/>
+      <c r="Q55" s="179"/>
+      <c r="R55" s="180"/>
+      <c r="S55" s="179"/>
+      <c r="T55" s="180"/>
+      <c r="U55" s="179"/>
+      <c r="V55" s="180"/>
+      <c r="W55" s="179"/>
+      <c r="X55" s="180"/>
+      <c r="Y55" s="179"/>
+      <c r="Z55" s="180"/>
+      <c r="AA55" s="179"/>
+      <c r="AB55" s="180"/>
+      <c r="AC55" s="179"/>
+      <c r="AD55" s="179"/>
     </row>
     <row r="56" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A56" s="204"/>
-      <c r="B56" s="205"/>
-      <c r="C56" s="205"/>
-      <c r="D56" s="205"/>
-      <c r="E56" s="205"/>
-      <c r="F56" s="205"/>
-      <c r="G56" s="205"/>
-      <c r="H56" s="206"/>
-      <c r="I56" s="205"/>
-      <c r="J56" s="206"/>
-      <c r="K56" s="205"/>
-      <c r="L56" s="206"/>
-      <c r="M56" s="205"/>
-      <c r="N56" s="206"/>
-      <c r="O56" s="205"/>
-      <c r="P56" s="206"/>
-      <c r="Q56" s="205"/>
-      <c r="R56" s="206"/>
-      <c r="S56" s="205"/>
-      <c r="T56" s="206"/>
-      <c r="U56" s="205"/>
-      <c r="V56" s="206"/>
-      <c r="W56" s="205"/>
-      <c r="X56" s="206"/>
-      <c r="Y56" s="205"/>
-      <c r="Z56" s="206"/>
-      <c r="AA56" s="205"/>
-      <c r="AB56" s="206"/>
-      <c r="AC56" s="205"/>
-      <c r="AD56" s="205"/>
+      <c r="A56" s="178"/>
+      <c r="B56" s="179"/>
+      <c r="C56" s="179"/>
+      <c r="D56" s="179"/>
+      <c r="E56" s="179"/>
+      <c r="F56" s="179"/>
+      <c r="G56" s="179"/>
+      <c r="H56" s="180"/>
+      <c r="I56" s="179"/>
+      <c r="J56" s="180"/>
+      <c r="K56" s="179"/>
+      <c r="L56" s="180"/>
+      <c r="M56" s="179"/>
+      <c r="N56" s="180"/>
+      <c r="O56" s="179"/>
+      <c r="P56" s="180"/>
+      <c r="Q56" s="179"/>
+      <c r="R56" s="180"/>
+      <c r="S56" s="179"/>
+      <c r="T56" s="180"/>
+      <c r="U56" s="179"/>
+      <c r="V56" s="180"/>
+      <c r="W56" s="179"/>
+      <c r="X56" s="180"/>
+      <c r="Y56" s="179"/>
+      <c r="Z56" s="180"/>
+      <c r="AA56" s="179"/>
+      <c r="AB56" s="180"/>
+      <c r="AC56" s="179"/>
+      <c r="AD56" s="179"/>
     </row>
     <row r="57" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A57" s="204"/>
-      <c r="B57" s="205"/>
-      <c r="C57" s="205" t="s">
+      <c r="A57" s="178"/>
+      <c r="B57" s="179"/>
+      <c r="C57" s="179" t="s">
         <v>37</v>
       </c>
-      <c r="D57" s="205"/>
-      <c r="E57" s="205"/>
-      <c r="F57" s="205"/>
-      <c r="G57" s="205"/>
-      <c r="H57" s="206"/>
-      <c r="I57" s="205"/>
-      <c r="J57" s="206"/>
-      <c r="K57" s="205"/>
-      <c r="L57" s="206"/>
-      <c r="M57" s="205"/>
-      <c r="N57" s="206" t="s">
+      <c r="D57" s="179"/>
+      <c r="E57" s="179"/>
+      <c r="F57" s="179"/>
+      <c r="G57" s="179"/>
+      <c r="H57" s="180"/>
+      <c r="I57" s="179"/>
+      <c r="J57" s="180"/>
+      <c r="K57" s="179"/>
+      <c r="L57" s="180"/>
+      <c r="M57" s="179"/>
+      <c r="N57" s="180" t="s">
         <v>44</v>
       </c>
-      <c r="O57" s="205"/>
-      <c r="P57" s="206"/>
-      <c r="Q57" s="205"/>
-      <c r="R57" s="206"/>
-      <c r="S57" s="205"/>
-      <c r="T57" s="206"/>
-      <c r="U57" s="205"/>
-      <c r="V57" s="206"/>
-      <c r="W57" s="205"/>
-      <c r="X57" s="206"/>
-      <c r="Y57" s="205"/>
-      <c r="Z57" s="206"/>
-      <c r="AA57" s="205"/>
-      <c r="AB57" s="206"/>
-      <c r="AC57" s="205"/>
-      <c r="AD57" s="205"/>
+      <c r="O57" s="179"/>
+      <c r="P57" s="180"/>
+      <c r="Q57" s="179"/>
+      <c r="R57" s="180"/>
+      <c r="S57" s="179"/>
+      <c r="T57" s="180"/>
+      <c r="U57" s="179"/>
+      <c r="V57" s="180"/>
+      <c r="W57" s="179"/>
+      <c r="X57" s="180"/>
+      <c r="Y57" s="179"/>
+      <c r="Z57" s="180"/>
+      <c r="AA57" s="179"/>
+      <c r="AB57" s="180"/>
+      <c r="AC57" s="179"/>
+      <c r="AD57" s="179"/>
     </row>
     <row r="58" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A58" s="204"/>
-      <c r="B58" s="205"/>
-      <c r="C58" s="205" t="s">
+      <c r="A58" s="178"/>
+      <c r="B58" s="179"/>
+      <c r="C58" s="179" t="s">
         <v>40</v>
       </c>
-      <c r="D58" s="205"/>
-      <c r="E58" s="205"/>
-      <c r="F58" s="205"/>
-      <c r="G58" s="205"/>
-      <c r="H58" s="206"/>
-      <c r="I58" s="205"/>
-      <c r="J58" s="206"/>
-      <c r="K58" s="205"/>
-      <c r="L58" s="206"/>
-      <c r="M58" s="205"/>
-      <c r="N58" s="206" t="s">
+      <c r="D58" s="179"/>
+      <c r="E58" s="179"/>
+      <c r="F58" s="179"/>
+      <c r="G58" s="179"/>
+      <c r="H58" s="180"/>
+      <c r="I58" s="179"/>
+      <c r="J58" s="180"/>
+      <c r="K58" s="179"/>
+      <c r="L58" s="180"/>
+      <c r="M58" s="179"/>
+      <c r="N58" s="180" t="s">
         <v>43</v>
       </c>
-      <c r="O58" s="205"/>
-      <c r="P58" s="206"/>
-      <c r="Q58" s="205"/>
-      <c r="R58" s="206"/>
-      <c r="S58" s="205"/>
-      <c r="T58" s="206"/>
-      <c r="U58" s="205"/>
-      <c r="V58" s="206"/>
-      <c r="W58" s="205"/>
-      <c r="X58" s="206"/>
-      <c r="Y58" s="205"/>
-      <c r="Z58" s="206"/>
-      <c r="AA58" s="205"/>
-      <c r="AB58" s="206"/>
-      <c r="AC58" s="205"/>
-      <c r="AD58" s="205"/>
+      <c r="O58" s="179"/>
+      <c r="P58" s="180"/>
+      <c r="Q58" s="179"/>
+      <c r="R58" s="180"/>
+      <c r="S58" s="179"/>
+      <c r="T58" s="180"/>
+      <c r="U58" s="179"/>
+      <c r="V58" s="180"/>
+      <c r="W58" s="179"/>
+      <c r="X58" s="180"/>
+      <c r="Y58" s="179"/>
+      <c r="Z58" s="180"/>
+      <c r="AA58" s="179"/>
+      <c r="AB58" s="180"/>
+      <c r="AC58" s="179"/>
+      <c r="AD58" s="179"/>
     </row>
     <row r="59" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A59" s="204"/>
-      <c r="B59" s="205"/>
-      <c r="C59" s="205" t="s">
+      <c r="A59" s="178"/>
+      <c r="B59" s="179"/>
+      <c r="C59" s="179" t="s">
         <v>41</v>
       </c>
-      <c r="D59" s="205"/>
-      <c r="E59" s="205"/>
-      <c r="F59" s="205"/>
-      <c r="G59" s="205"/>
-      <c r="H59" s="206"/>
-      <c r="I59" s="205"/>
-      <c r="J59" s="206"/>
-      <c r="K59" s="205"/>
-      <c r="L59" s="206"/>
-      <c r="M59" s="205"/>
-      <c r="N59" s="206" t="s">
+      <c r="D59" s="179"/>
+      <c r="E59" s="179"/>
+      <c r="F59" s="179"/>
+      <c r="G59" s="179"/>
+      <c r="H59" s="180"/>
+      <c r="I59" s="179"/>
+      <c r="J59" s="180"/>
+      <c r="K59" s="179"/>
+      <c r="L59" s="180"/>
+      <c r="M59" s="179"/>
+      <c r="N59" s="180" t="s">
         <v>42</v>
       </c>
-      <c r="O59" s="205"/>
-      <c r="P59" s="206"/>
-      <c r="Q59" s="205"/>
-      <c r="R59" s="206"/>
-      <c r="S59" s="205"/>
-      <c r="T59" s="206"/>
-      <c r="U59" s="205"/>
-      <c r="V59" s="206"/>
-      <c r="W59" s="205"/>
-      <c r="X59" s="206"/>
-      <c r="Y59" s="205"/>
-      <c r="Z59" s="206"/>
-      <c r="AA59" s="205"/>
-      <c r="AB59" s="206"/>
-      <c r="AC59" s="205"/>
-      <c r="AD59" s="205"/>
+      <c r="O59" s="179"/>
+      <c r="P59" s="180"/>
+      <c r="Q59" s="179"/>
+      <c r="R59" s="180"/>
+      <c r="S59" s="179"/>
+      <c r="T59" s="180"/>
+      <c r="U59" s="179"/>
+      <c r="V59" s="180"/>
+      <c r="W59" s="179"/>
+      <c r="X59" s="180"/>
+      <c r="Y59" s="179"/>
+      <c r="Z59" s="180"/>
+      <c r="AA59" s="179"/>
+      <c r="AB59" s="180"/>
+      <c r="AC59" s="179"/>
+      <c r="AD59" s="179"/>
     </row>
     <row r="60" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A60" s="204"/>
-      <c r="B60" s="205"/>
-      <c r="C60" s="205"/>
-      <c r="D60" s="205"/>
-      <c r="E60" s="205"/>
-      <c r="F60" s="205"/>
-      <c r="G60" s="205"/>
-      <c r="H60" s="206"/>
-      <c r="I60" s="205"/>
-      <c r="J60" s="206"/>
-      <c r="K60" s="205"/>
-      <c r="L60" s="206"/>
-      <c r="M60" s="205"/>
-      <c r="N60" s="206"/>
-      <c r="O60" s="205"/>
-      <c r="P60" s="206"/>
-      <c r="Q60" s="205"/>
-      <c r="R60" s="206"/>
-      <c r="S60" s="205"/>
-      <c r="T60" s="206"/>
-      <c r="U60" s="205"/>
-      <c r="V60" s="206"/>
-      <c r="W60" s="205"/>
-      <c r="X60" s="206"/>
-      <c r="Y60" s="205"/>
-      <c r="Z60" s="206"/>
-      <c r="AA60" s="205"/>
-      <c r="AB60" s="206"/>
-      <c r="AC60" s="205"/>
-      <c r="AD60" s="205"/>
+      <c r="A60" s="178"/>
+      <c r="B60" s="179"/>
+      <c r="C60" s="179"/>
+      <c r="D60" s="179"/>
+      <c r="E60" s="179"/>
+      <c r="F60" s="179"/>
+      <c r="G60" s="179"/>
+      <c r="H60" s="180"/>
+      <c r="I60" s="179"/>
+      <c r="J60" s="180"/>
+      <c r="K60" s="179"/>
+      <c r="L60" s="180"/>
+      <c r="M60" s="179"/>
+      <c r="N60" s="180"/>
+      <c r="O60" s="179"/>
+      <c r="P60" s="180"/>
+      <c r="Q60" s="179"/>
+      <c r="R60" s="180"/>
+      <c r="S60" s="179"/>
+      <c r="T60" s="180"/>
+      <c r="U60" s="179"/>
+      <c r="V60" s="180"/>
+      <c r="W60" s="179"/>
+      <c r="X60" s="180"/>
+      <c r="Y60" s="179"/>
+      <c r="Z60" s="180"/>
+      <c r="AA60" s="179"/>
+      <c r="AB60" s="180"/>
+      <c r="AC60" s="179"/>
+      <c r="AD60" s="179"/>
     </row>
     <row r="61" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A61" s="204"/>
-      <c r="B61" s="205"/>
-      <c r="C61" s="205"/>
-      <c r="D61" s="205"/>
-      <c r="E61" s="205"/>
-      <c r="F61" s="205"/>
-      <c r="G61" s="205"/>
-      <c r="H61" s="206"/>
-      <c r="I61" s="205"/>
-      <c r="J61" s="206"/>
-      <c r="K61" s="205"/>
-      <c r="L61" s="206"/>
-      <c r="M61" s="205"/>
-      <c r="N61" s="206"/>
-      <c r="O61" s="205"/>
-      <c r="P61" s="206"/>
-      <c r="Q61" s="205"/>
-      <c r="R61" s="206"/>
-      <c r="S61" s="205"/>
-      <c r="T61" s="206"/>
-      <c r="U61" s="205"/>
-      <c r="V61" s="206"/>
-      <c r="W61" s="205"/>
-      <c r="X61" s="206"/>
-      <c r="Y61" s="205"/>
-      <c r="Z61" s="206"/>
-      <c r="AA61" s="205"/>
-      <c r="AB61" s="206"/>
-      <c r="AC61" s="205"/>
-      <c r="AD61" s="205"/>
+      <c r="A61" s="178"/>
+      <c r="B61" s="179"/>
+      <c r="C61" s="179"/>
+      <c r="D61" s="179"/>
+      <c r="E61" s="179"/>
+      <c r="F61" s="179"/>
+      <c r="G61" s="179"/>
+      <c r="H61" s="180"/>
+      <c r="I61" s="179"/>
+      <c r="J61" s="180"/>
+      <c r="K61" s="179"/>
+      <c r="L61" s="180"/>
+      <c r="M61" s="179"/>
+      <c r="N61" s="180"/>
+      <c r="O61" s="179"/>
+      <c r="P61" s="180"/>
+      <c r="Q61" s="179"/>
+      <c r="R61" s="180"/>
+      <c r="S61" s="179"/>
+      <c r="T61" s="180"/>
+      <c r="U61" s="179"/>
+      <c r="V61" s="180"/>
+      <c r="W61" s="179"/>
+      <c r="X61" s="180"/>
+      <c r="Y61" s="179"/>
+      <c r="Z61" s="180"/>
+      <c r="AA61" s="179"/>
+      <c r="AB61" s="180"/>
+      <c r="AC61" s="179"/>
+      <c r="AD61" s="179"/>
     </row>
     <row r="62" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A62" s="204"/>
-      <c r="B62" s="205"/>
-      <c r="C62" s="205"/>
-      <c r="D62" s="205"/>
-      <c r="E62" s="205"/>
-      <c r="F62" s="205"/>
-      <c r="G62" s="205"/>
-      <c r="H62" s="206"/>
-      <c r="I62" s="205"/>
-      <c r="J62" s="206"/>
-      <c r="K62" s="205"/>
-      <c r="L62" s="206"/>
-      <c r="M62" s="205"/>
-      <c r="N62" s="206"/>
-      <c r="O62" s="205"/>
-      <c r="P62" s="206"/>
-      <c r="Q62" s="205"/>
-      <c r="R62" s="206"/>
-      <c r="S62" s="205"/>
-      <c r="T62" s="206"/>
-      <c r="U62" s="205"/>
-      <c r="V62" s="206"/>
-      <c r="W62" s="205"/>
-      <c r="X62" s="206"/>
-      <c r="Y62" s="205"/>
-      <c r="Z62" s="206"/>
-      <c r="AA62" s="205"/>
-      <c r="AB62" s="206"/>
-      <c r="AC62" s="205"/>
-      <c r="AD62" s="205"/>
+      <c r="A62" s="178"/>
+      <c r="B62" s="179"/>
+      <c r="C62" s="179"/>
+      <c r="D62" s="179"/>
+      <c r="E62" s="179"/>
+      <c r="F62" s="179"/>
+      <c r="G62" s="179"/>
+      <c r="H62" s="180"/>
+      <c r="I62" s="179"/>
+      <c r="J62" s="180"/>
+      <c r="K62" s="179"/>
+      <c r="L62" s="180"/>
+      <c r="M62" s="179"/>
+      <c r="N62" s="180"/>
+      <c r="O62" s="179"/>
+      <c r="P62" s="180"/>
+      <c r="Q62" s="179"/>
+      <c r="R62" s="180"/>
+      <c r="S62" s="179"/>
+      <c r="T62" s="180"/>
+      <c r="U62" s="179"/>
+      <c r="V62" s="180"/>
+      <c r="W62" s="179"/>
+      <c r="X62" s="180"/>
+      <c r="Y62" s="179"/>
+      <c r="Z62" s="180"/>
+      <c r="AA62" s="179"/>
+      <c r="AB62" s="180"/>
+      <c r="AC62" s="179"/>
+      <c r="AD62" s="179"/>
     </row>
     <row r="63" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A63" s="204"/>
-      <c r="B63" s="205"/>
-      <c r="C63" s="205"/>
-      <c r="D63" s="205"/>
-      <c r="E63" s="205"/>
-      <c r="F63" s="205"/>
-      <c r="G63" s="205"/>
-      <c r="H63" s="206"/>
-      <c r="I63" s="205"/>
-      <c r="J63" s="206"/>
-      <c r="K63" s="205"/>
-      <c r="L63" s="206"/>
-      <c r="M63" s="205"/>
-      <c r="N63" s="206"/>
-      <c r="O63" s="205"/>
-      <c r="P63" s="206"/>
-      <c r="Q63" s="205"/>
-      <c r="R63" s="206"/>
-      <c r="S63" s="205"/>
-      <c r="T63" s="206"/>
-      <c r="U63" s="205"/>
-      <c r="V63" s="206"/>
-      <c r="W63" s="205"/>
-      <c r="X63" s="206"/>
-      <c r="Y63" s="205"/>
-      <c r="Z63" s="206"/>
-      <c r="AA63" s="205"/>
-      <c r="AB63" s="206"/>
-      <c r="AC63" s="205"/>
-      <c r="AD63" s="205"/>
+      <c r="A63" s="178"/>
+      <c r="B63" s="179"/>
+      <c r="C63" s="179"/>
+      <c r="D63" s="179"/>
+      <c r="E63" s="179"/>
+      <c r="F63" s="179"/>
+      <c r="G63" s="179"/>
+      <c r="H63" s="180"/>
+      <c r="I63" s="179"/>
+      <c r="J63" s="180"/>
+      <c r="K63" s="179"/>
+      <c r="L63" s="180"/>
+      <c r="M63" s="179"/>
+      <c r="N63" s="180"/>
+      <c r="O63" s="179"/>
+      <c r="P63" s="180"/>
+      <c r="Q63" s="179"/>
+      <c r="R63" s="180"/>
+      <c r="S63" s="179"/>
+      <c r="T63" s="180"/>
+      <c r="U63" s="179"/>
+      <c r="V63" s="180"/>
+      <c r="W63" s="179"/>
+      <c r="X63" s="180"/>
+      <c r="Y63" s="179"/>
+      <c r="Z63" s="180"/>
+      <c r="AA63" s="179"/>
+      <c r="AB63" s="180"/>
+      <c r="AC63" s="179"/>
+      <c r="AD63" s="179"/>
     </row>
     <row r="64" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A64" s="204"/>
-      <c r="B64" s="205"/>
-      <c r="C64" s="205"/>
-      <c r="D64" s="206"/>
-      <c r="E64" s="205"/>
-      <c r="F64" s="206"/>
-      <c r="G64" s="205"/>
-      <c r="H64" s="206"/>
-      <c r="I64" s="205"/>
-      <c r="J64" s="206"/>
-      <c r="K64" s="205"/>
-      <c r="L64" s="206"/>
-      <c r="M64" s="205"/>
-      <c r="N64" s="206"/>
-      <c r="O64" s="205"/>
-      <c r="P64" s="206"/>
-      <c r="Q64" s="205"/>
-      <c r="R64" s="206"/>
-      <c r="S64" s="205"/>
-      <c r="T64" s="206"/>
-      <c r="U64" s="205"/>
-      <c r="V64" s="206"/>
-      <c r="W64" s="205"/>
-      <c r="X64" s="206"/>
-      <c r="Y64" s="205"/>
-      <c r="Z64" s="206"/>
-      <c r="AA64" s="205"/>
-      <c r="AB64" s="206"/>
-      <c r="AC64" s="205"/>
-      <c r="AD64" s="205"/>
+      <c r="A64" s="178"/>
+      <c r="B64" s="179"/>
+      <c r="C64" s="179"/>
+      <c r="D64" s="180"/>
+      <c r="E64" s="179"/>
+      <c r="F64" s="180"/>
+      <c r="G64" s="179"/>
+      <c r="H64" s="180"/>
+      <c r="I64" s="179"/>
+      <c r="J64" s="180"/>
+      <c r="K64" s="179"/>
+      <c r="L64" s="180"/>
+      <c r="M64" s="179"/>
+      <c r="N64" s="180"/>
+      <c r="O64" s="179"/>
+      <c r="P64" s="180"/>
+      <c r="Q64" s="179"/>
+      <c r="R64" s="180"/>
+      <c r="S64" s="179"/>
+      <c r="T64" s="180"/>
+      <c r="U64" s="179"/>
+      <c r="V64" s="180"/>
+      <c r="W64" s="179"/>
+      <c r="X64" s="180"/>
+      <c r="Y64" s="179"/>
+      <c r="Z64" s="180"/>
+      <c r="AA64" s="179"/>
+      <c r="AB64" s="180"/>
+      <c r="AC64" s="179"/>
+      <c r="AD64" s="179"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12559,783 +12071,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P26"/>
-  <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="27.42578125" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" customWidth="1"/>
-    <col min="10" max="10" width="13.140625" customWidth="1"/>
-    <col min="14" max="14" width="13.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B1" s="145">
-        <v>2015</v>
-      </c>
-      <c r="F1" s="145">
-        <v>2016</v>
-      </c>
-      <c r="J1" s="145">
-        <v>2017</v>
-      </c>
-      <c r="N1" s="145">
-        <v>2018</v>
-      </c>
-      <c r="O1" s="130"/>
-      <c r="P1" s="130"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="H2" s="139"/>
-      <c r="N2" s="130"/>
-      <c r="O2" s="130"/>
-      <c r="P2" s="130"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A3" s="70" t="s">
-        <v>46</v>
-      </c>
-      <c r="B3" s="24">
-        <v>10515760</v>
-      </c>
-      <c r="C3" s="132"/>
-      <c r="D3" s="153">
-        <v>1</v>
-      </c>
-      <c r="E3" s="133"/>
-      <c r="F3" s="151">
-        <v>20010140</v>
-      </c>
-      <c r="G3" s="130"/>
-      <c r="H3" s="153">
-        <v>1</v>
-      </c>
-      <c r="I3" s="133"/>
-      <c r="J3" s="151">
-        <v>33522620</v>
-      </c>
-      <c r="K3" s="130"/>
-      <c r="L3" s="153">
-        <v>1</v>
-      </c>
-      <c r="N3" s="151">
-        <v>47566900</v>
-      </c>
-      <c r="O3" s="130"/>
-      <c r="P3" s="153">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A4" s="135" t="s">
-        <v>47</v>
-      </c>
-      <c r="B4" s="156">
-        <v>1250</v>
-      </c>
-      <c r="C4" s="136"/>
-      <c r="D4" s="153">
-        <f>IF(B3=0,"-",B4/B3)</f>
-        <v>1.188692020358015E-4</v>
-      </c>
-      <c r="E4" s="137"/>
-      <c r="F4" s="156">
-        <v>0</v>
-      </c>
-      <c r="G4" s="135"/>
-      <c r="H4" s="153">
-        <f>IF(F3=0,"-",F4/F3)</f>
-        <v>0</v>
-      </c>
-      <c r="I4" s="137"/>
-      <c r="J4" s="156">
-        <v>0</v>
-      </c>
-      <c r="K4" s="135"/>
-      <c r="L4" s="153">
-        <f>IF(J3=0,"-",J4/J3)</f>
-        <v>0</v>
-      </c>
-      <c r="N4" s="156">
-        <v>0</v>
-      </c>
-      <c r="O4" s="135"/>
-      <c r="P4" s="153">
-        <f>IF(N3=0,"-",N4/N3)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A5" s="70" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="154">
-        <f>B3-B4</f>
-        <v>10514510</v>
-      </c>
-      <c r="C5" s="138"/>
-      <c r="D5" s="155">
-        <f>IF(B3=0,"-",B5/B3)</f>
-        <v>0.99988113079796415</v>
-      </c>
-      <c r="E5" s="133"/>
-      <c r="F5" s="154">
-        <f>F3-F4</f>
-        <v>20010140</v>
-      </c>
-      <c r="G5" s="139"/>
-      <c r="H5" s="155">
-        <f>IF(F3=0,"-",F5/F3)</f>
-        <v>1</v>
-      </c>
-      <c r="I5" s="133"/>
-      <c r="J5" s="154">
-        <f>J3-J4</f>
-        <v>33522620</v>
-      </c>
-      <c r="K5" s="139"/>
-      <c r="L5" s="155">
-        <f>IF(J3=0,"-",J5/J3)</f>
-        <v>1</v>
-      </c>
-      <c r="N5" s="154">
-        <f>N3-N4</f>
-        <v>47566900</v>
-      </c>
-      <c r="O5" s="139"/>
-      <c r="P5" s="155">
-        <f>IF(N3=0,"-",N5/N3)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="N6" s="130"/>
-      <c r="O6" s="130"/>
-      <c r="P6" s="130"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="N7" s="130"/>
-      <c r="O7" s="130"/>
-      <c r="P7" s="130"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A8" s="149" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" s="150">
-        <v>1870000</v>
-      </c>
-      <c r="C8" s="132"/>
-      <c r="D8" s="153">
-        <f>IF($B$3=0,"-",B8/$B$3)</f>
-        <v>0.17782832624555905</v>
-      </c>
-      <c r="E8" s="133"/>
-      <c r="F8" s="151">
-        <v>1440000</v>
-      </c>
-      <c r="G8" s="130"/>
-      <c r="H8" s="153">
-        <f>IF($F$3=0,"-",F8/$F$3)</f>
-        <v>7.1963514498149445E-2</v>
-      </c>
-      <c r="I8" s="133"/>
-      <c r="J8" s="151">
-        <v>1440000</v>
-      </c>
-      <c r="K8" s="130"/>
-      <c r="L8" s="153">
-        <f>IF($J$3=0,"-",J8/$J$3)</f>
-        <v>4.2956069662812749E-2</v>
-      </c>
-      <c r="N8" s="151">
-        <v>1440000</v>
-      </c>
-      <c r="O8" s="130"/>
-      <c r="P8" s="153">
-        <f>IF($N$3=0,"-",N8/$N$3)</f>
-        <v>3.0273152128896353E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A9" s="149" t="s">
-        <v>55</v>
-      </c>
-      <c r="B9" s="151">
-        <v>25000</v>
-      </c>
-      <c r="C9" s="132"/>
-      <c r="D9" s="153">
-        <f t="shared" ref="D9:D18" si="0">IF($B$3=0,"-",B9/$B$3)</f>
-        <v>2.3773840407160301E-3</v>
-      </c>
-      <c r="E9" s="133"/>
-      <c r="F9" s="151">
-        <v>25000</v>
-      </c>
-      <c r="G9" s="130"/>
-      <c r="H9" s="153">
-        <f t="shared" ref="H9:H18" si="1">IF($F$3=0,"-",F9/$F$3)</f>
-        <v>1.2493665711484278E-3</v>
-      </c>
-      <c r="I9" s="133"/>
-      <c r="J9" s="151">
-        <v>25000</v>
-      </c>
-      <c r="K9" s="130"/>
-      <c r="L9" s="153">
-        <f t="shared" ref="L9:L18" si="2">IF($J$3=0,"-",J9/$J$3)</f>
-        <v>7.4576509831272137E-4</v>
-      </c>
-      <c r="N9" s="151">
-        <v>25000</v>
-      </c>
-      <c r="O9" s="130"/>
-      <c r="P9" s="153">
-        <f t="shared" ref="P9:P18" si="3">IF($N$3=0,"-",N9/$N$3)</f>
-        <v>5.2557555779333953E-4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A10" s="36" t="s">
-        <v>54</v>
-      </c>
-      <c r="B10" s="151">
-        <v>27500</v>
-      </c>
-      <c r="C10" s="132"/>
-      <c r="D10" s="153">
-        <f t="shared" si="0"/>
-        <v>2.615122444787633E-3</v>
-      </c>
-      <c r="E10" s="133"/>
-      <c r="F10" s="151">
-        <v>27500</v>
-      </c>
-      <c r="G10" s="130"/>
-      <c r="H10" s="153">
-        <f t="shared" si="1"/>
-        <v>1.3743032282632706E-3</v>
-      </c>
-      <c r="I10" s="133"/>
-      <c r="J10" s="151">
-        <v>27500</v>
-      </c>
-      <c r="K10" s="130"/>
-      <c r="L10" s="153">
-        <f t="shared" si="2"/>
-        <v>8.2034160814399354E-4</v>
-      </c>
-      <c r="N10" s="151">
-        <v>27500</v>
-      </c>
-      <c r="O10" s="130"/>
-      <c r="P10" s="153">
-        <f t="shared" si="3"/>
-        <v>5.7813311357267339E-4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A11" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="151">
-        <v>95988</v>
-      </c>
-      <c r="C11" s="132"/>
-      <c r="D11" s="153">
-        <f t="shared" si="0"/>
-        <v>9.1280135720100113E-3</v>
-      </c>
-      <c r="E11" s="133"/>
-      <c r="F11" s="151">
-        <v>95988</v>
-      </c>
-      <c r="G11" s="130"/>
-      <c r="H11" s="153">
-        <f t="shared" si="1"/>
-        <v>4.7969679372558112E-3</v>
-      </c>
-      <c r="I11" s="133"/>
-      <c r="J11" s="151">
-        <v>95988</v>
-      </c>
-      <c r="K11" s="130"/>
-      <c r="L11" s="153">
-        <f t="shared" si="2"/>
-        <v>2.86338001027366E-3</v>
-      </c>
-      <c r="N11" s="151">
-        <v>95988</v>
-      </c>
-      <c r="O11" s="130"/>
-      <c r="P11" s="153">
-        <f t="shared" si="3"/>
-        <v>2.0179578656586827E-3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A12" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="151">
-        <v>57600</v>
-      </c>
-      <c r="C12" s="132"/>
-      <c r="D12" s="153">
-        <f t="shared" si="0"/>
-        <v>5.4774928298097336E-3</v>
-      </c>
-      <c r="E12" s="133"/>
-      <c r="F12" s="151">
-        <v>57600</v>
-      </c>
-      <c r="G12" s="130"/>
-      <c r="H12" s="153">
-        <f t="shared" si="1"/>
-        <v>2.8785405799259776E-3</v>
-      </c>
-      <c r="I12" s="133"/>
-      <c r="J12" s="151"/>
-      <c r="K12" s="130"/>
-      <c r="L12" s="153">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N12" s="151"/>
-      <c r="O12" s="130"/>
-      <c r="P12" s="153">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A13" s="152" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" s="151">
-        <v>72088</v>
-      </c>
-      <c r="C13" s="132"/>
-      <c r="D13" s="153">
-        <f t="shared" si="0"/>
-        <v>6.8552344290854867E-3</v>
-      </c>
-      <c r="E13" s="133"/>
-      <c r="F13" s="151">
-        <v>72088</v>
-      </c>
-      <c r="G13" s="130"/>
-      <c r="H13" s="153">
-        <f t="shared" si="1"/>
-        <v>3.6025734952379145E-3</v>
-      </c>
-      <c r="I13" s="133"/>
-      <c r="J13" s="151">
-        <v>72088</v>
-      </c>
-      <c r="K13" s="130"/>
-      <c r="L13" s="153">
-        <f t="shared" si="2"/>
-        <v>2.1504285762866983E-3</v>
-      </c>
-      <c r="N13" s="151">
-        <v>72088</v>
-      </c>
-      <c r="O13" s="130"/>
-      <c r="P13" s="153">
-        <f t="shared" si="3"/>
-        <v>1.5155076324082503E-3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A14" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" s="151">
-        <v>12000</v>
-      </c>
-      <c r="C14" s="132"/>
-      <c r="D14" s="153">
-        <f t="shared" si="0"/>
-        <v>1.1411443395436943E-3</v>
-      </c>
-      <c r="E14" s="133"/>
-      <c r="F14" s="151">
-        <v>12000</v>
-      </c>
-      <c r="G14" s="130"/>
-      <c r="H14" s="153">
-        <f t="shared" si="1"/>
-        <v>5.9969595415124534E-4</v>
-      </c>
-      <c r="I14" s="133"/>
-      <c r="J14" s="151">
-        <v>12000</v>
-      </c>
-      <c r="K14" s="130"/>
-      <c r="L14" s="153">
-        <f t="shared" si="2"/>
-        <v>3.5796724719010627E-4</v>
-      </c>
-      <c r="N14" s="151">
-        <v>12000</v>
-      </c>
-      <c r="O14" s="130"/>
-      <c r="P14" s="153">
-        <f t="shared" si="3"/>
-        <v>2.5227626774080295E-4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A15" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" s="151">
-        <v>15588</v>
-      </c>
-      <c r="C15" s="132"/>
-      <c r="D15" s="153">
-        <f t="shared" si="0"/>
-        <v>1.4823464970672592E-3</v>
-      </c>
-      <c r="E15" s="133"/>
-      <c r="F15" s="151">
-        <v>15588</v>
-      </c>
-      <c r="G15" s="130"/>
-      <c r="H15" s="153">
-        <f t="shared" si="1"/>
-        <v>7.7900504444246765E-4</v>
-      </c>
-      <c r="I15" s="133"/>
-      <c r="J15" s="151">
-        <v>15588</v>
-      </c>
-      <c r="K15" s="130"/>
-      <c r="L15" s="153">
-        <f t="shared" si="2"/>
-        <v>4.6499945409994803E-4</v>
-      </c>
-      <c r="N15" s="151">
-        <v>15588</v>
-      </c>
-      <c r="O15" s="130"/>
-      <c r="P15" s="153">
-        <f t="shared" si="3"/>
-        <v>3.2770687179530303E-4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A16" s="36" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16" s="151">
-        <v>42000</v>
-      </c>
-      <c r="C16" s="132"/>
-      <c r="D16" s="153">
-        <f t="shared" si="0"/>
-        <v>3.9940051884029305E-3</v>
-      </c>
-      <c r="E16" s="133"/>
-      <c r="F16" s="151">
-        <v>42000</v>
-      </c>
-      <c r="G16" s="130"/>
-      <c r="H16" s="153">
-        <f t="shared" si="1"/>
-        <v>2.0989358395293585E-3</v>
-      </c>
-      <c r="I16" s="133"/>
-      <c r="J16" s="151">
-        <v>42000</v>
-      </c>
-      <c r="K16" s="130"/>
-      <c r="L16" s="153">
-        <f t="shared" si="2"/>
-        <v>1.2528853651653719E-3</v>
-      </c>
-      <c r="N16" s="151">
-        <v>42000</v>
-      </c>
-      <c r="O16" s="130"/>
-      <c r="P16" s="153">
-        <f t="shared" si="3"/>
-        <v>8.8296693709281036E-4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A17" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" s="151">
-        <v>24000</v>
-      </c>
-      <c r="C17" s="132"/>
-      <c r="D17" s="153">
-        <f t="shared" si="0"/>
-        <v>2.2822886790873887E-3</v>
-      </c>
-      <c r="E17" s="133"/>
-      <c r="F17" s="151">
-        <v>24000</v>
-      </c>
-      <c r="G17" s="130"/>
-      <c r="H17" s="153">
-        <f t="shared" si="1"/>
-        <v>1.1993919083024907E-3</v>
-      </c>
-      <c r="I17" s="133"/>
-      <c r="J17" s="151">
-        <v>24000</v>
-      </c>
-      <c r="K17" s="130"/>
-      <c r="L17" s="153">
-        <f t="shared" si="2"/>
-        <v>7.1593449438021254E-4</v>
-      </c>
-      <c r="N17" s="151">
-        <v>24000</v>
-      </c>
-      <c r="O17" s="130"/>
-      <c r="P17" s="153">
-        <f t="shared" si="3"/>
-        <v>5.0455253548160591E-4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A18" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="B18" s="151">
-        <v>20000</v>
-      </c>
-      <c r="C18" s="132"/>
-      <c r="D18" s="153">
-        <f t="shared" si="0"/>
-        <v>1.9019072325728241E-3</v>
-      </c>
-      <c r="E18" s="133"/>
-      <c r="F18" s="151">
-        <v>20000</v>
-      </c>
-      <c r="G18" s="130"/>
-      <c r="H18" s="153">
-        <f t="shared" si="1"/>
-        <v>9.9949325691874209E-4</v>
-      </c>
-      <c r="I18" s="133"/>
-      <c r="J18" s="151">
-        <v>20000</v>
-      </c>
-      <c r="K18" s="130"/>
-      <c r="L18" s="153">
-        <f t="shared" si="2"/>
-        <v>5.9661207865017714E-4</v>
-      </c>
-      <c r="N18" s="151">
-        <v>20000</v>
-      </c>
-      <c r="O18" s="130"/>
-      <c r="P18" s="153">
-        <f t="shared" si="3"/>
-        <v>4.2046044623467161E-4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="144" t="s">
-        <v>7</v>
-      </c>
-      <c r="B19" s="143">
-        <f>SUM(B8:B18)</f>
-        <v>2261764</v>
-      </c>
-      <c r="C19" s="140"/>
-      <c r="D19" s="141">
-        <f>IF($B$3=0,"-",B19/$B$3)</f>
-        <v>0.21508326549864204</v>
-      </c>
-      <c r="E19" s="133"/>
-      <c r="F19" s="143">
-        <f>SUM(F8:F18)</f>
-        <v>1831764</v>
-      </c>
-      <c r="G19" s="142"/>
-      <c r="H19" s="141">
-        <f>IF($F$3=0,"-",F19/$F$3)</f>
-        <v>9.1541788313325143E-2</v>
-      </c>
-      <c r="I19" s="133"/>
-      <c r="J19" s="143">
-        <f>SUM(J8:J18)</f>
-        <v>1774164</v>
-      </c>
-      <c r="K19" s="142"/>
-      <c r="L19" s="141">
-        <f>IF($J$3=0,"-",J19/$J$3)</f>
-        <v>5.2924383595315642E-2</v>
-      </c>
-      <c r="N19" s="143">
-        <f>SUM(N8:N18)</f>
-        <v>1774164</v>
-      </c>
-      <c r="O19" s="142"/>
-      <c r="P19" s="141">
-        <f>IF($N$3=0,"-",N19/$N$3)</f>
-        <v>3.7298289356674494E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A21" s="70" t="s">
-        <v>48</v>
-      </c>
-      <c r="B21" s="134">
-        <f>B5-B19</f>
-        <v>8252746</v>
-      </c>
-      <c r="C21" s="132"/>
-      <c r="D21" s="146"/>
-      <c r="E21" s="133"/>
-      <c r="F21" s="134">
-        <f>F5-F19</f>
-        <v>18178376</v>
-      </c>
-      <c r="G21" s="132"/>
-      <c r="H21" s="147"/>
-      <c r="I21" s="133"/>
-      <c r="J21" s="134">
-        <f>J5-J19</f>
-        <v>31748456</v>
-      </c>
-      <c r="K21" s="132"/>
-      <c r="L21" s="147"/>
-      <c r="N21" s="134">
-        <f>N5-N19</f>
-        <v>45792736</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A22" s="70" t="s">
-        <v>49</v>
-      </c>
-      <c r="B22" s="134"/>
-      <c r="C22" s="132"/>
-      <c r="D22" s="146"/>
-      <c r="E22" s="133"/>
-      <c r="F22" s="134"/>
-      <c r="G22" s="130"/>
-      <c r="H22" s="146"/>
-      <c r="I22" s="133"/>
-      <c r="J22" s="134"/>
-      <c r="K22" s="130"/>
-      <c r="L22" s="147"/>
-      <c r="N22" s="134"/>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A23" s="70" t="s">
-        <v>50</v>
-      </c>
-      <c r="B23" s="134">
-        <f>B21-B22</f>
-        <v>8252746</v>
-      </c>
-      <c r="C23" s="132"/>
-      <c r="D23" s="146"/>
-      <c r="E23" s="133"/>
-      <c r="F23" s="134">
-        <f>F21-F22</f>
-        <v>18178376</v>
-      </c>
-      <c r="G23" s="132"/>
-      <c r="H23" s="146"/>
-      <c r="I23" s="133"/>
-      <c r="J23" s="134">
-        <f>J21-J22</f>
-        <v>31748456</v>
-      </c>
-      <c r="K23" s="132"/>
-      <c r="L23" s="147"/>
-      <c r="N23" s="134">
-        <f>N21-N22</f>
-        <v>45792736</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A24" s="70" t="s">
-        <v>51</v>
-      </c>
-      <c r="B24" s="134">
-        <v>0</v>
-      </c>
-      <c r="C24" s="132"/>
-      <c r="D24" s="146"/>
-      <c r="E24" s="133"/>
-      <c r="F24" s="134">
-        <v>0</v>
-      </c>
-      <c r="G24" s="130"/>
-      <c r="H24" s="146"/>
-      <c r="I24" s="133"/>
-      <c r="J24" s="134">
-        <v>0</v>
-      </c>
-      <c r="K24" s="130"/>
-      <c r="L24" s="147"/>
-      <c r="N24" s="134">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="70" t="s">
-        <v>52</v>
-      </c>
-      <c r="B25" s="148">
-        <f>B23-B24</f>
-        <v>8252746</v>
-      </c>
-      <c r="C25" s="138"/>
-      <c r="D25" s="146"/>
-      <c r="E25" s="133"/>
-      <c r="F25" s="148">
-        <f>F23-F24</f>
-        <v>18178376</v>
-      </c>
-      <c r="G25" s="138"/>
-      <c r="H25" s="146"/>
-      <c r="I25" s="133"/>
-      <c r="J25" s="148">
-        <f>J23-J24</f>
-        <v>31748456</v>
-      </c>
-      <c r="K25" s="138"/>
-      <c r="L25" s="146"/>
-      <c r="N25" s="148">
-        <f>N23-N24</f>
-        <v>45792736</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD64"/>
   <sheetViews>
-    <sheetView topLeftCell="G10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AC29" sqref="AC29"/>
+    <sheetView tabSelected="1" topLeftCell="G7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AB22" sqref="AB22:AB23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -13383,7 +12122,7 @@
     </row>
     <row r="2" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -13652,84 +12391,84 @@
         <v>18</v>
       </c>
       <c r="B8" s="20"/>
-      <c r="C8" s="71">
+      <c r="C8" s="70">
         <v>79500</v>
       </c>
       <c r="D8" s="21">
         <f>IF($C$13=0,"-",(C8*100)/$C$13)</f>
         <v>5.0115991729285394</v>
       </c>
-      <c r="E8" s="72">
+      <c r="E8" s="71">
         <v>121900</v>
       </c>
       <c r="F8" s="21">
         <f>IF(E$13=0,"-",(E8*100)/E$13)</f>
         <v>5.0152638464893151</v>
       </c>
-      <c r="G8" s="73">
+      <c r="G8" s="72">
         <v>143100</v>
       </c>
       <c r="H8" s="22">
         <f t="shared" ref="H8:H11" si="0">IF(G$13=0,"-",(G8*100)/G$13)</f>
         <v>5.0157377095148297</v>
       </c>
-      <c r="I8" s="74">
+      <c r="I8" s="73">
         <v>185500</v>
       </c>
       <c r="J8" s="22">
         <f t="shared" ref="J8:J11" si="1">IF(I$13=0,"-",(I8*100)/I$13)</f>
         <v>5.0197271216803498</v>
       </c>
-      <c r="K8" s="75">
+      <c r="K8" s="74">
         <v>99375</v>
       </c>
       <c r="L8" s="22">
         <f t="shared" ref="L8:L11" si="2">IF(K$13=0,"-",(K8*100)/K$13)</f>
         <v>5.0049482884965517</v>
       </c>
-      <c r="M8" s="76">
+      <c r="M8" s="75">
         <v>165625</v>
       </c>
       <c r="N8" s="22">
         <f t="shared" ref="N8:N11" si="3">IF(M$13=0,"-",(M8*100)/M$13)</f>
         <v>4.9975182135965683</v>
       </c>
-      <c r="O8" s="77">
+      <c r="O8" s="76">
         <v>165625</v>
       </c>
       <c r="P8" s="22">
         <f>IF(O$13=0,"-",(O8*100)/O$13)</f>
         <v>3.5087106057861681</v>
       </c>
-      <c r="Q8" s="78">
+      <c r="Q8" s="77">
         <v>231875</v>
       </c>
       <c r="R8" s="22">
         <f t="shared" ref="R8:R11" si="4">IF(Q$13=0,"-",(Q8*100)/Q$13)</f>
         <v>3.5137127612743773</v>
       </c>
-      <c r="S8" s="79">
+      <c r="S8" s="78">
         <v>107325</v>
       </c>
       <c r="T8" s="22">
         <f t="shared" ref="T8:T11" si="5">IF(S$13=0,"-",(S8*100)/S$13)</f>
         <v>3.4992395083947514</v>
       </c>
-      <c r="U8" s="80">
+      <c r="U8" s="79">
         <v>178875</v>
       </c>
       <c r="V8" s="22">
         <f t="shared" ref="V8:V11" si="6">IF(U$13=0,"-",(U8*100)/U$13)</f>
         <v>3.510006092840765</v>
       </c>
-      <c r="W8" s="81">
+      <c r="W8" s="80">
         <v>178875</v>
       </c>
       <c r="X8" s="22">
         <f t="shared" ref="X8:X11" si="7">IF(W$13=0,"-",(W8*100)/W$13)</f>
         <v>3.510006092840765</v>
       </c>
-      <c r="Y8" s="82">
+      <c r="Y8" s="81">
         <v>250424.99999999997</v>
       </c>
       <c r="Z8" s="22">
@@ -13752,84 +12491,84 @@
         <v>19</v>
       </c>
       <c r="B9" s="20"/>
-      <c r="C9" s="94">
+      <c r="C9" s="93">
         <v>1050000</v>
       </c>
       <c r="D9" s="21">
         <f>IF($C$13=0,"-",(C9*100)/$C$13)</f>
         <v>66.19093247264108</v>
       </c>
-      <c r="E9" s="93">
+      <c r="E9" s="92">
         <v>1610000</v>
       </c>
       <c r="F9" s="21">
         <f t="shared" ref="F9:F12" si="10">IF(E$13=0,"-",(E9*100)/E$13)</f>
         <v>66.239333821556997</v>
       </c>
-      <c r="G9" s="92">
+      <c r="G9" s="91">
         <v>1890000</v>
       </c>
       <c r="H9" s="22">
         <f t="shared" si="0"/>
         <v>66.245592389818512</v>
       </c>
-      <c r="I9" s="91">
+      <c r="I9" s="90">
         <v>2450000</v>
       </c>
       <c r="J9" s="22">
         <f t="shared" si="1"/>
         <v>66.298282739174439</v>
       </c>
-      <c r="K9" s="90">
+      <c r="K9" s="89">
         <v>1312500</v>
       </c>
       <c r="L9" s="22">
         <f t="shared" si="2"/>
         <v>66.103090602784647</v>
       </c>
-      <c r="M9" s="89">
+      <c r="M9" s="88">
         <v>2187500</v>
       </c>
       <c r="N9" s="22">
         <f t="shared" si="3"/>
         <v>66.004957538067885</v>
       </c>
-      <c r="O9" s="88">
+      <c r="O9" s="87">
         <v>3281250</v>
       </c>
       <c r="P9" s="22">
         <f t="shared" ref="P9:P11" si="11">IF(O$13=0,"-",(O9*100)/O$13)</f>
         <v>69.512191246707104</v>
       </c>
-      <c r="Q9" s="87">
+      <c r="Q9" s="86">
         <v>4593750</v>
       </c>
       <c r="R9" s="22">
         <f t="shared" si="4"/>
         <v>69.611290553548983</v>
       </c>
-      <c r="S9" s="86">
+      <c r="S9" s="85">
         <v>2126250</v>
       </c>
       <c r="T9" s="22">
         <f t="shared" si="5"/>
         <v>69.324556298386582</v>
       </c>
-      <c r="U9" s="85">
+      <c r="U9" s="84">
         <v>3543750</v>
       </c>
       <c r="V9" s="22">
         <f t="shared" si="6"/>
         <v>69.537856556279309</v>
       </c>
-      <c r="W9" s="84">
+      <c r="W9" s="83">
         <v>3543750</v>
       </c>
       <c r="X9" s="22">
         <f t="shared" si="7"/>
         <v>69.537856556279309</v>
       </c>
-      <c r="Y9" s="83">
+      <c r="Y9" s="82">
         <v>4961250</v>
       </c>
       <c r="Z9" s="22">
@@ -13852,84 +12591,84 @@
         <v>20</v>
       </c>
       <c r="B10" s="23"/>
-      <c r="C10" s="95">
+      <c r="C10" s="94">
         <v>5500</v>
       </c>
       <c r="D10" s="21">
         <f>IF($C$13=0,"-",(C10*100)/$C$13)</f>
         <v>0.34671440819002469</v>
       </c>
-      <c r="E10" s="96">
+      <c r="E10" s="95">
         <v>7000</v>
       </c>
       <c r="F10" s="21">
         <f t="shared" si="10"/>
         <v>0.28799710357198693</v>
       </c>
-      <c r="G10" s="97">
+      <c r="G10" s="96">
         <v>8000</v>
       </c>
       <c r="H10" s="22">
         <f t="shared" si="0"/>
         <v>0.28040462387224763</v>
       </c>
-      <c r="I10" s="98">
+      <c r="I10" s="97">
         <v>8000</v>
       </c>
       <c r="J10" s="22">
         <f t="shared" si="1"/>
         <v>0.21648418853607979</v>
       </c>
-      <c r="K10" s="99">
+      <c r="K10" s="98">
         <v>9000</v>
       </c>
       <c r="L10" s="22">
         <f t="shared" si="2"/>
         <v>0.4532783355619518</v>
       </c>
-      <c r="M10" s="100">
+      <c r="M10" s="99">
         <v>21000</v>
       </c>
       <c r="N10" s="22">
         <f t="shared" si="3"/>
         <v>0.63364759236545176</v>
       </c>
-      <c r="O10" s="101">
+      <c r="O10" s="100">
         <v>21000</v>
       </c>
       <c r="P10" s="22">
         <f t="shared" si="11"/>
         <v>0.44487802397892551</v>
       </c>
-      <c r="Q10" s="102">
+      <c r="Q10" s="101">
         <v>21000</v>
       </c>
       <c r="R10" s="22">
         <f t="shared" si="4"/>
         <v>0.31822304253050965</v>
       </c>
-      <c r="S10" s="103">
+      <c r="S10" s="102">
         <v>21000</v>
       </c>
       <c r="T10" s="22">
         <f t="shared" si="5"/>
         <v>0.68468697578653415</v>
       </c>
-      <c r="U10" s="104">
+      <c r="U10" s="103">
         <v>21000</v>
       </c>
       <c r="V10" s="22">
         <f t="shared" si="6"/>
         <v>0.41207618700017368</v>
       </c>
-      <c r="W10" s="105">
+      <c r="W10" s="104">
         <v>21000</v>
       </c>
       <c r="X10" s="22">
         <f t="shared" si="7"/>
         <v>0.41207618700017368</v>
       </c>
-      <c r="Y10" s="106">
+      <c r="Y10" s="105">
         <v>19000</v>
       </c>
       <c r="Z10" s="22">
@@ -13952,84 +12691,84 @@
         <v>21</v>
       </c>
       <c r="B11" s="20"/>
-      <c r="C11" s="118">
+      <c r="C11" s="117">
         <v>1320</v>
       </c>
       <c r="D11" s="21">
         <f>IF($C$13=0,"-",(C11*100)/$C$13)</f>
         <v>8.3211457965605931E-2</v>
       </c>
-      <c r="E11" s="117">
+      <c r="E11" s="116">
         <v>1680.0000000000002</v>
       </c>
       <c r="F11" s="21">
         <f t="shared" si="10"/>
         <v>6.9119304857276881E-2</v>
       </c>
-      <c r="G11" s="116">
+      <c r="G11" s="115">
         <v>1920</v>
       </c>
       <c r="H11" s="22">
         <f t="shared" si="0"/>
         <v>6.729710972933943E-2</v>
       </c>
-      <c r="I11" s="115">
+      <c r="I11" s="114">
         <v>1920</v>
       </c>
       <c r="J11" s="22">
         <f t="shared" si="1"/>
         <v>5.1956205248659154E-2</v>
       </c>
-      <c r="K11" s="114">
+      <c r="K11" s="113">
         <v>2160</v>
       </c>
       <c r="L11" s="22">
         <f t="shared" si="2"/>
         <v>0.10878680053486843</v>
       </c>
-      <c r="M11" s="113">
+      <c r="M11" s="112">
         <v>2520</v>
       </c>
       <c r="N11" s="22">
         <f t="shared" si="3"/>
         <v>7.6037711083854209E-2</v>
       </c>
-      <c r="O11" s="112">
+      <c r="O11" s="111">
         <v>2520</v>
       </c>
       <c r="P11" s="22">
         <f t="shared" si="11"/>
         <v>5.338536287747106E-2</v>
       </c>
-      <c r="Q11" s="111">
+      <c r="Q11" s="110">
         <v>2520</v>
       </c>
       <c r="R11" s="22">
         <f t="shared" si="4"/>
         <v>3.8186765103661154E-2</v>
       </c>
-      <c r="S11" s="110">
+      <c r="S11" s="109">
         <v>2520</v>
       </c>
       <c r="T11" s="22">
         <f t="shared" si="5"/>
         <v>8.2162437094384103E-2</v>
       </c>
-      <c r="U11" s="109">
+      <c r="U11" s="108">
         <v>2520</v>
       </c>
       <c r="V11" s="22">
         <f t="shared" si="6"/>
         <v>4.9449142440020841E-2</v>
       </c>
-      <c r="W11" s="108">
+      <c r="W11" s="107">
         <v>2520</v>
       </c>
       <c r="X11" s="22">
         <f t="shared" si="7"/>
         <v>4.9449142440020841E-2</v>
       </c>
-      <c r="Y11" s="107">
+      <c r="Y11" s="106">
         <v>2280</v>
       </c>
       <c r="Z11" s="22">
@@ -14052,84 +12791,84 @@
         <v>22</v>
       </c>
       <c r="B12" s="20"/>
-      <c r="C12" s="119">
+      <c r="C12" s="118">
         <v>450000</v>
       </c>
       <c r="D12" s="21">
         <f>IF($C$13=0,"-",(C12*100)/$C$13)</f>
         <v>28.367542488274751</v>
       </c>
-      <c r="E12" s="120">
+      <c r="E12" s="119">
         <v>690000</v>
       </c>
       <c r="F12" s="21">
         <f t="shared" si="10"/>
         <v>28.388285923524425</v>
       </c>
-      <c r="G12" s="121">
+      <c r="G12" s="120">
         <v>810000</v>
       </c>
       <c r="H12" s="22">
         <f>IF(G$13=0,"-",(G12*100)/G$13)</f>
         <v>28.390968167065076</v>
       </c>
-      <c r="I12" s="122">
+      <c r="I12" s="121">
         <v>1050000</v>
       </c>
       <c r="J12" s="22">
         <f>IF(I$13=0,"-",(I12*100)/I$13)</f>
         <v>28.413549745360474</v>
       </c>
-      <c r="K12" s="123">
+      <c r="K12" s="122">
         <v>562500</v>
       </c>
       <c r="L12" s="22">
         <f>IF(K$13=0,"-",(K12*100)/K$13)</f>
         <v>28.329895972621987</v>
       </c>
-      <c r="M12" s="124">
+      <c r="M12" s="123">
         <v>937500</v>
       </c>
       <c r="N12" s="22">
         <f>IF(M$13=0,"-",(M12*100)/M$13)</f>
         <v>28.287838944886239</v>
       </c>
-      <c r="O12" s="125">
+      <c r="O12" s="124">
         <v>1250000</v>
       </c>
       <c r="P12" s="22">
         <f>IF(O$13=0,"-",(O12*100)/O$13)</f>
         <v>26.480834760650328</v>
       </c>
-      <c r="Q12" s="126">
+      <c r="Q12" s="125">
         <v>1750000</v>
       </c>
       <c r="R12" s="22">
         <f>IF(Q$13=0,"-",(Q12*100)/Q$13)</f>
         <v>26.518586877542468</v>
       </c>
-      <c r="S12" s="127">
+      <c r="S12" s="126">
         <v>810000</v>
       </c>
       <c r="T12" s="22">
         <f>IF(S$13=0,"-",(S12*100)/S$13)</f>
         <v>26.409354780337747</v>
       </c>
-      <c r="U12" s="128">
+      <c r="U12" s="127">
         <v>1350000</v>
       </c>
       <c r="V12" s="22">
         <f>IF(U$13=0,"-",(U12*100)/U$13)</f>
         <v>26.490612021439734</v>
       </c>
-      <c r="W12" s="129">
+      <c r="W12" s="128">
         <v>1350000</v>
       </c>
       <c r="X12" s="22">
         <f>IF(W$13=0,"-",(W12*100)/W$13)</f>
         <v>26.490612021439734</v>
       </c>
-      <c r="Y12" s="131">
+      <c r="Y12" s="129">
         <v>1890000</v>
       </c>
       <c r="Z12" s="22">
@@ -14810,7 +13549,7 @@
     </row>
     <row r="23" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A23" s="43" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B23" s="23"/>
       <c r="C23" s="15">

--- a/Business Plan Documents/YPS Profit and Loss Projection.xlsx
+++ b/Business Plan Documents/YPS Profit and Loss Projection.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7935" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7935"/>
   </bookViews>
   <sheets>
     <sheet name="PnL projection (Year 1)" sheetId="1" r:id="rId1"/>
@@ -1677,11 +1677,11 @@
   </sheetPr>
   <dimension ref="A1:AC66"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="7" topLeftCell="P29" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="1" ySplit="7" topLeftCell="B26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="W43" sqref="W43"/>
+      <selection pane="bottomRight" activeCell="A28" sqref="A28:AA28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3382,96 +3382,96 @@
       </c>
       <c r="B28" s="23"/>
       <c r="C28" s="24">
-        <v>7999</v>
+        <v>10000</v>
       </c>
       <c r="D28" s="22">
         <f t="shared" si="14"/>
-        <v>4.966780502949395</v>
+        <v>6.2092517851598883</v>
       </c>
       <c r="E28" s="24">
-        <v>7999</v>
+        <v>10000</v>
       </c>
       <c r="F28" s="22">
         <f t="shared" si="15"/>
-        <v>2.9823645650796018</v>
+        <v>3.728421759069386</v>
       </c>
       <c r="G28" s="24">
-        <v>7999</v>
+        <v>10000</v>
       </c>
       <c r="H28" s="22">
         <f t="shared" si="16"/>
-        <v>2.9686398218593433</v>
+        <v>3.7112636852848393</v>
       </c>
       <c r="I28" s="24">
-        <v>7999</v>
+        <v>10000</v>
       </c>
       <c r="J28" s="22">
         <f t="shared" si="17"/>
-        <v>2.1344896597731822</v>
+        <v>2.6684456304202802</v>
       </c>
       <c r="K28" s="24">
-        <v>7999</v>
+        <v>10000</v>
       </c>
       <c r="L28" s="22">
         <f t="shared" si="18"/>
-        <v>1.9882430433864011</v>
+        <v>2.4856145060462573</v>
       </c>
       <c r="M28" s="24">
-        <v>7999</v>
+        <v>10000</v>
       </c>
       <c r="N28" s="22">
         <f t="shared" si="19"/>
-        <v>1.1851687224506426</v>
+        <v>1.4816461088269066</v>
       </c>
       <c r="O28" s="24">
-        <v>7999</v>
+        <v>10000</v>
       </c>
       <c r="P28" s="22">
         <f t="shared" si="20"/>
-        <v>0.8365623447590661</v>
+        <v>1.045833660156352</v>
       </c>
       <c r="Q28" s="24">
-        <v>7999</v>
+        <v>10000</v>
       </c>
       <c r="R28" s="22">
         <f t="shared" si="21"/>
-        <v>0.60055934080372397</v>
+        <v>0.75079302513279655</v>
       </c>
       <c r="S28" s="24">
-        <v>7999</v>
+        <v>10000</v>
       </c>
       <c r="T28" s="22">
         <f t="shared" si="22"/>
-        <v>0.87078162421075544</v>
+        <v>1.088613106901807</v>
       </c>
       <c r="U28" s="24">
-        <v>7999</v>
+        <v>10000</v>
       </c>
       <c r="V28" s="22">
         <f t="shared" si="23"/>
-        <v>0.52631925253322809</v>
+        <v>0.65798131333070142</v>
       </c>
       <c r="W28" s="24">
-        <v>7999</v>
+        <v>10000</v>
       </c>
       <c r="X28" s="22">
         <f t="shared" ref="X28:X36" si="27">IF(W$13=0,"-",(W28*100)/W$13)</f>
-        <v>0.52631925253322809</v>
+        <v>0.65798131333070142</v>
       </c>
       <c r="Y28" s="24">
-        <v>7999</v>
+        <v>10000</v>
       </c>
       <c r="Z28" s="22">
         <f t="shared" si="24"/>
-        <v>0.37753214144122033</v>
+        <v>0.47197417357322208</v>
       </c>
       <c r="AA28" s="24">
         <f>SUM(C28,E28,G28,I28,K28,M28,O28,Q28,S28,U28,W28,Y28)</f>
-        <v>95988</v>
+        <v>120000</v>
       </c>
       <c r="AB28" s="22">
         <f t="shared" si="25"/>
-        <v>0.9128013572010012</v>
+        <v>1.1411443395436944</v>
       </c>
     </row>
     <row r="29" spans="1:29" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -4161,107 +4161,107 @@
       <c r="B36" s="26"/>
       <c r="C36" s="27">
         <f>SUM(C25:C35)</f>
-        <v>218688.68333333335</v>
+        <v>220689.68333333335</v>
       </c>
       <c r="D36" s="22">
         <f t="shared" si="14"/>
-        <v>135.78930973817657</v>
+        <v>137.03178102038706</v>
       </c>
       <c r="E36" s="27">
         <f>SUM(E25:E35)</f>
-        <v>208688.68333333335</v>
+        <v>210689.68333333335</v>
       </c>
       <c r="F36" s="22">
         <f t="shared" si="15"/>
-        <v>77.807942781154082</v>
+        <v>78.553999975143867</v>
       </c>
       <c r="G36" s="27">
         <f>SUM(G25:G35)</f>
-        <v>253688.68333333335</v>
+        <v>255689.68333333335</v>
       </c>
       <c r="H36" s="22">
         <f t="shared" si="16"/>
-        <v>94.150559782272538</v>
+        <v>94.893183645698031</v>
       </c>
       <c r="I36" s="27">
         <f>SUM(I25:I35)</f>
-        <v>248688.68333333335</v>
+        <v>250689.68333333335</v>
       </c>
       <c r="J36" s="22">
         <f t="shared" si="17"/>
-        <v>66.361223037580615</v>
+        <v>66.895179008227714</v>
       </c>
       <c r="K36" s="27">
         <f>SUM(K25:K35)</f>
-        <v>248688.68333333335</v>
+        <v>250689.68333333335</v>
       </c>
       <c r="L36" s="22">
         <f t="shared" si="18"/>
-        <v>61.814419878287751</v>
+        <v>62.311791340947607</v>
       </c>
       <c r="M36" s="27">
         <f>SUM(M25:M35)</f>
-        <v>181188.68333333332</v>
+        <v>183189.68333333332</v>
       </c>
       <c r="N36" s="22">
         <f t="shared" si="19"/>
-        <v>26.845750762430391</v>
+        <v>27.142228148806655</v>
       </c>
       <c r="O36" s="27">
         <f>SUM(O25:O35)</f>
-        <v>148688.68333333332</v>
+        <v>150689.68333333332</v>
       </c>
       <c r="P36" s="22">
         <f t="shared" si="20"/>
-        <v>15.550362991432879</v>
+        <v>15.759634306830163</v>
       </c>
       <c r="Q36" s="27">
         <f>SUM(Q25:Q35)</f>
-        <v>148688.68333333332</v>
+        <v>150689.68333333332</v>
       </c>
       <c r="R36" s="22">
         <f t="shared" si="21"/>
-        <v>11.163442636284575</v>
+        <v>11.313676320613647</v>
       </c>
       <c r="S36" s="27">
         <f>SUM(S25:S35)</f>
-        <v>153688.68333333332</v>
+        <v>155689.68333333332</v>
       </c>
       <c r="T36" s="22">
         <f t="shared" si="22"/>
-        <v>16.730751505914796</v>
+        <v>16.94858298860585</v>
       </c>
       <c r="U36" s="27">
         <f>SUM(U25:U35)</f>
-        <v>148688.68333333332</v>
+        <v>150689.68333333332</v>
       </c>
       <c r="V36" s="22">
         <f t="shared" si="23"/>
-        <v>9.783437513707943</v>
+        <v>9.9150995745054171</v>
       </c>
       <c r="W36" s="27">
         <f>SUM(W25:W35)</f>
-        <v>148688.68333333332</v>
+        <v>150689.68333333332</v>
       </c>
       <c r="X36" s="22">
         <f t="shared" si="27"/>
-        <v>9.783437513707943</v>
+        <v>9.9150995745054171</v>
       </c>
       <c r="Y36" s="27">
         <f>SUM(Y25:Y35)</f>
-        <v>153688.68333333332</v>
+        <v>155689.68333333332</v>
       </c>
       <c r="Z36" s="22">
         <f t="shared" si="24"/>
-        <v>7.2537089303806619</v>
+        <v>7.3481509625126638</v>
       </c>
       <c r="AA36" s="27">
         <f>SUM(AA25:AA35)</f>
-        <v>2261764.2000000002</v>
+        <v>2285776.2000000002</v>
       </c>
       <c r="AB36" s="22">
         <f t="shared" si="25"/>
-        <v>21.50832845177144</v>
+        <v>21.736671434114132</v>
       </c>
     </row>
     <row r="37" spans="1:28" s="18" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4301,107 +4301,107 @@
       <c r="B38" s="20"/>
       <c r="C38" s="21">
         <f>C22-C36</f>
-        <v>-58888.683333333349</v>
+        <v>-60889.683333333349</v>
       </c>
       <c r="D38" s="22">
         <f>IF(C13=0,"-",(C38*100)/C13)</f>
-        <v>-36.565466211321542</v>
+        <v>-37.807937493532037</v>
       </c>
       <c r="E38" s="21">
         <f>E22-E36</f>
-        <v>59521.316666666651</v>
+        <v>57520.316666666651</v>
       </c>
       <c r="F38" s="22">
         <f>IF(E13=0,"-",(E38*100)/E13)</f>
-        <v>22.192057218845925</v>
+        <v>21.44600002485614</v>
       </c>
       <c r="G38" s="21">
         <f>G22-G36</f>
-        <v>15761.316666666651</v>
+        <v>13760.316666666651</v>
       </c>
       <c r="H38" s="22">
         <f>IF(G13=0,"-",(G38*100)/G13)</f>
-        <v>5.849440217727464</v>
+        <v>5.1068163543019676</v>
       </c>
       <c r="I38" s="21">
         <f>I22-I36</f>
-        <v>126061.31666666665</v>
+        <v>124060.31666666665</v>
       </c>
       <c r="J38" s="22">
         <f>IF(I13=0,"-",(I38*100)/I13)</f>
-        <v>33.638776962419385</v>
+        <v>33.104820991772286</v>
       </c>
       <c r="K38" s="21">
         <f>K22-K36</f>
-        <v>153626.31666666665</v>
+        <v>151625.31666666665</v>
       </c>
       <c r="L38" s="22">
         <f>IF(K13=0,"-",(K38*100)/K13)</f>
-        <v>38.185580121712249</v>
+        <v>37.688208659052393</v>
       </c>
       <c r="M38" s="21">
         <f>M22-M36</f>
-        <v>493736.31666666665</v>
+        <v>491735.31666666665</v>
       </c>
       <c r="N38" s="22">
         <f>IF(M13=0,"-",(M38*100)/M13)</f>
-        <v>73.154249237569601</v>
+        <v>72.857771851193334</v>
       </c>
       <c r="O38" s="21">
         <f>O22-O36</f>
-        <v>807486.31666666665</v>
+        <v>805485.31666666665</v>
       </c>
       <c r="P38" s="22">
         <f>IF(O13=0,"-",(O38*100)/O13)</f>
-        <v>84.449637008567123</v>
+        <v>84.240365693169835</v>
       </c>
       <c r="Q38" s="21">
         <f>Q22-Q36</f>
-        <v>1183236.3166666667</v>
+        <v>1181235.3166666667</v>
       </c>
       <c r="R38" s="22">
         <f>IF(Q13=0,"-",(Q38*100)/Q13)</f>
-        <v>88.836557363715428</v>
+        <v>88.686323679386362</v>
       </c>
       <c r="S38" s="21">
         <f>S22-S36</f>
-        <v>764911.31666666665</v>
+        <v>762910.31666666665</v>
       </c>
       <c r="T38" s="22">
         <f>IF(S13=0,"-",(S38*100)/S13)</f>
-        <v>83.269248494085204</v>
+        <v>83.05141701139415</v>
       </c>
       <c r="U38" s="21">
         <f>U22-U36</f>
-        <v>1371111.3166666667</v>
+        <v>1369110.3166666667</v>
       </c>
       <c r="V38" s="22">
         <f>IF(U13=0,"-",(U38*100)/U13)</f>
-        <v>90.216562486292048</v>
+        <v>90.084900425494581</v>
       </c>
       <c r="W38" s="21">
         <f>W22-W36</f>
-        <v>1371111.3166666667</v>
+        <v>1369110.3166666667</v>
       </c>
       <c r="X38" s="22">
         <f>IF(W13=0,"-",(W38*100)/W13)</f>
-        <v>90.216562486292048</v>
+        <v>90.084900425494581</v>
       </c>
       <c r="Y38" s="21">
         <f>Y22-Y36</f>
-        <v>1965071.3166666667</v>
+        <v>1963070.3166666667</v>
       </c>
       <c r="Z38" s="22">
         <f>IF(Y13=0,"-",(Y38*100)/Y13)</f>
-        <v>92.746291069619332</v>
+        <v>92.651849037487324</v>
       </c>
       <c r="AA38" s="21">
         <f>AA22-AA36</f>
-        <v>8252745.7999999998</v>
+        <v>8228733.7999999998</v>
       </c>
       <c r="AB38" s="22">
         <f>IF(AA13=0,"-",(AA38*100)/AA13)</f>
-        <v>78.479784628024987</v>
+        <v>78.251441645682291</v>
       </c>
     </row>
     <row r="39" spans="1:28" s="48" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
@@ -4580,7 +4580,7 @@
   <dimension ref="A1:AD68"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="AD25" sqref="AD25"/>
+      <selection activeCell="AB25" sqref="A25:AB25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6256,96 +6256,96 @@
       </c>
       <c r="B25" s="23"/>
       <c r="C25" s="24">
-        <v>7999</v>
+        <v>10000</v>
       </c>
       <c r="D25" s="22">
         <f t="shared" si="14"/>
-        <v>1.2574276102744679</v>
+        <v>1.5719810104693934</v>
       </c>
       <c r="E25" s="24">
-        <v>7999</v>
+        <v>10000</v>
       </c>
       <c r="F25" s="22">
         <f t="shared" si="15"/>
-        <v>0.82044391564782149</v>
+        <v>1.0256831049478954</v>
       </c>
       <c r="G25" s="24">
-        <v>7999</v>
+        <v>10000</v>
       </c>
       <c r="H25" s="22">
         <f t="shared" si="16"/>
-        <v>0.69879791732187158</v>
+        <v>0.87360659747702418</v>
       </c>
       <c r="I25" s="24">
-        <v>7999</v>
+        <v>10000</v>
       </c>
       <c r="J25" s="22">
         <f t="shared" si="17"/>
-        <v>0.53987473340352587</v>
+        <v>0.67492778272724818</v>
       </c>
       <c r="K25" s="24">
-        <v>7999</v>
+        <v>10000</v>
       </c>
       <c r="L25" s="22">
         <f t="shared" si="18"/>
-        <v>1.0018411131846248</v>
+        <v>1.2524579487243717</v>
       </c>
       <c r="M25" s="24">
-        <v>7999</v>
+        <v>10000</v>
       </c>
       <c r="N25" s="22">
         <f t="shared" si="19"/>
-        <v>0.59904590014154224</v>
+        <v>0.74890098780040293</v>
       </c>
       <c r="O25" s="24">
-        <v>7999</v>
+        <v>10000</v>
       </c>
       <c r="P25" s="22">
         <f t="shared" si="20"/>
-        <v>0.42149025972315168</v>
+        <v>0.52692869074028215</v>
       </c>
       <c r="Q25" s="24">
-        <v>7999</v>
+        <v>10000</v>
       </c>
       <c r="R25" s="22">
         <f t="shared" si="21"/>
-        <v>0.30192995104348713</v>
+        <v>0.37745962125701604</v>
       </c>
       <c r="S25" s="24">
-        <v>7999</v>
+        <v>10000</v>
       </c>
       <c r="T25" s="22">
         <f t="shared" si="22"/>
-        <v>0.5831279980171169</v>
+        <v>0.7290011226617289</v>
       </c>
       <c r="U25" s="24">
-        <v>7999</v>
+        <v>10000</v>
       </c>
       <c r="V25" s="22">
         <f t="shared" si="23"/>
-        <v>0.35183018552565604</v>
+        <v>0.43984271224610078</v>
       </c>
       <c r="W25" s="24">
-        <v>7999</v>
+        <v>10000</v>
       </c>
       <c r="X25" s="22">
-        <f t="shared" ref="X25:X33" si="27">IF(W$13=0,"-",(W25*100)/W$13)</f>
-        <v>0.35183018552565604</v>
+        <f t="shared" ref="X25" si="27">IF(W$13=0,"-",(W25*100)/W$13)</f>
+        <v>0.43984271224610078</v>
       </c>
       <c r="Y25" s="24">
-        <v>7999</v>
+        <v>10000</v>
       </c>
       <c r="Z25" s="22">
         <f t="shared" si="24"/>
-        <v>0.25208786360341623</v>
+        <v>0.31514922315716493</v>
       </c>
       <c r="AA25" s="24">
         <f>SUM(C25,E25,G25,I25,K25,M25,O25,Q25,S25,U25,W25,Y25)</f>
-        <v>95988</v>
+        <v>120000</v>
       </c>
       <c r="AB25" s="22">
         <f t="shared" si="25"/>
-        <v>0.47969679372558111</v>
+        <v>0.59969595415124533</v>
       </c>
       <c r="AC25" s="18"/>
       <c r="AD25" s="18"/>
@@ -6429,7 +6429,7 @@
         <v>4800</v>
       </c>
       <c r="X26" s="22">
-        <f t="shared" si="27"/>
+        <f t="shared" ref="X25:X33" si="28">IF(W$13=0,"-",(W26*100)/W$13)</f>
         <v>0.21112450187812837</v>
       </c>
       <c r="Y26" s="24">
@@ -6473,7 +6473,7 @@
         <v>6007.35</v>
       </c>
       <c r="H27" s="22">
-        <f t="shared" ref="H27:H31" si="28">IF(G$13=0,"-",(G27*100)/G$13)</f>
+        <f t="shared" ref="H27:H31" si="29">IF(G$13=0,"-",(G27*100)/G$13)</f>
         <v>0.52480605933536006</v>
       </c>
       <c r="I27" s="57">
@@ -6529,7 +6529,7 @@
         <v>6007.35</v>
       </c>
       <c r="X27" s="22">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0.26422891174116137</v>
       </c>
       <c r="Y27" s="57">
@@ -6573,7 +6573,7 @@
         <v>1000</v>
       </c>
       <c r="H28" s="22">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>8.7360659747702421E-2</v>
       </c>
       <c r="I28" s="24">
@@ -6629,7 +6629,7 @@
         <v>1000</v>
       </c>
       <c r="X28" s="22">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>4.3984271224610079E-2</v>
       </c>
       <c r="Y28" s="24">
@@ -6673,7 +6673,7 @@
         <v>1299</v>
       </c>
       <c r="H29" s="22">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.11348149701226544</v>
       </c>
       <c r="I29" s="24">
@@ -6729,7 +6729,7 @@
         <v>1299</v>
       </c>
       <c r="X29" s="22">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>5.7135568320768493E-2</v>
       </c>
       <c r="Y29" s="24">
@@ -6773,7 +6773,7 @@
         <v>3500</v>
       </c>
       <c r="H30" s="22">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.30576230911695845</v>
       </c>
       <c r="I30" s="24">
@@ -6829,7 +6829,7 @@
         <v>3500</v>
       </c>
       <c r="X30" s="22">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0.15394494928613528</v>
       </c>
       <c r="Y30" s="24">
@@ -6840,7 +6840,7 @@
         <v>0.11030222810500773</v>
       </c>
       <c r="AA30" s="24">
-        <f t="shared" ref="AA30:AA32" si="29">SUM(C30,E30,G30,I30,K30,M30,O30,Q30,S30,U30,W30,Y30)</f>
+        <f t="shared" ref="AA30:AA32" si="30">SUM(C30,E30,G30,I30,K30,M30,O30,Q30,S30,U30,W30,Y30)</f>
         <v>42000</v>
       </c>
       <c r="AB30" s="22">
@@ -6873,7 +6873,7 @@
         <v>2000</v>
       </c>
       <c r="H31" s="22">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.17472131949540484</v>
       </c>
       <c r="I31" s="24">
@@ -6934,7 +6934,7 @@
         <v>6.3029844631432977E-2</v>
       </c>
       <c r="AA31" s="24">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>24000</v>
       </c>
       <c r="AB31" s="22">
@@ -7023,7 +7023,7 @@
         <v>0</v>
       </c>
       <c r="X32" s="22">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="Y32" s="24">
@@ -7034,7 +7034,7 @@
         <v>0.15757461157858246</v>
       </c>
       <c r="AA32" s="24">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>20000</v>
       </c>
       <c r="AB32" s="22">
@@ -7051,107 +7051,107 @@
       <c r="B33" s="26"/>
       <c r="C33" s="27">
         <f>SUM(C22:C32)</f>
-        <v>148688.68333333332</v>
+        <v>150689.68333333332</v>
       </c>
       <c r="D33" s="22">
         <f t="shared" si="14"/>
-        <v>23.373578667169699</v>
+        <v>23.688132067364624</v>
       </c>
       <c r="E33" s="27">
         <f>SUM(E22:E32)</f>
-        <v>148688.68333333332</v>
+        <v>150689.68333333332</v>
       </c>
       <c r="F33" s="22">
         <f t="shared" si="15"/>
-        <v>15.250747039194769</v>
+        <v>15.455986228494844</v>
       </c>
       <c r="G33" s="27">
         <f>SUM(G22:G32)</f>
-        <v>153688.68333333332</v>
+        <v>155689.68333333332</v>
       </c>
       <c r="H33" s="22">
         <f t="shared" si="16"/>
-        <v>13.426344771755716</v>
+        <v>13.601153451910868</v>
       </c>
       <c r="I33" s="27">
         <f>SUM(I22:I32)</f>
-        <v>148688.68333333332</v>
+        <v>150689.68333333332</v>
       </c>
       <c r="J33" s="22">
         <f t="shared" si="17"/>
-        <v>10.035412335880061</v>
+        <v>10.170465385203782</v>
       </c>
       <c r="K33" s="27">
         <f>SUM(K22:K32)</f>
-        <v>148688.68333333332</v>
+        <v>150689.68333333332</v>
       </c>
       <c r="L33" s="22">
         <f t="shared" si="18"/>
-        <v>18.622632332619432</v>
+        <v>18.873249168159177</v>
       </c>
       <c r="M33" s="27">
         <f>SUM(M22:M32)</f>
-        <v>181188.68333333332</v>
+        <v>183189.68333333332</v>
       </c>
       <c r="N33" s="22">
         <f t="shared" si="19"/>
-        <v>13.569238392658772</v>
+        <v>13.719093480317634</v>
       </c>
       <c r="O33" s="27">
         <f>SUM(O22:O32)</f>
-        <v>148688.68333333332</v>
+        <v>150689.68333333332</v>
       </c>
       <c r="P33" s="22">
         <f t="shared" si="20"/>
-        <v>7.8348333236729735</v>
+        <v>7.9402717546901034</v>
       </c>
       <c r="Q33" s="27">
         <f>SUM(Q22:Q32)</f>
-        <v>148688.68333333332</v>
+        <v>150689.68333333332</v>
       </c>
       <c r="R33" s="22">
         <f t="shared" si="21"/>
-        <v>5.6123974096204385</v>
+        <v>5.6879270798339681</v>
       </c>
       <c r="S33" s="27">
         <f>SUM(S22:S32)</f>
-        <v>153688.68333333332</v>
+        <v>155689.68333333332</v>
       </c>
       <c r="T33" s="22">
         <f t="shared" si="22"/>
-        <v>11.203922269040293</v>
+        <v>11.349795393684905</v>
       </c>
       <c r="U33" s="27">
         <f>SUM(U22:U32)</f>
-        <v>148688.68333333332</v>
+        <v>150689.68333333332</v>
       </c>
       <c r="V33" s="22">
         <f t="shared" si="23"/>
-        <v>6.5399633757634934</v>
+        <v>6.6279759024839375</v>
       </c>
       <c r="W33" s="27">
         <f>SUM(W22:W32)</f>
-        <v>148688.68333333332</v>
+        <v>150689.68333333332</v>
       </c>
       <c r="X33" s="22">
-        <f t="shared" si="27"/>
-        <v>6.5399633757634934</v>
+        <f t="shared" si="28"/>
+        <v>6.6279759024839375</v>
       </c>
       <c r="Y33" s="27">
         <f>SUM(Y22:Y32)</f>
-        <v>153688.68333333332</v>
+        <v>155689.68333333332</v>
       </c>
       <c r="Z33" s="22">
         <f t="shared" si="24"/>
-        <v>4.8434869160547516</v>
+        <v>4.9065482756085004</v>
       </c>
       <c r="AA33" s="27">
         <f>SUM(AA22:AA32)</f>
-        <v>1831764.2</v>
+        <v>1855776.2</v>
       </c>
       <c r="AB33" s="22">
         <f t="shared" si="25"/>
-        <v>9.1541798308257718</v>
+        <v>9.2741789912514356</v>
       </c>
       <c r="AC33" s="18"/>
       <c r="AD33" s="18"/>
@@ -7195,107 +7195,107 @@
       <c r="B35" s="20"/>
       <c r="C35" s="21">
         <f>C19-C33</f>
-        <v>487451.31666666665</v>
+        <v>485450.31666666665</v>
       </c>
       <c r="D35" s="22">
         <f>IF(C13=0,"-",(C35*100)/C13)</f>
-        <v>76.62642133283029</v>
+        <v>76.311867932635366</v>
       </c>
       <c r="E35" s="21">
         <f>E19-E33</f>
-        <v>826271.31666666665</v>
+        <v>824270.31666666665</v>
       </c>
       <c r="F35" s="22">
         <f>IF(E13=0,"-",(E35*100)/E13)</f>
-        <v>84.749252960805237</v>
+        <v>84.544013771505163</v>
       </c>
       <c r="G35" s="21">
         <f>G19-G33</f>
-        <v>990991.31666666665</v>
+        <v>988990.31666666665</v>
       </c>
       <c r="H35" s="22">
         <f>IF(G13=0,"-",(G35*100)/G13)</f>
-        <v>86.573655228244291</v>
+        <v>86.398846548089139</v>
       </c>
       <c r="I35" s="21">
         <f>I19-I33</f>
-        <v>1332951.3166666667</v>
+        <v>1330950.3166666667</v>
       </c>
       <c r="J35" s="22">
         <f>IF(I13=0,"-",(I35*100)/I13)</f>
-        <v>89.964587664119946</v>
+        <v>89.829534614796216</v>
       </c>
       <c r="K35" s="21">
         <f>K19-K33</f>
-        <v>649741.31666666665</v>
+        <v>647740.31666666665</v>
       </c>
       <c r="L35" s="22">
         <f>IF(K13=0,"-",(K35*100)/K13)</f>
-        <v>81.377367667380568</v>
+        <v>81.126750831840823</v>
       </c>
       <c r="M35" s="21">
         <f>M19-M33</f>
-        <v>1154101.3166666667</v>
+        <v>1152100.3166666667</v>
       </c>
       <c r="N35" s="22">
         <f>IF(M13=0,"-",(M35*100)/M13)</f>
-        <v>86.430761607341225</v>
+        <v>86.280906519682375</v>
       </c>
       <c r="O35" s="21">
         <f>O19-O33</f>
-        <v>1749101.3166666667</v>
+        <v>1747100.3166666667</v>
       </c>
       <c r="P35" s="22">
         <f>IF(O13=0,"-",(O35*100)/O13)</f>
-        <v>92.165166676327019</v>
+        <v>92.059728245309884</v>
       </c>
       <c r="Q35" s="21">
         <f>Q19-Q33</f>
-        <v>2500601.3166666669</v>
+        <v>2498600.3166666669</v>
       </c>
       <c r="R35" s="22">
         <f>IF(Q13=0,"-",(Q35*100)/Q13)</f>
-        <v>94.387602590379572</v>
+        <v>94.312072920166045</v>
       </c>
       <c r="S35" s="21">
         <f>S19-S33</f>
-        <v>1218051.3166666667</v>
+        <v>1216050.3166666667</v>
       </c>
       <c r="T35" s="22">
         <f>IF(S13=0,"-",(S35*100)/S13)</f>
-        <v>88.796077730959709</v>
+        <v>88.6502046063151</v>
       </c>
       <c r="U35" s="21">
         <f>U19-U33</f>
-        <v>2124851.3166666669</v>
+        <v>2122850.3166666669</v>
       </c>
       <c r="V35" s="22">
         <f>IF(U13=0,"-",(U35*100)/U13)</f>
-        <v>93.460036624236508</v>
+        <v>93.372024097516075</v>
       </c>
       <c r="W35" s="21">
         <f>W19-W33</f>
-        <v>2124851.3166666669</v>
+        <v>2122850.3166666669</v>
       </c>
       <c r="X35" s="22">
         <f>IF(W13=0,"-",(W35*100)/W13)</f>
-        <v>93.460036624236508</v>
+        <v>93.372024097516075</v>
       </c>
       <c r="Y35" s="21">
         <f>Y19-Y33</f>
-        <v>3019411.3166666669</v>
+        <v>3017410.3166666669</v>
       </c>
       <c r="Z35" s="22">
         <f>IF(Y13=0,"-",(Y35*100)/Y13)</f>
-        <v>95.156513083945256</v>
+        <v>95.0934517243915</v>
       </c>
       <c r="AA35" s="21">
         <f>AA19-AA33</f>
-        <v>18178375.800000001</v>
+        <v>18154363.800000001</v>
       </c>
       <c r="AB35" s="22">
         <f>IF(AA13=0,"-",(AA35*100)/AA13)</f>
-        <v>90.845820169174232</v>
+        <v>90.725821008748568</v>
       </c>
       <c r="AC35" s="18"/>
       <c r="AD35" s="18"/>
@@ -8429,8 +8429,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD64"/>
   <sheetViews>
-    <sheetView topLeftCell="J16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AC32" sqref="AC32"/>
+    <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25:AB25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -10046,101 +10046,101 @@
       <c r="AD24" s="146"/>
     </row>
     <row r="25" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A25" s="166" t="s">
+      <c r="A25" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="B25" s="153"/>
-      <c r="C25" s="167">
-        <v>7999</v>
-      </c>
-      <c r="D25" s="151">
+      <c r="B25" s="23"/>
+      <c r="C25" s="24">
+        <v>10000</v>
+      </c>
+      <c r="D25" s="22">
         <f t="shared" si="14"/>
-        <v>0.83910288687479018</v>
-      </c>
-      <c r="E25" s="167">
-        <v>7999</v>
-      </c>
-      <c r="F25" s="151">
+        <v>1.0490097348103391</v>
+      </c>
+      <c r="E25" s="24">
+        <v>10000</v>
+      </c>
+      <c r="F25" s="22">
         <f t="shared" si="15"/>
-        <v>0.54765914910515001</v>
-      </c>
-      <c r="G25" s="167">
-        <v>7999</v>
-      </c>
-      <c r="H25" s="151">
+        <v>0.68465951882129017</v>
+      </c>
+      <c r="G25" s="24">
+        <v>10000</v>
+      </c>
+      <c r="H25" s="22">
         <f t="shared" si="16"/>
-        <v>0.46653913002904568</v>
-      </c>
-      <c r="I25" s="167">
-        <v>7999</v>
-      </c>
-      <c r="J25" s="151">
+        <v>0.5832468183886057</v>
+      </c>
+      <c r="I25" s="24">
+        <v>10000</v>
+      </c>
+      <c r="J25" s="22">
         <f t="shared" si="17"/>
-        <v>0.34769492910483446</v>
-      </c>
-      <c r="K25" s="167">
-        <v>7999</v>
-      </c>
-      <c r="L25" s="151">
+        <v>0.43467299550548122</v>
+      </c>
+      <c r="K25" s="24">
+        <v>10000</v>
+      </c>
+      <c r="L25" s="22">
         <f t="shared" si="18"/>
-        <v>0.55879620250511708</v>
-      </c>
-      <c r="M25" s="167">
-        <v>7999</v>
-      </c>
-      <c r="N25" s="151">
+        <v>0.69858257595339057</v>
+      </c>
+      <c r="M25" s="24">
+        <v>10000</v>
+      </c>
+      <c r="N25" s="22">
         <f t="shared" si="19"/>
-        <v>0.33461198980979112</v>
-      </c>
-      <c r="O25" s="167">
-        <v>7999</v>
-      </c>
-      <c r="P25" s="151">
+        <v>0.41831727692185416</v>
+      </c>
+      <c r="O25" s="24">
+        <v>10000</v>
+      </c>
+      <c r="P25" s="22">
         <f t="shared" si="20"/>
-        <v>0.23505523019191721</v>
-      </c>
-      <c r="Q25" s="167">
-        <v>7999</v>
-      </c>
-      <c r="R25" s="151">
+        <v>0.29385576971111038</v>
+      </c>
+      <c r="Q25" s="24">
+        <v>10000</v>
+      </c>
+      <c r="R25" s="22">
         <f t="shared" si="21"/>
-        <v>0.16819710118110154</v>
-      </c>
-      <c r="S25" s="167">
-        <v>7999</v>
-      </c>
-      <c r="T25" s="151">
+        <v>0.21027266055894678</v>
+      </c>
+      <c r="S25" s="24">
+        <v>10000</v>
+      </c>
+      <c r="T25" s="22">
         <f t="shared" si="22"/>
-        <v>0.35148388684319221</v>
-      </c>
-      <c r="U25" s="167">
-        <v>7999</v>
-      </c>
-      <c r="V25" s="151">
+        <v>0.43940978477708742</v>
+      </c>
+      <c r="U25" s="24">
+        <v>10000</v>
+      </c>
+      <c r="V25" s="22">
         <f t="shared" si="23"/>
-        <v>0.21168207728420282</v>
-      </c>
-      <c r="W25" s="167">
-        <v>7999</v>
-      </c>
-      <c r="X25" s="151">
-        <f t="shared" ref="X25:X33" si="27">IF(W$13=0,"-",(W25*100)/W$13)</f>
-        <v>0.21168207728420282</v>
-      </c>
-      <c r="Y25" s="167">
-        <v>7999</v>
-      </c>
-      <c r="Z25" s="151">
+        <v>0.26463567606476163</v>
+      </c>
+      <c r="W25" s="24">
+        <v>10000</v>
+      </c>
+      <c r="X25" s="22">
+        <f t="shared" ref="X25" si="27">IF(W$13=0,"-",(W25*100)/W$13)</f>
+        <v>0.26463567606476163</v>
+      </c>
+      <c r="Y25" s="24">
+        <v>10000</v>
+      </c>
+      <c r="Z25" s="22">
         <f t="shared" si="24"/>
-        <v>0.15150941180481634</v>
-      </c>
-      <c r="AA25" s="167">
+        <v>0.18941044106115307</v>
+      </c>
+      <c r="AA25" s="24">
         <f>SUM(C25,E25,G25,I25,K25,M25,O25,Q25,S25,U25,W25,Y25)</f>
-        <v>95988</v>
-      </c>
-      <c r="AB25" s="151">
+        <v>120000</v>
+      </c>
+      <c r="AB25" s="22">
         <f t="shared" si="25"/>
-        <v>0.28633800102736601</v>
+        <v>0.35796724719010625</v>
       </c>
       <c r="AC25" s="130"/>
       <c r="AD25" s="146"/>
@@ -10202,7 +10202,7 @@
       </c>
       <c r="W26" s="167"/>
       <c r="X26" s="151">
-        <f t="shared" si="27"/>
+        <f t="shared" ref="X25:X33" si="28">IF(W$13=0,"-",(W26*100)/W$13)</f>
         <v>0</v>
       </c>
       <c r="Y26" s="167"/>
@@ -10244,7 +10244,7 @@
         <v>6007.35</v>
       </c>
       <c r="H27" s="151">
-        <f t="shared" ref="H27:H31" si="28">IF(G$13=0,"-",(G27*100)/G$13)</f>
+        <f t="shared" ref="H27:H31" si="29">IF(G$13=0,"-",(G27*100)/G$13)</f>
         <v>0.35037677744467904</v>
       </c>
       <c r="I27" s="146">
@@ -10300,7 +10300,7 @@
         <v>6007.35</v>
       </c>
       <c r="X27" s="151">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0.1589759128607646</v>
       </c>
       <c r="Y27" s="146">
@@ -10344,7 +10344,7 @@
         <v>1000</v>
       </c>
       <c r="H28" s="151">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>5.8324681838860568E-2</v>
       </c>
       <c r="I28" s="167">
@@ -10400,7 +10400,7 @@
         <v>1000</v>
       </c>
       <c r="X28" s="151">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>2.6463567606476165E-2</v>
       </c>
       <c r="Y28" s="167">
@@ -10444,7 +10444,7 @@
         <v>1299</v>
       </c>
       <c r="H29" s="151">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>7.5763761708679878E-2</v>
       </c>
       <c r="I29" s="167">
@@ -10500,7 +10500,7 @@
         <v>1299</v>
       </c>
       <c r="X29" s="151">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>3.4376174320812539E-2</v>
       </c>
       <c r="Y29" s="167">
@@ -10544,7 +10544,7 @@
         <v>3500</v>
       </c>
       <c r="H30" s="151">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.20413638643601198</v>
       </c>
       <c r="I30" s="167">
@@ -10600,7 +10600,7 @@
         <v>3500</v>
       </c>
       <c r="X30" s="151">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>9.2622486622666575E-2</v>
       </c>
       <c r="Y30" s="167">
@@ -10611,7 +10611,7 @@
         <v>6.6293654371403568E-2</v>
       </c>
       <c r="AA30" s="167">
-        <f t="shared" ref="AA30:AA32" si="29">SUM(C30,E30,G30,I30,K30,M30,O30,Q30,S30,U30,W30,Y30)</f>
+        <f t="shared" ref="AA30:AA32" si="30">SUM(C30,E30,G30,I30,K30,M30,O30,Q30,S30,U30,W30,Y30)</f>
         <v>42000</v>
       </c>
       <c r="AB30" s="151">
@@ -10644,7 +10644,7 @@
         <v>2000</v>
       </c>
       <c r="H31" s="151">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.11664936367772114</v>
       </c>
       <c r="I31" s="167">
@@ -10705,7 +10705,7 @@
         <v>3.7882088212230609E-2</v>
       </c>
       <c r="AA31" s="167">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>24000</v>
       </c>
       <c r="AB31" s="151">
@@ -10794,7 +10794,7 @@
         <v>0</v>
       </c>
       <c r="X32" s="151">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="Y32" s="167">
@@ -10805,7 +10805,7 @@
         <v>9.4705220530576534E-2</v>
       </c>
       <c r="AA32" s="167">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>20000</v>
       </c>
       <c r="AB32" s="151">
@@ -10822,107 +10822,107 @@
       <c r="B33" s="155"/>
       <c r="C33" s="156">
         <f>SUM(C22:C32)</f>
-        <v>143888.68333333332</v>
+        <v>145889.68333333332</v>
       </c>
       <c r="D33" s="151">
         <f t="shared" si="14"/>
-        <v>15.094062954570884</v>
+        <v>15.303969802506433</v>
       </c>
       <c r="E33" s="156">
         <f>SUM(E22:E32)</f>
-        <v>143888.68333333332</v>
+        <v>145889.68333333332</v>
       </c>
       <c r="F33" s="151">
         <f t="shared" si="15"/>
-        <v>9.8514756694828982</v>
+        <v>9.988476039199039</v>
       </c>
       <c r="G33" s="156">
         <f>SUM(G22:G32)</f>
-        <v>148888.68333333332</v>
+        <v>150889.68333333332</v>
       </c>
       <c r="H33" s="151">
         <f t="shared" si="16"/>
-        <v>8.6838850848235278</v>
+        <v>8.8005927731830891</v>
       </c>
       <c r="I33" s="156">
         <f>SUM(I22:I32)</f>
-        <v>143888.68333333332</v>
+        <v>145889.68333333332</v>
       </c>
       <c r="J33" s="151">
         <f t="shared" si="17"/>
-        <v>6.2544525003839606</v>
+        <v>6.3414305667846076</v>
       </c>
       <c r="K33" s="156">
         <f>SUM(K22:K32)</f>
-        <v>143888.68333333332</v>
+        <v>145889.68333333332</v>
       </c>
       <c r="L33" s="151">
         <f t="shared" si="18"/>
-        <v>10.05181270535417</v>
+        <v>10.191599078802442</v>
       </c>
       <c r="M33" s="156">
         <f>SUM(M22:M32)</f>
-        <v>176388.68333333332</v>
+        <v>178389.68333333332</v>
       </c>
       <c r="N33" s="151">
         <f t="shared" si="19"/>
-        <v>7.3786433691831235</v>
+        <v>7.4623486562951866</v>
       </c>
       <c r="O33" s="156">
         <f>SUM(O22:O32)</f>
-        <v>143888.68333333332</v>
+        <v>145889.68333333332</v>
       </c>
       <c r="P33" s="151">
         <f t="shared" si="20"/>
-        <v>4.2282519793634883</v>
+        <v>4.2870525188826818</v>
       </c>
       <c r="Q33" s="156">
         <f>SUM(Q22:Q32)</f>
-        <v>143888.68333333332</v>
+        <v>145889.68333333332</v>
       </c>
       <c r="R33" s="151">
         <f t="shared" si="21"/>
-        <v>3.025585626882378</v>
+        <v>3.0676611862602234</v>
       </c>
       <c r="S33" s="156">
         <f>SUM(S22:S32)</f>
-        <v>148888.68333333332</v>
+        <v>150889.68333333332</v>
       </c>
       <c r="T33" s="151">
         <f t="shared" si="22"/>
-        <v>6.5423144299243914</v>
+        <v>6.6302403278582869</v>
       </c>
       <c r="U33" s="156">
         <f>SUM(U22:U32)</f>
-        <v>143888.68333333332</v>
+        <v>145889.68333333332</v>
       </c>
       <c r="V33" s="151">
         <f t="shared" si="23"/>
-        <v>3.8078078991985063</v>
+        <v>3.8607614979790652</v>
       </c>
       <c r="W33" s="156">
         <f>SUM(W22:W32)</f>
-        <v>143888.68333333332</v>
+        <v>145889.68333333332</v>
       </c>
       <c r="X33" s="151">
-        <f t="shared" si="27"/>
-        <v>3.8078078991985063</v>
+        <f t="shared" si="28"/>
+        <v>3.8607614979790652</v>
       </c>
       <c r="Y33" s="156">
         <f>SUM(Y22:Y32)</f>
-        <v>148888.68333333332</v>
+        <v>150889.68333333332</v>
       </c>
       <c r="Z33" s="151">
         <f t="shared" si="24"/>
-        <v>2.8201071179181012</v>
+        <v>2.8580081471744379</v>
       </c>
       <c r="AA33" s="156">
         <f>SUM(AA22:AA32)</f>
-        <v>1774164.2</v>
+        <v>1798176.2</v>
       </c>
       <c r="AB33" s="151">
         <f t="shared" si="25"/>
-        <v>5.2924389561436431</v>
+        <v>5.3640682023063828</v>
       </c>
       <c r="AC33" s="146"/>
       <c r="AD33" s="146"/>
@@ -10966,107 +10966,107 @@
       <c r="B35" s="148"/>
       <c r="C35" s="150">
         <f>C19-C33</f>
-        <v>809391.31666666665</v>
+        <v>807390.31666666665</v>
       </c>
       <c r="D35" s="151">
         <f>IF(C13=0,"-",(C35*100)/C13)</f>
-        <v>84.905937045429127</v>
+        <v>84.69603019749357</v>
       </c>
       <c r="E35" s="150">
         <f>E19-E33</f>
-        <v>1316691.3166666667</v>
+        <v>1314690.3166666667</v>
       </c>
       <c r="F35" s="151">
         <f>IF(E13=0,"-",(E35*100)/E13)</f>
-        <v>90.148524330517105</v>
+        <v>90.011523960800957</v>
       </c>
       <c r="G35" s="150">
         <f>G19-G33</f>
-        <v>1565651.3166666667</v>
+        <v>1563650.3166666667</v>
       </c>
       <c r="H35" s="151">
         <f>IF(G13=0,"-",(G35*100)/G13)</f>
-        <v>91.31611491517647</v>
+        <v>91.199407226816902</v>
       </c>
       <c r="I35" s="150">
         <f>I19-I33</f>
-        <v>2156691.3166666669</v>
+        <v>2154690.3166666669</v>
       </c>
       <c r="J35" s="151">
         <f>IF(I13=0,"-",(I35*100)/I13)</f>
-        <v>93.745547499616052</v>
+        <v>93.658569433215405</v>
       </c>
       <c r="K35" s="150">
         <f>K19-K33</f>
-        <v>1287581.3166666667</v>
+        <v>1285580.3166666667</v>
       </c>
       <c r="L35" s="151">
         <f>IF(K13=0,"-",(K35*100)/K13)</f>
-        <v>89.948187294645834</v>
+        <v>89.80840092119756</v>
       </c>
       <c r="M35" s="150">
         <f>M19-M33</f>
-        <v>2214141.3166666669</v>
+        <v>2212140.3166666669</v>
       </c>
       <c r="N35" s="151">
         <f>IF(M13=0,"-",(M35*100)/M13)</f>
-        <v>92.621356630816891</v>
+        <v>92.537651343704823</v>
       </c>
       <c r="O35" s="150">
         <f>O19-O33</f>
-        <v>3259141.3166666669</v>
+        <v>3257140.3166666669</v>
       </c>
       <c r="P35" s="151">
         <f>IF(O13=0,"-",(O35*100)/O13)</f>
-        <v>95.771748020636522</v>
+        <v>95.712947481117325</v>
       </c>
       <c r="Q35" s="150">
         <f>Q19-Q33</f>
-        <v>4611841.3166666664</v>
+        <v>4609840.3166666664</v>
       </c>
       <c r="R35" s="151">
         <f>IF(Q13=0,"-",(Q35*100)/Q13)</f>
-        <v>96.974414373117611</v>
+        <v>96.932338813739761</v>
       </c>
       <c r="S35" s="150">
         <f>S19-S33</f>
-        <v>2126891.3166666669</v>
+        <v>2124890.3166666669</v>
       </c>
       <c r="T35" s="151">
         <f>IF(S13=0,"-",(S35*100)/S13)</f>
-        <v>93.457685570075611</v>
+        <v>93.369759672141726</v>
       </c>
       <c r="U35" s="150">
         <f>U19-U33</f>
-        <v>3634891.3166666669</v>
+        <v>3632890.3166666669</v>
       </c>
       <c r="V35" s="151">
         <f>IF(U13=0,"-",(U35*100)/U13)</f>
-        <v>96.192192100801492</v>
+        <v>96.139238502020945</v>
       </c>
       <c r="W35" s="150">
         <f>W19-W33</f>
-        <v>3634891.3166666669</v>
+        <v>3632890.3166666669</v>
       </c>
       <c r="X35" s="151">
         <f>IF(W13=0,"-",(W35*100)/W13)</f>
-        <v>96.192192100801492</v>
+        <v>96.139238502020945</v>
       </c>
       <c r="Y35" s="150">
         <f>Y19-Y33</f>
-        <v>5130651.3166666664</v>
+        <v>5128650.3166666664</v>
       </c>
       <c r="Z35" s="151">
         <f>IF(Y13=0,"-",(Y35*100)/Y13)</f>
-        <v>97.179892882081887</v>
+        <v>97.141991852825555</v>
       </c>
       <c r="AA35" s="150">
         <f>AA19-AA33</f>
-        <v>31748455.800000001</v>
+        <v>31724443.800000001</v>
       </c>
       <c r="AB35" s="151">
         <f>IF(AA13=0,"-",(AA35*100)/AA13)</f>
-        <v>94.707561043856359</v>
+        <v>94.635931797693615</v>
       </c>
       <c r="AC35" s="146"/>
       <c r="AD35" s="146"/>
@@ -12073,8 +12073,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AB22" sqref="AB22:AB23"/>
+    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25:AB25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -13753,96 +13753,96 @@
       </c>
       <c r="B25" s="23"/>
       <c r="C25" s="24">
-        <v>7999</v>
+        <v>10000</v>
       </c>
       <c r="D25" s="22">
         <f t="shared" si="14"/>
-        <v>0.50424882747491051</v>
+        <v>0.63038983307277219</v>
       </c>
       <c r="E25" s="24">
-        <v>7999</v>
+        <v>10000</v>
       </c>
       <c r="F25" s="22">
         <f t="shared" si="15"/>
-        <v>0.32909840449604622</v>
+        <v>0.41142443367426706</v>
       </c>
       <c r="G25" s="24">
-        <v>7999</v>
+        <v>10000</v>
       </c>
       <c r="H25" s="22">
         <f t="shared" si="16"/>
-        <v>0.2803695732942636</v>
+        <v>0.35050577984030956</v>
       </c>
       <c r="I25" s="24">
-        <v>7999</v>
+        <v>10000</v>
       </c>
       <c r="J25" s="22">
         <f t="shared" si="17"/>
-        <v>0.2164571280125128</v>
+        <v>0.27060523567009975</v>
       </c>
       <c r="K25" s="24">
-        <v>7999</v>
+        <v>10000</v>
       </c>
       <c r="L25" s="22">
         <f t="shared" si="18"/>
-        <v>0.40286371179556141</v>
+        <v>0.50364259506883535</v>
       </c>
       <c r="M25" s="24">
-        <v>7999</v>
+        <v>10000</v>
       </c>
       <c r="N25" s="22">
         <f t="shared" si="19"/>
-        <v>0.24135938530148801</v>
+        <v>0.3017369487454532</v>
       </c>
       <c r="O25" s="24">
-        <v>7999</v>
+        <v>10000</v>
       </c>
       <c r="P25" s="22">
         <f t="shared" si="20"/>
-        <v>0.16945615780035359</v>
+        <v>0.21184667808520261</v>
       </c>
       <c r="Q25" s="24">
-        <v>7999</v>
+        <v>10000</v>
       </c>
       <c r="R25" s="22">
         <f t="shared" si="21"/>
-        <v>0.12121267224769269</v>
+        <v>0.15153478215738553</v>
       </c>
       <c r="S25" s="24">
-        <v>7999</v>
+        <v>10000</v>
       </c>
       <c r="T25" s="22">
         <f t="shared" si="22"/>
-        <v>0.26080052949126126</v>
+        <v>0.32604141704120676</v>
       </c>
       <c r="U25" s="24">
-        <v>7999</v>
+        <v>10000</v>
       </c>
       <c r="V25" s="22">
         <f t="shared" si="23"/>
-        <v>0.1569617818959233</v>
+        <v>0.1962267557143684</v>
       </c>
       <c r="W25" s="24">
-        <v>7999</v>
+        <v>10000</v>
       </c>
       <c r="X25" s="22">
-        <f t="shared" ref="X25:X33" si="27">IF(W$13=0,"-",(W25*100)/W$13)</f>
-        <v>0.1569617818959233</v>
+        <f t="shared" ref="X25" si="27">IF(W$13=0,"-",(W25*100)/W$13)</f>
+        <v>0.1962267557143684</v>
       </c>
       <c r="Y25" s="24">
-        <v>7999</v>
+        <v>10000</v>
       </c>
       <c r="Z25" s="22">
         <f t="shared" si="24"/>
-        <v>0.11229889842066951</v>
+        <v>0.14039117192232717</v>
       </c>
       <c r="AA25" s="24">
         <f>SUM(C25,E25,G25,I25,K25,M25,O25,Q25,S25,U25,W25,Y25)</f>
-        <v>95988</v>
+        <v>120000</v>
       </c>
       <c r="AB25" s="22">
         <f t="shared" si="25"/>
-        <v>0.20179578656586827</v>
+        <v>0.25227626774080297</v>
       </c>
       <c r="AC25" s="18"/>
       <c r="AD25" s="18"/>
@@ -13904,7 +13904,7 @@
       </c>
       <c r="W26" s="24"/>
       <c r="X26" s="22">
-        <f t="shared" si="27"/>
+        <f t="shared" ref="X25:X33" si="28">IF(W$13=0,"-",(W26*100)/W$13)</f>
         <v>0</v>
       </c>
       <c r="Y26" s="24"/>
@@ -13946,7 +13946,7 @@
         <v>6007.35</v>
       </c>
       <c r="H27" s="22">
-        <f t="shared" ref="H27:H31" si="28">IF(G$13=0,"-",(G27*100)/G$13)</f>
+        <f t="shared" ref="H27:H31" si="29">IF(G$13=0,"-",(G27*100)/G$13)</f>
         <v>0.21056108965236836</v>
       </c>
       <c r="I27" s="57">
@@ -14002,7 +14002,7 @@
         <v>6007.35</v>
       </c>
       <c r="X27" s="22">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0.1178802800940711</v>
       </c>
       <c r="Y27" s="57">
@@ -14046,7 +14046,7 @@
         <v>1000</v>
       </c>
       <c r="H28" s="22">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>3.5050577984030953E-2</v>
       </c>
       <c r="I28" s="24">
@@ -14102,7 +14102,7 @@
         <v>1000</v>
       </c>
       <c r="X28" s="22">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>1.9622675571436841E-2</v>
       </c>
       <c r="Y28" s="24">
@@ -14146,7 +14146,7 @@
         <v>1299</v>
       </c>
       <c r="H29" s="22">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>4.5530700801256214E-2</v>
       </c>
       <c r="I29" s="24">
@@ -14202,7 +14202,7 @@
         <v>1299</v>
       </c>
       <c r="X29" s="22">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>2.5489855567296455E-2</v>
       </c>
       <c r="Y29" s="24">
@@ -14246,7 +14246,7 @@
         <v>3500</v>
       </c>
       <c r="H30" s="22">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.12267702294410834</v>
       </c>
       <c r="I30" s="24">
@@ -14302,7 +14302,7 @@
         <v>3500</v>
       </c>
       <c r="X30" s="22">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>6.8679364500028942E-2</v>
       </c>
       <c r="Y30" s="24">
@@ -14313,7 +14313,7 @@
         <v>4.9136910172814512E-2</v>
       </c>
       <c r="AA30" s="24">
-        <f t="shared" ref="AA30:AA32" si="29">SUM(C30,E30,G30,I30,K30,M30,O30,Q30,S30,U30,W30,Y30)</f>
+        <f t="shared" ref="AA30:AA32" si="30">SUM(C30,E30,G30,I30,K30,M30,O30,Q30,S30,U30,W30,Y30)</f>
         <v>42000</v>
       </c>
       <c r="AB30" s="22">
@@ -14346,7 +14346,7 @@
         <v>2000</v>
       </c>
       <c r="H31" s="22">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>7.0101155968061907E-2</v>
       </c>
       <c r="I31" s="24">
@@ -14407,7 +14407,7 @@
         <v>2.8078234384465436E-2</v>
       </c>
       <c r="AA31" s="24">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>24000</v>
       </c>
       <c r="AB31" s="22">
@@ -14496,7 +14496,7 @@
         <v>0</v>
       </c>
       <c r="X32" s="22">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="Y32" s="24">
@@ -14507,7 +14507,7 @@
         <v>7.0195585961163584E-2</v>
       </c>
       <c r="AA32" s="24">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>20000</v>
       </c>
       <c r="AB32" s="22">
@@ -14524,107 +14524,107 @@
       <c r="B33" s="26"/>
       <c r="C33" s="27">
         <f>SUM(C22:C32)</f>
-        <v>143888.68333333332</v>
+        <v>145889.68333333332</v>
       </c>
       <c r="D33" s="22">
         <f t="shared" si="14"/>
-        <v>9.070596306756098</v>
+        <v>9.1967373123539584</v>
       </c>
       <c r="E33" s="27">
         <f>SUM(E22:E32)</f>
-        <v>143888.68333333332</v>
+        <v>145889.68333333332</v>
       </c>
       <c r="F33" s="22">
         <f t="shared" si="15"/>
-        <v>5.9199320052552613</v>
+        <v>6.0022580344334822</v>
       </c>
       <c r="G33" s="27">
         <f>SUM(G22:G32)</f>
-        <v>148888.68333333332</v>
+        <v>150889.68333333332</v>
       </c>
       <c r="H33" s="22">
         <f t="shared" si="16"/>
-        <v>5.2186344061146901</v>
+        <v>5.2887706126607359</v>
       </c>
       <c r="I33" s="27">
         <f>SUM(I22:I32)</f>
-        <v>143888.68333333332</v>
+        <v>145889.68333333332</v>
       </c>
       <c r="J33" s="22">
         <f t="shared" si="17"/>
-        <v>3.8937031063677017</v>
+        <v>3.9478512140252886</v>
       </c>
       <c r="K33" s="27">
         <f>SUM(K22:K32)</f>
-        <v>143888.68333333332</v>
+        <v>145889.68333333332</v>
       </c>
       <c r="L33" s="22">
         <f t="shared" si="18"/>
-        <v>7.2468469875037869</v>
+        <v>7.347625870777061</v>
       </c>
       <c r="M33" s="27">
         <f>SUM(M22:M32)</f>
-        <v>176388.68333333332</v>
+        <v>178389.68333333332</v>
       </c>
       <c r="N33" s="22">
         <f t="shared" si="19"/>
-        <v>5.3222983102227968</v>
+        <v>5.3826758736667619</v>
       </c>
       <c r="O33" s="27">
         <f>SUM(O22:O32)</f>
-        <v>143888.68333333332</v>
+        <v>145889.68333333332</v>
       </c>
       <c r="P33" s="22">
         <f t="shared" si="20"/>
-        <v>3.0482339578220321</v>
+        <v>3.0906244781068812</v>
       </c>
       <c r="Q33" s="27">
         <f>SUM(Q22:Q32)</f>
-        <v>143888.68333333332</v>
+        <v>145889.68333333332</v>
       </c>
       <c r="R33" s="22">
         <f t="shared" si="21"/>
-        <v>2.1804140283829696</v>
+        <v>2.2107361382926625</v>
       </c>
       <c r="S33" s="27">
         <f>SUM(S22:S32)</f>
-        <v>148888.68333333332</v>
+        <v>150889.68333333332</v>
       </c>
       <c r="T33" s="22">
         <f t="shared" si="22"/>
-        <v>4.8543877295399493</v>
+        <v>4.9196286170898951</v>
       </c>
       <c r="U33" s="27">
         <f>SUM(U22:U32)</f>
-        <v>143888.68333333332</v>
+        <v>145889.68333333332</v>
       </c>
       <c r="V33" s="22">
         <f t="shared" si="23"/>
-        <v>2.8234809514512111</v>
+        <v>2.8627459252696563</v>
       </c>
       <c r="W33" s="27">
         <f>SUM(W22:W32)</f>
-        <v>143888.68333333332</v>
+        <v>145889.68333333332</v>
       </c>
       <c r="X33" s="22">
-        <f t="shared" si="27"/>
-        <v>2.8234809514512111</v>
+        <f t="shared" si="28"/>
+        <v>2.8627459252696563</v>
       </c>
       <c r="Y33" s="27">
         <f>SUM(Y22:Y32)</f>
-        <v>148888.68333333332</v>
+        <v>150889.68333333332</v>
       </c>
       <c r="Z33" s="22">
         <f t="shared" si="24"/>
-        <v>2.0902656739138927</v>
+        <v>2.1183579474155505</v>
       </c>
       <c r="AA33" s="27">
         <f>SUM(AA22:AA32)</f>
-        <v>1774164.2</v>
+        <v>1798176.2</v>
       </c>
       <c r="AB33" s="22">
         <f t="shared" si="25"/>
-        <v>3.7298293561278957</v>
+        <v>3.7803098373028305</v>
       </c>
       <c r="AC33" s="18"/>
       <c r="AD33" s="18"/>
@@ -14668,107 +14668,107 @@
       <c r="B35" s="20"/>
       <c r="C35" s="21">
         <f>C19-C33</f>
-        <v>1442431.3166666667</v>
+        <v>1440430.3166666667</v>
       </c>
       <c r="D35" s="22">
         <f>IF(C13=0,"-",(C35*100)/C13)</f>
-        <v>90.929403693243898</v>
+        <v>90.80326268764604</v>
       </c>
       <c r="E35" s="21">
         <f>E19-E33</f>
-        <v>2286691.3166666669</v>
+        <v>2284690.3166666669</v>
       </c>
       <c r="F35" s="22">
         <f>IF(E13=0,"-",(E35*100)/E13)</f>
-        <v>94.080067994744752</v>
+        <v>93.997741965566533</v>
       </c>
       <c r="G35" s="21">
         <f>G19-G33</f>
-        <v>2704131.3166666669</v>
+        <v>2702130.3166666669</v>
       </c>
       <c r="H35" s="22">
         <f>IF(G13=0,"-",(G35*100)/G13)</f>
-        <v>94.781365593885312</v>
+        <v>94.711229387339273</v>
       </c>
       <c r="I35" s="21">
         <f>I19-I33</f>
-        <v>3551531.3166666669</v>
+        <v>3549530.3166666669</v>
       </c>
       <c r="J35" s="22">
         <f>IF(I13=0,"-",(I35*100)/I13)</f>
-        <v>96.106296893632305</v>
+        <v>96.052148785974723</v>
       </c>
       <c r="K35" s="21">
         <f>K19-K33</f>
-        <v>1841646.3166666667</v>
+        <v>1839645.3166666667</v>
       </c>
       <c r="L35" s="22">
         <f>IF(K13=0,"-",(K35*100)/K13)</f>
-        <v>92.753153012496213</v>
+        <v>92.652374129222935</v>
       </c>
       <c r="M35" s="21">
         <f>M19-M33</f>
-        <v>3137756.3166666669</v>
+        <v>3135755.3166666669</v>
       </c>
       <c r="N35" s="22">
         <f>IF(M13=0,"-",(M35*100)/M13)</f>
-        <v>94.677701689777209</v>
+        <v>94.617324126333244</v>
       </c>
       <c r="O35" s="21">
         <f>O19-O33</f>
-        <v>4576506.3166666664</v>
+        <v>4574505.3166666664</v>
       </c>
       <c r="P35" s="22">
         <f>IF(O13=0,"-",(O35*100)/O13)</f>
-        <v>96.951766042177965</v>
+        <v>96.909375521893111</v>
       </c>
       <c r="Q35" s="21">
         <f>Q19-Q33</f>
-        <v>6455256.3166666664</v>
+        <v>6453255.3166666664</v>
       </c>
       <c r="R35" s="22">
         <f>IF(Q13=0,"-",(Q35*100)/Q13)</f>
-        <v>97.81958597161703</v>
+        <v>97.789263861707326</v>
       </c>
       <c r="S35" s="21">
         <f>S19-S33</f>
-        <v>2918206.3166666669</v>
+        <v>2916205.3166666669</v>
       </c>
       <c r="T35" s="22">
         <f>IF(S13=0,"-",(S35*100)/S13)</f>
-        <v>95.145612270460063</v>
+        <v>95.080371382910116</v>
       </c>
       <c r="U35" s="21">
         <f>U19-U33</f>
-        <v>4952256.3166666664</v>
+        <v>4950255.3166666664</v>
       </c>
       <c r="V35" s="22">
         <f>IF(U13=0,"-",(U35*100)/U13)</f>
-        <v>97.176519048548784</v>
+        <v>97.137254074730336</v>
       </c>
       <c r="W35" s="21">
         <f>W19-W33</f>
-        <v>4952256.3166666664</v>
+        <v>4950255.3166666664</v>
       </c>
       <c r="X35" s="22">
         <f>IF(W13=0,"-",(W35*100)/W13)</f>
-        <v>97.176519048548784</v>
+        <v>97.137254074730336</v>
       </c>
       <c r="Y35" s="21">
         <f>Y19-Y33</f>
-        <v>6974066.3166666664</v>
+        <v>6972065.3166666664</v>
       </c>
       <c r="Z35" s="22">
         <f>IF(Y13=0,"-",(Y35*100)/Y13)</f>
-        <v>97.909734326086095</v>
+        <v>97.881642052584439</v>
       </c>
       <c r="AA35" s="21">
         <f>AA19-AA33</f>
-        <v>45792735.799999997</v>
+        <v>45768723.799999997</v>
       </c>
       <c r="AB35" s="22">
         <f>IF(AA13=0,"-",(AA35*100)/AA13)</f>
-        <v>96.270170643872106</v>
+        <v>96.219690162697177</v>
       </c>
       <c r="AC35" s="18"/>
       <c r="AD35" s="18"/>

--- a/Business Plan Documents/YPS Profit and Loss Projection.xlsx
+++ b/Business Plan Documents/YPS Profit and Loss Projection.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7935"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7935" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="PnL projection (Year 1)" sheetId="1" r:id="rId1"/>
@@ -1677,11 +1677,11 @@
   </sheetPr>
   <dimension ref="A1:AC66"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="1" ySplit="7" topLeftCell="B26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="A28" sqref="A28:AA28"/>
+      <selection pane="bottomRight" activeCell="AB28" sqref="A28:AB28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3382,96 +3382,96 @@
       </c>
       <c r="B28" s="23"/>
       <c r="C28" s="24">
-        <v>10000</v>
+        <v>7999</v>
       </c>
       <c r="D28" s="22">
         <f t="shared" si="14"/>
-        <v>6.2092517851598883</v>
+        <v>4.966780502949395</v>
       </c>
       <c r="E28" s="24">
-        <v>10000</v>
+        <v>7999</v>
       </c>
       <c r="F28" s="22">
         <f t="shared" si="15"/>
-        <v>3.728421759069386</v>
+        <v>2.9823645650796018</v>
       </c>
       <c r="G28" s="24">
-        <v>10000</v>
+        <v>7999</v>
       </c>
       <c r="H28" s="22">
         <f t="shared" si="16"/>
-        <v>3.7112636852848393</v>
+        <v>2.9686398218593433</v>
       </c>
       <c r="I28" s="24">
-        <v>10000</v>
+        <v>7999</v>
       </c>
       <c r="J28" s="22">
         <f t="shared" si="17"/>
-        <v>2.6684456304202802</v>
+        <v>2.1344896597731822</v>
       </c>
       <c r="K28" s="24">
-        <v>10000</v>
+        <v>7999</v>
       </c>
       <c r="L28" s="22">
         <f t="shared" si="18"/>
-        <v>2.4856145060462573</v>
+        <v>1.9882430433864011</v>
       </c>
       <c r="M28" s="24">
-        <v>10000</v>
+        <v>7999</v>
       </c>
       <c r="N28" s="22">
         <f t="shared" si="19"/>
-        <v>1.4816461088269066</v>
+        <v>1.1851687224506426</v>
       </c>
       <c r="O28" s="24">
-        <v>10000</v>
+        <v>7999</v>
       </c>
       <c r="P28" s="22">
         <f t="shared" si="20"/>
-        <v>1.045833660156352</v>
+        <v>0.8365623447590661</v>
       </c>
       <c r="Q28" s="24">
-        <v>10000</v>
+        <v>7999</v>
       </c>
       <c r="R28" s="22">
         <f t="shared" si="21"/>
-        <v>0.75079302513279655</v>
+        <v>0.60055934080372397</v>
       </c>
       <c r="S28" s="24">
-        <v>10000</v>
+        <v>7999</v>
       </c>
       <c r="T28" s="22">
         <f t="shared" si="22"/>
-        <v>1.088613106901807</v>
+        <v>0.87078162421075544</v>
       </c>
       <c r="U28" s="24">
-        <v>10000</v>
+        <v>7999</v>
       </c>
       <c r="V28" s="22">
         <f t="shared" si="23"/>
-        <v>0.65798131333070142</v>
+        <v>0.52631925253322809</v>
       </c>
       <c r="W28" s="24">
-        <v>10000</v>
+        <v>7999</v>
       </c>
       <c r="X28" s="22">
         <f t="shared" ref="X28:X36" si="27">IF(W$13=0,"-",(W28*100)/W$13)</f>
-        <v>0.65798131333070142</v>
+        <v>0.52631925253322809</v>
       </c>
       <c r="Y28" s="24">
-        <v>10000</v>
+        <v>7999</v>
       </c>
       <c r="Z28" s="22">
         <f t="shared" si="24"/>
-        <v>0.47197417357322208</v>
+        <v>0.37753214144122033</v>
       </c>
       <c r="AA28" s="24">
         <f>SUM(C28,E28,G28,I28,K28,M28,O28,Q28,S28,U28,W28,Y28)</f>
-        <v>120000</v>
+        <v>95988</v>
       </c>
       <c r="AB28" s="22">
         <f t="shared" si="25"/>
-        <v>1.1411443395436944</v>
+        <v>0.9128013572010012</v>
       </c>
     </row>
     <row r="29" spans="1:29" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -4161,107 +4161,107 @@
       <c r="B36" s="26"/>
       <c r="C36" s="27">
         <f>SUM(C25:C35)</f>
-        <v>220689.68333333335</v>
+        <v>218688.68333333335</v>
       </c>
       <c r="D36" s="22">
         <f t="shared" si="14"/>
-        <v>137.03178102038706</v>
+        <v>135.78930973817657</v>
       </c>
       <c r="E36" s="27">
         <f>SUM(E25:E35)</f>
-        <v>210689.68333333335</v>
+        <v>208688.68333333335</v>
       </c>
       <c r="F36" s="22">
         <f t="shared" si="15"/>
-        <v>78.553999975143867</v>
+        <v>77.807942781154082</v>
       </c>
       <c r="G36" s="27">
         <f>SUM(G25:G35)</f>
-        <v>255689.68333333335</v>
+        <v>253688.68333333335</v>
       </c>
       <c r="H36" s="22">
         <f t="shared" si="16"/>
-        <v>94.893183645698031</v>
+        <v>94.150559782272538</v>
       </c>
       <c r="I36" s="27">
         <f>SUM(I25:I35)</f>
-        <v>250689.68333333335</v>
+        <v>248688.68333333335</v>
       </c>
       <c r="J36" s="22">
         <f t="shared" si="17"/>
-        <v>66.895179008227714</v>
+        <v>66.361223037580615</v>
       </c>
       <c r="K36" s="27">
         <f>SUM(K25:K35)</f>
-        <v>250689.68333333335</v>
+        <v>248688.68333333335</v>
       </c>
       <c r="L36" s="22">
         <f t="shared" si="18"/>
-        <v>62.311791340947607</v>
+        <v>61.814419878287751</v>
       </c>
       <c r="M36" s="27">
         <f>SUM(M25:M35)</f>
-        <v>183189.68333333332</v>
+        <v>181188.68333333332</v>
       </c>
       <c r="N36" s="22">
         <f t="shared" si="19"/>
-        <v>27.142228148806655</v>
+        <v>26.845750762430391</v>
       </c>
       <c r="O36" s="27">
         <f>SUM(O25:O35)</f>
-        <v>150689.68333333332</v>
+        <v>148688.68333333332</v>
       </c>
       <c r="P36" s="22">
         <f t="shared" si="20"/>
-        <v>15.759634306830163</v>
+        <v>15.550362991432879</v>
       </c>
       <c r="Q36" s="27">
         <f>SUM(Q25:Q35)</f>
-        <v>150689.68333333332</v>
+        <v>148688.68333333332</v>
       </c>
       <c r="R36" s="22">
         <f t="shared" si="21"/>
-        <v>11.313676320613647</v>
+        <v>11.163442636284575</v>
       </c>
       <c r="S36" s="27">
         <f>SUM(S25:S35)</f>
-        <v>155689.68333333332</v>
+        <v>153688.68333333332</v>
       </c>
       <c r="T36" s="22">
         <f t="shared" si="22"/>
-        <v>16.94858298860585</v>
+        <v>16.730751505914796</v>
       </c>
       <c r="U36" s="27">
         <f>SUM(U25:U35)</f>
-        <v>150689.68333333332</v>
+        <v>148688.68333333332</v>
       </c>
       <c r="V36" s="22">
         <f t="shared" si="23"/>
-        <v>9.9150995745054171</v>
+        <v>9.783437513707943</v>
       </c>
       <c r="W36" s="27">
         <f>SUM(W25:W35)</f>
-        <v>150689.68333333332</v>
+        <v>148688.68333333332</v>
       </c>
       <c r="X36" s="22">
         <f t="shared" si="27"/>
-        <v>9.9150995745054171</v>
+        <v>9.783437513707943</v>
       </c>
       <c r="Y36" s="27">
         <f>SUM(Y25:Y35)</f>
-        <v>155689.68333333332</v>
+        <v>153688.68333333332</v>
       </c>
       <c r="Z36" s="22">
         <f t="shared" si="24"/>
-        <v>7.3481509625126638</v>
+        <v>7.2537089303806619</v>
       </c>
       <c r="AA36" s="27">
         <f>SUM(AA25:AA35)</f>
-        <v>2285776.2000000002</v>
+        <v>2261764.2000000002</v>
       </c>
       <c r="AB36" s="22">
         <f t="shared" si="25"/>
-        <v>21.736671434114132</v>
+        <v>21.50832845177144</v>
       </c>
     </row>
     <row r="37" spans="1:28" s="18" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4301,107 +4301,107 @@
       <c r="B38" s="20"/>
       <c r="C38" s="21">
         <f>C22-C36</f>
-        <v>-60889.683333333349</v>
+        <v>-58888.683333333349</v>
       </c>
       <c r="D38" s="22">
         <f>IF(C13=0,"-",(C38*100)/C13)</f>
-        <v>-37.807937493532037</v>
+        <v>-36.565466211321542</v>
       </c>
       <c r="E38" s="21">
         <f>E22-E36</f>
-        <v>57520.316666666651</v>
+        <v>59521.316666666651</v>
       </c>
       <c r="F38" s="22">
         <f>IF(E13=0,"-",(E38*100)/E13)</f>
-        <v>21.44600002485614</v>
+        <v>22.192057218845925</v>
       </c>
       <c r="G38" s="21">
         <f>G22-G36</f>
-        <v>13760.316666666651</v>
+        <v>15761.316666666651</v>
       </c>
       <c r="H38" s="22">
         <f>IF(G13=0,"-",(G38*100)/G13)</f>
-        <v>5.1068163543019676</v>
+        <v>5.849440217727464</v>
       </c>
       <c r="I38" s="21">
         <f>I22-I36</f>
-        <v>124060.31666666665</v>
+        <v>126061.31666666665</v>
       </c>
       <c r="J38" s="22">
         <f>IF(I13=0,"-",(I38*100)/I13)</f>
-        <v>33.104820991772286</v>
+        <v>33.638776962419385</v>
       </c>
       <c r="K38" s="21">
         <f>K22-K36</f>
-        <v>151625.31666666665</v>
+        <v>153626.31666666665</v>
       </c>
       <c r="L38" s="22">
         <f>IF(K13=0,"-",(K38*100)/K13)</f>
-        <v>37.688208659052393</v>
+        <v>38.185580121712249</v>
       </c>
       <c r="M38" s="21">
         <f>M22-M36</f>
-        <v>491735.31666666665</v>
+        <v>493736.31666666665</v>
       </c>
       <c r="N38" s="22">
         <f>IF(M13=0,"-",(M38*100)/M13)</f>
-        <v>72.857771851193334</v>
+        <v>73.154249237569601</v>
       </c>
       <c r="O38" s="21">
         <f>O22-O36</f>
-        <v>805485.31666666665</v>
+        <v>807486.31666666665</v>
       </c>
       <c r="P38" s="22">
         <f>IF(O13=0,"-",(O38*100)/O13)</f>
-        <v>84.240365693169835</v>
+        <v>84.449637008567123</v>
       </c>
       <c r="Q38" s="21">
         <f>Q22-Q36</f>
-        <v>1181235.3166666667</v>
+        <v>1183236.3166666667</v>
       </c>
       <c r="R38" s="22">
         <f>IF(Q13=0,"-",(Q38*100)/Q13)</f>
-        <v>88.686323679386362</v>
+        <v>88.836557363715428</v>
       </c>
       <c r="S38" s="21">
         <f>S22-S36</f>
-        <v>762910.31666666665</v>
+        <v>764911.31666666665</v>
       </c>
       <c r="T38" s="22">
         <f>IF(S13=0,"-",(S38*100)/S13)</f>
-        <v>83.05141701139415</v>
+        <v>83.269248494085204</v>
       </c>
       <c r="U38" s="21">
         <f>U22-U36</f>
-        <v>1369110.3166666667</v>
+        <v>1371111.3166666667</v>
       </c>
       <c r="V38" s="22">
         <f>IF(U13=0,"-",(U38*100)/U13)</f>
-        <v>90.084900425494581</v>
+        <v>90.216562486292048</v>
       </c>
       <c r="W38" s="21">
         <f>W22-W36</f>
-        <v>1369110.3166666667</v>
+        <v>1371111.3166666667</v>
       </c>
       <c r="X38" s="22">
         <f>IF(W13=0,"-",(W38*100)/W13)</f>
-        <v>90.084900425494581</v>
+        <v>90.216562486292048</v>
       </c>
       <c r="Y38" s="21">
         <f>Y22-Y36</f>
-        <v>1963070.3166666667</v>
+        <v>1965071.3166666667</v>
       </c>
       <c r="Z38" s="22">
         <f>IF(Y13=0,"-",(Y38*100)/Y13)</f>
-        <v>92.651849037487324</v>
+        <v>92.746291069619332</v>
       </c>
       <c r="AA38" s="21">
         <f>AA22-AA36</f>
-        <v>8228733.7999999998</v>
+        <v>8252745.7999999998</v>
       </c>
       <c r="AB38" s="22">
         <f>IF(AA13=0,"-",(AA38*100)/AA13)</f>
-        <v>78.251441645682291</v>
+        <v>78.479784628024987</v>
       </c>
     </row>
     <row r="39" spans="1:28" s="48" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
@@ -4579,7 +4579,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD68"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="R19" workbookViewId="0">
       <selection activeCell="AB25" sqref="A25:AB25"/>
     </sheetView>
   </sheetViews>
@@ -6256,96 +6256,96 @@
       </c>
       <c r="B25" s="23"/>
       <c r="C25" s="24">
-        <v>10000</v>
+        <v>7999</v>
       </c>
       <c r="D25" s="22">
         <f t="shared" si="14"/>
-        <v>1.5719810104693934</v>
+        <v>1.2574276102744679</v>
       </c>
       <c r="E25" s="24">
-        <v>10000</v>
+        <v>7999</v>
       </c>
       <c r="F25" s="22">
         <f t="shared" si="15"/>
-        <v>1.0256831049478954</v>
+        <v>0.82044391564782149</v>
       </c>
       <c r="G25" s="24">
-        <v>10000</v>
+        <v>7999</v>
       </c>
       <c r="H25" s="22">
         <f t="shared" si="16"/>
-        <v>0.87360659747702418</v>
+        <v>0.69879791732187158</v>
       </c>
       <c r="I25" s="24">
-        <v>10000</v>
+        <v>7999</v>
       </c>
       <c r="J25" s="22">
         <f t="shared" si="17"/>
-        <v>0.67492778272724818</v>
+        <v>0.53987473340352587</v>
       </c>
       <c r="K25" s="24">
-        <v>10000</v>
+        <v>7999</v>
       </c>
       <c r="L25" s="22">
         <f t="shared" si="18"/>
-        <v>1.2524579487243717</v>
+        <v>1.0018411131846248</v>
       </c>
       <c r="M25" s="24">
-        <v>10000</v>
+        <v>7999</v>
       </c>
       <c r="N25" s="22">
         <f t="shared" si="19"/>
-        <v>0.74890098780040293</v>
+        <v>0.59904590014154224</v>
       </c>
       <c r="O25" s="24">
-        <v>10000</v>
+        <v>7999</v>
       </c>
       <c r="P25" s="22">
         <f t="shared" si="20"/>
-        <v>0.52692869074028215</v>
+        <v>0.42149025972315168</v>
       </c>
       <c r="Q25" s="24">
-        <v>10000</v>
+        <v>7999</v>
       </c>
       <c r="R25" s="22">
         <f t="shared" si="21"/>
-        <v>0.37745962125701604</v>
+        <v>0.30192995104348713</v>
       </c>
       <c r="S25" s="24">
-        <v>10000</v>
+        <v>7999</v>
       </c>
       <c r="T25" s="22">
         <f t="shared" si="22"/>
-        <v>0.7290011226617289</v>
+        <v>0.5831279980171169</v>
       </c>
       <c r="U25" s="24">
-        <v>10000</v>
+        <v>7999</v>
       </c>
       <c r="V25" s="22">
         <f t="shared" si="23"/>
-        <v>0.43984271224610078</v>
+        <v>0.35183018552565604</v>
       </c>
       <c r="W25" s="24">
-        <v>10000</v>
+        <v>7999</v>
       </c>
       <c r="X25" s="22">
         <f t="shared" ref="X25" si="27">IF(W$13=0,"-",(W25*100)/W$13)</f>
-        <v>0.43984271224610078</v>
+        <v>0.35183018552565604</v>
       </c>
       <c r="Y25" s="24">
-        <v>10000</v>
+        <v>7999</v>
       </c>
       <c r="Z25" s="22">
         <f t="shared" si="24"/>
-        <v>0.31514922315716493</v>
+        <v>0.25208786360341623</v>
       </c>
       <c r="AA25" s="24">
         <f>SUM(C25,E25,G25,I25,K25,M25,O25,Q25,S25,U25,W25,Y25)</f>
-        <v>120000</v>
+        <v>95988</v>
       </c>
       <c r="AB25" s="22">
         <f t="shared" si="25"/>
-        <v>0.59969595415124533</v>
+        <v>0.47969679372558111</v>
       </c>
       <c r="AC25" s="18"/>
       <c r="AD25" s="18"/>
@@ -6429,7 +6429,7 @@
         <v>4800</v>
       </c>
       <c r="X26" s="22">
-        <f t="shared" ref="X25:X33" si="28">IF(W$13=0,"-",(W26*100)/W$13)</f>
+        <f t="shared" ref="X26:X33" si="28">IF(W$13=0,"-",(W26*100)/W$13)</f>
         <v>0.21112450187812837</v>
       </c>
       <c r="Y26" s="24">
@@ -7051,107 +7051,107 @@
       <c r="B33" s="26"/>
       <c r="C33" s="27">
         <f>SUM(C22:C32)</f>
-        <v>150689.68333333332</v>
+        <v>148688.68333333332</v>
       </c>
       <c r="D33" s="22">
         <f t="shared" si="14"/>
-        <v>23.688132067364624</v>
+        <v>23.373578667169699</v>
       </c>
       <c r="E33" s="27">
         <f>SUM(E22:E32)</f>
-        <v>150689.68333333332</v>
+        <v>148688.68333333332</v>
       </c>
       <c r="F33" s="22">
         <f t="shared" si="15"/>
-        <v>15.455986228494844</v>
+        <v>15.250747039194769</v>
       </c>
       <c r="G33" s="27">
         <f>SUM(G22:G32)</f>
-        <v>155689.68333333332</v>
+        <v>153688.68333333332</v>
       </c>
       <c r="H33" s="22">
         <f t="shared" si="16"/>
-        <v>13.601153451910868</v>
+        <v>13.426344771755716</v>
       </c>
       <c r="I33" s="27">
         <f>SUM(I22:I32)</f>
-        <v>150689.68333333332</v>
+        <v>148688.68333333332</v>
       </c>
       <c r="J33" s="22">
         <f t="shared" si="17"/>
-        <v>10.170465385203782</v>
+        <v>10.035412335880061</v>
       </c>
       <c r="K33" s="27">
         <f>SUM(K22:K32)</f>
-        <v>150689.68333333332</v>
+        <v>148688.68333333332</v>
       </c>
       <c r="L33" s="22">
         <f t="shared" si="18"/>
-        <v>18.873249168159177</v>
+        <v>18.622632332619432</v>
       </c>
       <c r="M33" s="27">
         <f>SUM(M22:M32)</f>
-        <v>183189.68333333332</v>
+        <v>181188.68333333332</v>
       </c>
       <c r="N33" s="22">
         <f t="shared" si="19"/>
-        <v>13.719093480317634</v>
+        <v>13.569238392658772</v>
       </c>
       <c r="O33" s="27">
         <f>SUM(O22:O32)</f>
-        <v>150689.68333333332</v>
+        <v>148688.68333333332</v>
       </c>
       <c r="P33" s="22">
         <f t="shared" si="20"/>
-        <v>7.9402717546901034</v>
+        <v>7.8348333236729735</v>
       </c>
       <c r="Q33" s="27">
         <f>SUM(Q22:Q32)</f>
-        <v>150689.68333333332</v>
+        <v>148688.68333333332</v>
       </c>
       <c r="R33" s="22">
         <f t="shared" si="21"/>
-        <v>5.6879270798339681</v>
+        <v>5.6123974096204385</v>
       </c>
       <c r="S33" s="27">
         <f>SUM(S22:S32)</f>
-        <v>155689.68333333332</v>
+        <v>153688.68333333332</v>
       </c>
       <c r="T33" s="22">
         <f t="shared" si="22"/>
-        <v>11.349795393684905</v>
+        <v>11.203922269040293</v>
       </c>
       <c r="U33" s="27">
         <f>SUM(U22:U32)</f>
-        <v>150689.68333333332</v>
+        <v>148688.68333333332</v>
       </c>
       <c r="V33" s="22">
         <f t="shared" si="23"/>
-        <v>6.6279759024839375</v>
+        <v>6.5399633757634934</v>
       </c>
       <c r="W33" s="27">
         <f>SUM(W22:W32)</f>
-        <v>150689.68333333332</v>
+        <v>148688.68333333332</v>
       </c>
       <c r="X33" s="22">
         <f t="shared" si="28"/>
-        <v>6.6279759024839375</v>
+        <v>6.5399633757634934</v>
       </c>
       <c r="Y33" s="27">
         <f>SUM(Y22:Y32)</f>
-        <v>155689.68333333332</v>
+        <v>153688.68333333332</v>
       </c>
       <c r="Z33" s="22">
         <f t="shared" si="24"/>
-        <v>4.9065482756085004</v>
+        <v>4.8434869160547516</v>
       </c>
       <c r="AA33" s="27">
         <f>SUM(AA22:AA32)</f>
-        <v>1855776.2</v>
+        <v>1831764.2</v>
       </c>
       <c r="AB33" s="22">
         <f t="shared" si="25"/>
-        <v>9.2741789912514356</v>
+        <v>9.1541798308257718</v>
       </c>
       <c r="AC33" s="18"/>
       <c r="AD33" s="18"/>
@@ -7195,107 +7195,107 @@
       <c r="B35" s="20"/>
       <c r="C35" s="21">
         <f>C19-C33</f>
-        <v>485450.31666666665</v>
+        <v>487451.31666666665</v>
       </c>
       <c r="D35" s="22">
         <f>IF(C13=0,"-",(C35*100)/C13)</f>
-        <v>76.311867932635366</v>
+        <v>76.62642133283029</v>
       </c>
       <c r="E35" s="21">
         <f>E19-E33</f>
-        <v>824270.31666666665</v>
+        <v>826271.31666666665</v>
       </c>
       <c r="F35" s="22">
         <f>IF(E13=0,"-",(E35*100)/E13)</f>
-        <v>84.544013771505163</v>
+        <v>84.749252960805237</v>
       </c>
       <c r="G35" s="21">
         <f>G19-G33</f>
-        <v>988990.31666666665</v>
+        <v>990991.31666666665</v>
       </c>
       <c r="H35" s="22">
         <f>IF(G13=0,"-",(G35*100)/G13)</f>
-        <v>86.398846548089139</v>
+        <v>86.573655228244291</v>
       </c>
       <c r="I35" s="21">
         <f>I19-I33</f>
-        <v>1330950.3166666667</v>
+        <v>1332951.3166666667</v>
       </c>
       <c r="J35" s="22">
         <f>IF(I13=0,"-",(I35*100)/I13)</f>
-        <v>89.829534614796216</v>
+        <v>89.964587664119946</v>
       </c>
       <c r="K35" s="21">
         <f>K19-K33</f>
-        <v>647740.31666666665</v>
+        <v>649741.31666666665</v>
       </c>
       <c r="L35" s="22">
         <f>IF(K13=0,"-",(K35*100)/K13)</f>
-        <v>81.126750831840823</v>
+        <v>81.377367667380568</v>
       </c>
       <c r="M35" s="21">
         <f>M19-M33</f>
-        <v>1152100.3166666667</v>
+        <v>1154101.3166666667</v>
       </c>
       <c r="N35" s="22">
         <f>IF(M13=0,"-",(M35*100)/M13)</f>
-        <v>86.280906519682375</v>
+        <v>86.430761607341225</v>
       </c>
       <c r="O35" s="21">
         <f>O19-O33</f>
-        <v>1747100.3166666667</v>
+        <v>1749101.3166666667</v>
       </c>
       <c r="P35" s="22">
         <f>IF(O13=0,"-",(O35*100)/O13)</f>
-        <v>92.059728245309884</v>
+        <v>92.165166676327019</v>
       </c>
       <c r="Q35" s="21">
         <f>Q19-Q33</f>
-        <v>2498600.3166666669</v>
+        <v>2500601.3166666669</v>
       </c>
       <c r="R35" s="22">
         <f>IF(Q13=0,"-",(Q35*100)/Q13)</f>
-        <v>94.312072920166045</v>
+        <v>94.387602590379572</v>
       </c>
       <c r="S35" s="21">
         <f>S19-S33</f>
-        <v>1216050.3166666667</v>
+        <v>1218051.3166666667</v>
       </c>
       <c r="T35" s="22">
         <f>IF(S13=0,"-",(S35*100)/S13)</f>
-        <v>88.6502046063151</v>
+        <v>88.796077730959709</v>
       </c>
       <c r="U35" s="21">
         <f>U19-U33</f>
-        <v>2122850.3166666669</v>
+        <v>2124851.3166666669</v>
       </c>
       <c r="V35" s="22">
         <f>IF(U13=0,"-",(U35*100)/U13)</f>
-        <v>93.372024097516075</v>
+        <v>93.460036624236508</v>
       </c>
       <c r="W35" s="21">
         <f>W19-W33</f>
-        <v>2122850.3166666669</v>
+        <v>2124851.3166666669</v>
       </c>
       <c r="X35" s="22">
         <f>IF(W13=0,"-",(W35*100)/W13)</f>
-        <v>93.372024097516075</v>
+        <v>93.460036624236508</v>
       </c>
       <c r="Y35" s="21">
         <f>Y19-Y33</f>
-        <v>3017410.3166666669</v>
+        <v>3019411.3166666669</v>
       </c>
       <c r="Z35" s="22">
         <f>IF(Y13=0,"-",(Y35*100)/Y13)</f>
-        <v>95.0934517243915</v>
+        <v>95.156513083945256</v>
       </c>
       <c r="AA35" s="21">
         <f>AA19-AA33</f>
-        <v>18154363.800000001</v>
+        <v>18178375.800000001</v>
       </c>
       <c r="AB35" s="22">
         <f>IF(AA13=0,"-",(AA35*100)/AA13)</f>
-        <v>90.725821008748568</v>
+        <v>90.845820169174232</v>
       </c>
       <c r="AC35" s="18"/>
       <c r="AD35" s="18"/>
@@ -10051,96 +10051,96 @@
       </c>
       <c r="B25" s="23"/>
       <c r="C25" s="24">
-        <v>10000</v>
+        <v>7999</v>
       </c>
       <c r="D25" s="22">
         <f t="shared" si="14"/>
-        <v>1.0490097348103391</v>
+        <v>0.83910288687479018</v>
       </c>
       <c r="E25" s="24">
-        <v>10000</v>
+        <v>7999</v>
       </c>
       <c r="F25" s="22">
         <f t="shared" si="15"/>
-        <v>0.68465951882129017</v>
+        <v>0.54765914910515001</v>
       </c>
       <c r="G25" s="24">
-        <v>10000</v>
+        <v>7999</v>
       </c>
       <c r="H25" s="22">
         <f t="shared" si="16"/>
-        <v>0.5832468183886057</v>
+        <v>0.46653913002904568</v>
       </c>
       <c r="I25" s="24">
-        <v>10000</v>
+        <v>7999</v>
       </c>
       <c r="J25" s="22">
         <f t="shared" si="17"/>
-        <v>0.43467299550548122</v>
+        <v>0.34769492910483446</v>
       </c>
       <c r="K25" s="24">
-        <v>10000</v>
+        <v>7999</v>
       </c>
       <c r="L25" s="22">
         <f t="shared" si="18"/>
-        <v>0.69858257595339057</v>
+        <v>0.55879620250511708</v>
       </c>
       <c r="M25" s="24">
-        <v>10000</v>
+        <v>7999</v>
       </c>
       <c r="N25" s="22">
         <f t="shared" si="19"/>
-        <v>0.41831727692185416</v>
+        <v>0.33461198980979112</v>
       </c>
       <c r="O25" s="24">
-        <v>10000</v>
+        <v>7999</v>
       </c>
       <c r="P25" s="22">
         <f t="shared" si="20"/>
-        <v>0.29385576971111038</v>
+        <v>0.23505523019191721</v>
       </c>
       <c r="Q25" s="24">
-        <v>10000</v>
+        <v>7999</v>
       </c>
       <c r="R25" s="22">
         <f t="shared" si="21"/>
-        <v>0.21027266055894678</v>
+        <v>0.16819710118110154</v>
       </c>
       <c r="S25" s="24">
-        <v>10000</v>
+        <v>7999</v>
       </c>
       <c r="T25" s="22">
         <f t="shared" si="22"/>
-        <v>0.43940978477708742</v>
+        <v>0.35148388684319221</v>
       </c>
       <c r="U25" s="24">
-        <v>10000</v>
+        <v>7999</v>
       </c>
       <c r="V25" s="22">
         <f t="shared" si="23"/>
-        <v>0.26463567606476163</v>
+        <v>0.21168207728420282</v>
       </c>
       <c r="W25" s="24">
-        <v>10000</v>
+        <v>7999</v>
       </c>
       <c r="X25" s="22">
         <f t="shared" ref="X25" si="27">IF(W$13=0,"-",(W25*100)/W$13)</f>
-        <v>0.26463567606476163</v>
+        <v>0.21168207728420282</v>
       </c>
       <c r="Y25" s="24">
-        <v>10000</v>
+        <v>7999</v>
       </c>
       <c r="Z25" s="22">
         <f t="shared" si="24"/>
-        <v>0.18941044106115307</v>
+        <v>0.15150941180481634</v>
       </c>
       <c r="AA25" s="24">
         <f>SUM(C25,E25,G25,I25,K25,M25,O25,Q25,S25,U25,W25,Y25)</f>
-        <v>120000</v>
+        <v>95988</v>
       </c>
       <c r="AB25" s="22">
         <f t="shared" si="25"/>
-        <v>0.35796724719010625</v>
+        <v>0.28633800102736601</v>
       </c>
       <c r="AC25" s="130"/>
       <c r="AD25" s="146"/>
@@ -10202,7 +10202,7 @@
       </c>
       <c r="W26" s="167"/>
       <c r="X26" s="151">
-        <f t="shared" ref="X25:X33" si="28">IF(W$13=0,"-",(W26*100)/W$13)</f>
+        <f t="shared" ref="X26:X33" si="28">IF(W$13=0,"-",(W26*100)/W$13)</f>
         <v>0</v>
       </c>
       <c r="Y26" s="167"/>
@@ -10822,107 +10822,107 @@
       <c r="B33" s="155"/>
       <c r="C33" s="156">
         <f>SUM(C22:C32)</f>
-        <v>145889.68333333332</v>
+        <v>143888.68333333332</v>
       </c>
       <c r="D33" s="151">
         <f t="shared" si="14"/>
-        <v>15.303969802506433</v>
+        <v>15.094062954570884</v>
       </c>
       <c r="E33" s="156">
         <f>SUM(E22:E32)</f>
-        <v>145889.68333333332</v>
+        <v>143888.68333333332</v>
       </c>
       <c r="F33" s="151">
         <f t="shared" si="15"/>
-        <v>9.988476039199039</v>
+        <v>9.8514756694828982</v>
       </c>
       <c r="G33" s="156">
         <f>SUM(G22:G32)</f>
-        <v>150889.68333333332</v>
+        <v>148888.68333333332</v>
       </c>
       <c r="H33" s="151">
         <f t="shared" si="16"/>
-        <v>8.8005927731830891</v>
+        <v>8.6838850848235278</v>
       </c>
       <c r="I33" s="156">
         <f>SUM(I22:I32)</f>
-        <v>145889.68333333332</v>
+        <v>143888.68333333332</v>
       </c>
       <c r="J33" s="151">
         <f t="shared" si="17"/>
-        <v>6.3414305667846076</v>
+        <v>6.2544525003839606</v>
       </c>
       <c r="K33" s="156">
         <f>SUM(K22:K32)</f>
-        <v>145889.68333333332</v>
+        <v>143888.68333333332</v>
       </c>
       <c r="L33" s="151">
         <f t="shared" si="18"/>
-        <v>10.191599078802442</v>
+        <v>10.05181270535417</v>
       </c>
       <c r="M33" s="156">
         <f>SUM(M22:M32)</f>
-        <v>178389.68333333332</v>
+        <v>176388.68333333332</v>
       </c>
       <c r="N33" s="151">
         <f t="shared" si="19"/>
-        <v>7.4623486562951866</v>
+        <v>7.3786433691831235</v>
       </c>
       <c r="O33" s="156">
         <f>SUM(O22:O32)</f>
-        <v>145889.68333333332</v>
+        <v>143888.68333333332</v>
       </c>
       <c r="P33" s="151">
         <f t="shared" si="20"/>
-        <v>4.2870525188826818</v>
+        <v>4.2282519793634883</v>
       </c>
       <c r="Q33" s="156">
         <f>SUM(Q22:Q32)</f>
-        <v>145889.68333333332</v>
+        <v>143888.68333333332</v>
       </c>
       <c r="R33" s="151">
         <f t="shared" si="21"/>
-        <v>3.0676611862602234</v>
+        <v>3.025585626882378</v>
       </c>
       <c r="S33" s="156">
         <f>SUM(S22:S32)</f>
-        <v>150889.68333333332</v>
+        <v>148888.68333333332</v>
       </c>
       <c r="T33" s="151">
         <f t="shared" si="22"/>
-        <v>6.6302403278582869</v>
+        <v>6.5423144299243914</v>
       </c>
       <c r="U33" s="156">
         <f>SUM(U22:U32)</f>
-        <v>145889.68333333332</v>
+        <v>143888.68333333332</v>
       </c>
       <c r="V33" s="151">
         <f t="shared" si="23"/>
-        <v>3.8607614979790652</v>
+        <v>3.8078078991985063</v>
       </c>
       <c r="W33" s="156">
         <f>SUM(W22:W32)</f>
-        <v>145889.68333333332</v>
+        <v>143888.68333333332</v>
       </c>
       <c r="X33" s="151">
         <f t="shared" si="28"/>
-        <v>3.8607614979790652</v>
+        <v>3.8078078991985063</v>
       </c>
       <c r="Y33" s="156">
         <f>SUM(Y22:Y32)</f>
-        <v>150889.68333333332</v>
+        <v>148888.68333333332</v>
       </c>
       <c r="Z33" s="151">
         <f t="shared" si="24"/>
-        <v>2.8580081471744379</v>
+        <v>2.8201071179181012</v>
       </c>
       <c r="AA33" s="156">
         <f>SUM(AA22:AA32)</f>
-        <v>1798176.2</v>
+        <v>1774164.2</v>
       </c>
       <c r="AB33" s="151">
         <f t="shared" si="25"/>
-        <v>5.3640682023063828</v>
+        <v>5.2924389561436431</v>
       </c>
       <c r="AC33" s="146"/>
       <c r="AD33" s="146"/>
@@ -10966,107 +10966,107 @@
       <c r="B35" s="148"/>
       <c r="C35" s="150">
         <f>C19-C33</f>
-        <v>807390.31666666665</v>
+        <v>809391.31666666665</v>
       </c>
       <c r="D35" s="151">
         <f>IF(C13=0,"-",(C35*100)/C13)</f>
-        <v>84.69603019749357</v>
+        <v>84.905937045429127</v>
       </c>
       <c r="E35" s="150">
         <f>E19-E33</f>
-        <v>1314690.3166666667</v>
+        <v>1316691.3166666667</v>
       </c>
       <c r="F35" s="151">
         <f>IF(E13=0,"-",(E35*100)/E13)</f>
-        <v>90.011523960800957</v>
+        <v>90.148524330517105</v>
       </c>
       <c r="G35" s="150">
         <f>G19-G33</f>
-        <v>1563650.3166666667</v>
+        <v>1565651.3166666667</v>
       </c>
       <c r="H35" s="151">
         <f>IF(G13=0,"-",(G35*100)/G13)</f>
-        <v>91.199407226816902</v>
+        <v>91.31611491517647</v>
       </c>
       <c r="I35" s="150">
         <f>I19-I33</f>
-        <v>2154690.3166666669</v>
+        <v>2156691.3166666669</v>
       </c>
       <c r="J35" s="151">
         <f>IF(I13=0,"-",(I35*100)/I13)</f>
-        <v>93.658569433215405</v>
+        <v>93.745547499616052</v>
       </c>
       <c r="K35" s="150">
         <f>K19-K33</f>
-        <v>1285580.3166666667</v>
+        <v>1287581.3166666667</v>
       </c>
       <c r="L35" s="151">
         <f>IF(K13=0,"-",(K35*100)/K13)</f>
-        <v>89.80840092119756</v>
+        <v>89.948187294645834</v>
       </c>
       <c r="M35" s="150">
         <f>M19-M33</f>
-        <v>2212140.3166666669</v>
+        <v>2214141.3166666669</v>
       </c>
       <c r="N35" s="151">
         <f>IF(M13=0,"-",(M35*100)/M13)</f>
-        <v>92.537651343704823</v>
+        <v>92.621356630816891</v>
       </c>
       <c r="O35" s="150">
         <f>O19-O33</f>
-        <v>3257140.3166666669</v>
+        <v>3259141.3166666669</v>
       </c>
       <c r="P35" s="151">
         <f>IF(O13=0,"-",(O35*100)/O13)</f>
-        <v>95.712947481117325</v>
+        <v>95.771748020636522</v>
       </c>
       <c r="Q35" s="150">
         <f>Q19-Q33</f>
-        <v>4609840.3166666664</v>
+        <v>4611841.3166666664</v>
       </c>
       <c r="R35" s="151">
         <f>IF(Q13=0,"-",(Q35*100)/Q13)</f>
-        <v>96.932338813739761</v>
+        <v>96.974414373117611</v>
       </c>
       <c r="S35" s="150">
         <f>S19-S33</f>
-        <v>2124890.3166666669</v>
+        <v>2126891.3166666669</v>
       </c>
       <c r="T35" s="151">
         <f>IF(S13=0,"-",(S35*100)/S13)</f>
-        <v>93.369759672141726</v>
+        <v>93.457685570075611</v>
       </c>
       <c r="U35" s="150">
         <f>U19-U33</f>
-        <v>3632890.3166666669</v>
+        <v>3634891.3166666669</v>
       </c>
       <c r="V35" s="151">
         <f>IF(U13=0,"-",(U35*100)/U13)</f>
-        <v>96.139238502020945</v>
+        <v>96.192192100801492</v>
       </c>
       <c r="W35" s="150">
         <f>W19-W33</f>
-        <v>3632890.3166666669</v>
+        <v>3634891.3166666669</v>
       </c>
       <c r="X35" s="151">
         <f>IF(W13=0,"-",(W35*100)/W13)</f>
-        <v>96.139238502020945</v>
+        <v>96.192192100801492</v>
       </c>
       <c r="Y35" s="150">
         <f>Y19-Y33</f>
-        <v>5128650.3166666664</v>
+        <v>5130651.3166666664</v>
       </c>
       <c r="Z35" s="151">
         <f>IF(Y13=0,"-",(Y35*100)/Y13)</f>
-        <v>97.141991852825555</v>
+        <v>97.179892882081887</v>
       </c>
       <c r="AA35" s="150">
         <f>AA19-AA33</f>
-        <v>31724443.800000001</v>
+        <v>31748455.800000001</v>
       </c>
       <c r="AB35" s="151">
         <f>IF(AA13=0,"-",(AA35*100)/AA13)</f>
-        <v>94.635931797693615</v>
+        <v>94.707561043856359</v>
       </c>
       <c r="AC35" s="146"/>
       <c r="AD35" s="146"/>
@@ -12073,7 +12073,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD64"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A25" sqref="A25:AB25"/>
     </sheetView>
   </sheetViews>
@@ -13753,96 +13753,96 @@
       </c>
       <c r="B25" s="23"/>
       <c r="C25" s="24">
-        <v>10000</v>
+        <v>7999</v>
       </c>
       <c r="D25" s="22">
         <f t="shared" si="14"/>
-        <v>0.63038983307277219</v>
+        <v>0.50424882747491051</v>
       </c>
       <c r="E25" s="24">
-        <v>10000</v>
+        <v>7999</v>
       </c>
       <c r="F25" s="22">
         <f t="shared" si="15"/>
-        <v>0.41142443367426706</v>
+        <v>0.32909840449604622</v>
       </c>
       <c r="G25" s="24">
-        <v>10000</v>
+        <v>7999</v>
       </c>
       <c r="H25" s="22">
         <f t="shared" si="16"/>
-        <v>0.35050577984030956</v>
+        <v>0.2803695732942636</v>
       </c>
       <c r="I25" s="24">
-        <v>10000</v>
+        <v>7999</v>
       </c>
       <c r="J25" s="22">
         <f t="shared" si="17"/>
-        <v>0.27060523567009975</v>
+        <v>0.2164571280125128</v>
       </c>
       <c r="K25" s="24">
-        <v>10000</v>
+        <v>7999</v>
       </c>
       <c r="L25" s="22">
         <f t="shared" si="18"/>
-        <v>0.50364259506883535</v>
+        <v>0.40286371179556141</v>
       </c>
       <c r="M25" s="24">
-        <v>10000</v>
+        <v>7999</v>
       </c>
       <c r="N25" s="22">
         <f t="shared" si="19"/>
-        <v>0.3017369487454532</v>
+        <v>0.24135938530148801</v>
       </c>
       <c r="O25" s="24">
-        <v>10000</v>
+        <v>7999</v>
       </c>
       <c r="P25" s="22">
         <f t="shared" si="20"/>
-        <v>0.21184667808520261</v>
+        <v>0.16945615780035359</v>
       </c>
       <c r="Q25" s="24">
-        <v>10000</v>
+        <v>7999</v>
       </c>
       <c r="R25" s="22">
         <f t="shared" si="21"/>
-        <v>0.15153478215738553</v>
+        <v>0.12121267224769269</v>
       </c>
       <c r="S25" s="24">
-        <v>10000</v>
+        <v>7999</v>
       </c>
       <c r="T25" s="22">
         <f t="shared" si="22"/>
-        <v>0.32604141704120676</v>
+        <v>0.26080052949126126</v>
       </c>
       <c r="U25" s="24">
-        <v>10000</v>
+        <v>7999</v>
       </c>
       <c r="V25" s="22">
         <f t="shared" si="23"/>
-        <v>0.1962267557143684</v>
+        <v>0.1569617818959233</v>
       </c>
       <c r="W25" s="24">
-        <v>10000</v>
+        <v>7999</v>
       </c>
       <c r="X25" s="22">
         <f t="shared" ref="X25" si="27">IF(W$13=0,"-",(W25*100)/W$13)</f>
-        <v>0.1962267557143684</v>
+        <v>0.1569617818959233</v>
       </c>
       <c r="Y25" s="24">
-        <v>10000</v>
+        <v>7999</v>
       </c>
       <c r="Z25" s="22">
         <f t="shared" si="24"/>
-        <v>0.14039117192232717</v>
+        <v>0.11229889842066951</v>
       </c>
       <c r="AA25" s="24">
         <f>SUM(C25,E25,G25,I25,K25,M25,O25,Q25,S25,U25,W25,Y25)</f>
-        <v>120000</v>
+        <v>95988</v>
       </c>
       <c r="AB25" s="22">
         <f t="shared" si="25"/>
-        <v>0.25227626774080297</v>
+        <v>0.20179578656586827</v>
       </c>
       <c r="AC25" s="18"/>
       <c r="AD25" s="18"/>
@@ -13904,7 +13904,7 @@
       </c>
       <c r="W26" s="24"/>
       <c r="X26" s="22">
-        <f t="shared" ref="X25:X33" si="28">IF(W$13=0,"-",(W26*100)/W$13)</f>
+        <f t="shared" ref="X26:X33" si="28">IF(W$13=0,"-",(W26*100)/W$13)</f>
         <v>0</v>
       </c>
       <c r="Y26" s="24"/>
@@ -14524,107 +14524,107 @@
       <c r="B33" s="26"/>
       <c r="C33" s="27">
         <f>SUM(C22:C32)</f>
-        <v>145889.68333333332</v>
+        <v>143888.68333333332</v>
       </c>
       <c r="D33" s="22">
         <f t="shared" si="14"/>
-        <v>9.1967373123539584</v>
+        <v>9.070596306756098</v>
       </c>
       <c r="E33" s="27">
         <f>SUM(E22:E32)</f>
-        <v>145889.68333333332</v>
+        <v>143888.68333333332</v>
       </c>
       <c r="F33" s="22">
         <f t="shared" si="15"/>
-        <v>6.0022580344334822</v>
+        <v>5.9199320052552613</v>
       </c>
       <c r="G33" s="27">
         <f>SUM(G22:G32)</f>
-        <v>150889.68333333332</v>
+        <v>148888.68333333332</v>
       </c>
       <c r="H33" s="22">
         <f t="shared" si="16"/>
-        <v>5.2887706126607359</v>
+        <v>5.2186344061146901</v>
       </c>
       <c r="I33" s="27">
         <f>SUM(I22:I32)</f>
-        <v>145889.68333333332</v>
+        <v>143888.68333333332</v>
       </c>
       <c r="J33" s="22">
         <f t="shared" si="17"/>
-        <v>3.9478512140252886</v>
+        <v>3.8937031063677017</v>
       </c>
       <c r="K33" s="27">
         <f>SUM(K22:K32)</f>
-        <v>145889.68333333332</v>
+        <v>143888.68333333332</v>
       </c>
       <c r="L33" s="22">
         <f t="shared" si="18"/>
-        <v>7.347625870777061</v>
+        <v>7.2468469875037869</v>
       </c>
       <c r="M33" s="27">
         <f>SUM(M22:M32)</f>
-        <v>178389.68333333332</v>
+        <v>176388.68333333332</v>
       </c>
       <c r="N33" s="22">
         <f t="shared" si="19"/>
-        <v>5.3826758736667619</v>
+        <v>5.3222983102227968</v>
       </c>
       <c r="O33" s="27">
         <f>SUM(O22:O32)</f>
-        <v>145889.68333333332</v>
+        <v>143888.68333333332</v>
       </c>
       <c r="P33" s="22">
         <f t="shared" si="20"/>
-        <v>3.0906244781068812</v>
+        <v>3.0482339578220321</v>
       </c>
       <c r="Q33" s="27">
         <f>SUM(Q22:Q32)</f>
-        <v>145889.68333333332</v>
+        <v>143888.68333333332</v>
       </c>
       <c r="R33" s="22">
         <f t="shared" si="21"/>
-        <v>2.2107361382926625</v>
+        <v>2.1804140283829696</v>
       </c>
       <c r="S33" s="27">
         <f>SUM(S22:S32)</f>
-        <v>150889.68333333332</v>
+        <v>148888.68333333332</v>
       </c>
       <c r="T33" s="22">
         <f t="shared" si="22"/>
-        <v>4.9196286170898951</v>
+        <v>4.8543877295399493</v>
       </c>
       <c r="U33" s="27">
         <f>SUM(U22:U32)</f>
-        <v>145889.68333333332</v>
+        <v>143888.68333333332</v>
       </c>
       <c r="V33" s="22">
         <f t="shared" si="23"/>
-        <v>2.8627459252696563</v>
+        <v>2.8234809514512111</v>
       </c>
       <c r="W33" s="27">
         <f>SUM(W22:W32)</f>
-        <v>145889.68333333332</v>
+        <v>143888.68333333332</v>
       </c>
       <c r="X33" s="22">
         <f t="shared" si="28"/>
-        <v>2.8627459252696563</v>
+        <v>2.8234809514512111</v>
       </c>
       <c r="Y33" s="27">
         <f>SUM(Y22:Y32)</f>
-        <v>150889.68333333332</v>
+        <v>148888.68333333332</v>
       </c>
       <c r="Z33" s="22">
         <f t="shared" si="24"/>
-        <v>2.1183579474155505</v>
+        <v>2.0902656739138927</v>
       </c>
       <c r="AA33" s="27">
         <f>SUM(AA22:AA32)</f>
-        <v>1798176.2</v>
+        <v>1774164.2</v>
       </c>
       <c r="AB33" s="22">
         <f t="shared" si="25"/>
-        <v>3.7803098373028305</v>
+        <v>3.7298293561278957</v>
       </c>
       <c r="AC33" s="18"/>
       <c r="AD33" s="18"/>
@@ -14668,107 +14668,107 @@
       <c r="B35" s="20"/>
       <c r="C35" s="21">
         <f>C19-C33</f>
-        <v>1440430.3166666667</v>
+        <v>1442431.3166666667</v>
       </c>
       <c r="D35" s="22">
         <f>IF(C13=0,"-",(C35*100)/C13)</f>
-        <v>90.80326268764604</v>
+        <v>90.929403693243898</v>
       </c>
       <c r="E35" s="21">
         <f>E19-E33</f>
-        <v>2284690.3166666669</v>
+        <v>2286691.3166666669</v>
       </c>
       <c r="F35" s="22">
         <f>IF(E13=0,"-",(E35*100)/E13)</f>
-        <v>93.997741965566533</v>
+        <v>94.080067994744752</v>
       </c>
       <c r="G35" s="21">
         <f>G19-G33</f>
-        <v>2702130.3166666669</v>
+        <v>2704131.3166666669</v>
       </c>
       <c r="H35" s="22">
         <f>IF(G13=0,"-",(G35*100)/G13)</f>
-        <v>94.711229387339273</v>
+        <v>94.781365593885312</v>
       </c>
       <c r="I35" s="21">
         <f>I19-I33</f>
-        <v>3549530.3166666669</v>
+        <v>3551531.3166666669</v>
       </c>
       <c r="J35" s="22">
         <f>IF(I13=0,"-",(I35*100)/I13)</f>
-        <v>96.052148785974723</v>
+        <v>96.106296893632305</v>
       </c>
       <c r="K35" s="21">
         <f>K19-K33</f>
-        <v>1839645.3166666667</v>
+        <v>1841646.3166666667</v>
       </c>
       <c r="L35" s="22">
         <f>IF(K13=0,"-",(K35*100)/K13)</f>
-        <v>92.652374129222935</v>
+        <v>92.753153012496213</v>
       </c>
       <c r="M35" s="21">
         <f>M19-M33</f>
-        <v>3135755.3166666669</v>
+        <v>3137756.3166666669</v>
       </c>
       <c r="N35" s="22">
         <f>IF(M13=0,"-",(M35*100)/M13)</f>
-        <v>94.617324126333244</v>
+        <v>94.677701689777209</v>
       </c>
       <c r="O35" s="21">
         <f>O19-O33</f>
-        <v>4574505.3166666664</v>
+        <v>4576506.3166666664</v>
       </c>
       <c r="P35" s="22">
         <f>IF(O13=0,"-",(O35*100)/O13)</f>
-        <v>96.909375521893111</v>
+        <v>96.951766042177965</v>
       </c>
       <c r="Q35" s="21">
         <f>Q19-Q33</f>
-        <v>6453255.3166666664</v>
+        <v>6455256.3166666664</v>
       </c>
       <c r="R35" s="22">
         <f>IF(Q13=0,"-",(Q35*100)/Q13)</f>
-        <v>97.789263861707326</v>
+        <v>97.81958597161703</v>
       </c>
       <c r="S35" s="21">
         <f>S19-S33</f>
-        <v>2916205.3166666669</v>
+        <v>2918206.3166666669</v>
       </c>
       <c r="T35" s="22">
         <f>IF(S13=0,"-",(S35*100)/S13)</f>
-        <v>95.080371382910116</v>
+        <v>95.145612270460063</v>
       </c>
       <c r="U35" s="21">
         <f>U19-U33</f>
-        <v>4950255.3166666664</v>
+        <v>4952256.3166666664</v>
       </c>
       <c r="V35" s="22">
         <f>IF(U13=0,"-",(U35*100)/U13)</f>
-        <v>97.137254074730336</v>
+        <v>97.176519048548784</v>
       </c>
       <c r="W35" s="21">
         <f>W19-W33</f>
-        <v>4950255.3166666664</v>
+        <v>4952256.3166666664</v>
       </c>
       <c r="X35" s="22">
         <f>IF(W13=0,"-",(W35*100)/W13)</f>
-        <v>97.137254074730336</v>
+        <v>97.176519048548784</v>
       </c>
       <c r="Y35" s="21">
         <f>Y19-Y33</f>
-        <v>6972065.3166666664</v>
+        <v>6974066.3166666664</v>
       </c>
       <c r="Z35" s="22">
         <f>IF(Y13=0,"-",(Y35*100)/Y13)</f>
-        <v>97.881642052584439</v>
+        <v>97.909734326086095</v>
       </c>
       <c r="AA35" s="21">
         <f>AA19-AA33</f>
-        <v>45768723.799999997</v>
+        <v>45792735.799999997</v>
       </c>
       <c r="AB35" s="22">
         <f>IF(AA13=0,"-",(AA35*100)/AA13)</f>
-        <v>96.219690162697177</v>
+        <v>96.270170643872106</v>
       </c>
       <c r="AC35" s="18"/>
       <c r="AD35" s="18"/>
